--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="212">
   <si>
     <t>id_cliente</t>
   </si>
@@ -64,88 +64,85 @@
     <t>1x a cada 10 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
+    <t>1x a cada 5 meses - irregular</t>
+  </si>
+  <si>
+    <t>1x a cada 6 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 8 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 7 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 10 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 2 meses - irregular</t>
+  </si>
+  <si>
+    <t>1x a cada 6 meses - irregular</t>
+  </si>
+  <si>
+    <t>1x a cada 5 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 4 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 5 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 8 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 3 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
     <t>1x a cada 4 meses - irregular</t>
   </si>
   <si>
-    <t>1x a cada 6 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 8 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 7 meses - irregular (preferencialmente na 2ª quinzena)</t>
+    <t>1x a cada 4 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 15 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x por mês - irregular</t>
+  </si>
+  <si>
+    <t>2x por quinzena - irregular</t>
+  </si>
+  <si>
+    <t>1x por mês - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
     <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
-    <t>1x a cada 10 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 5 meses - irregular</t>
-  </si>
-  <si>
-    <t>1x a cada 2 meses - irregular</t>
-  </si>
-  <si>
-    <t>1x a cada 5 meses - irregular (preferencialmente na 1ª quinzena)</t>
+    <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 11 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x por semana - irregular</t>
+  </si>
+  <si>
+    <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 9 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
     <t>1x a cada 8 meses - irregular</t>
   </si>
   <si>
-    <t>1x a cada 5 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 4 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 3 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 4 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 8 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 6 meses - irregular</t>
-  </si>
-  <si>
-    <t>1x a cada 11 meses - irregular</t>
-  </si>
-  <si>
-    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x por mês - irregular</t>
-  </si>
-  <si>
-    <t>2x por quinzena - irregular</t>
-  </si>
-  <si>
-    <t>1x por mês - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x por semana - irregular</t>
-  </si>
-  <si>
-    <t>1x a cada 9 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 11 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 9 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 13 meses - irregular</t>
+    <t>1x a cada 7 meses - irregular</t>
   </si>
   <si>
     <t>diário - todos os dias úteis - irregular</t>
@@ -154,235 +151,178 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 53.0 meses sem comprar</t>
+    <t>INATIVO - 53.5 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 49.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.3 meses sem comprar</t>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 54.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
+    <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -412,9 +352,6 @@
     <t>ILMA DE SOUZA SILVA</t>
   </si>
   <si>
-    <t>MIICHELLE HONORATO</t>
-  </si>
-  <si>
     <t>JAYÇARA REBELLO DA SILVA</t>
   </si>
   <si>
@@ -430,7 +367,7 @@
     <t>ELIANA SANTOS</t>
   </si>
   <si>
-    <t>ELIANA GLORIA DOS SANTOS</t>
+    <t>VANESSA MENEZES</t>
   </si>
   <si>
     <t>EVERTON DOS ANJOS</t>
@@ -454,15 +391,9 @@
     <t>SANDRO ELI DO CARMO PINTO</t>
   </si>
   <si>
-    <t>MICHEL HARUO</t>
-  </si>
-  <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
-    <t>ISRAEL SILVA</t>
-  </si>
-  <si>
     <t>CRISTIANO PANTOJA</t>
   </si>
   <si>
@@ -475,9 +406,6 @@
     <t>BEATRIZ MELLO</t>
   </si>
   <si>
-    <t>CRISTIANO RODRIGUES DA CRUZ</t>
-  </si>
-  <si>
     <t>GABRIEL FIGUEIREDO</t>
   </si>
   <si>
@@ -523,9 +451,6 @@
     <t>REGIS LANE MIRANDA PONTE</t>
   </si>
   <si>
-    <t>MIKAELLA FERNADES</t>
-  </si>
-  <si>
     <t>LUCIANA MOREIRA</t>
   </si>
   <si>
@@ -535,9 +460,6 @@
     <t>MOTO HONDA DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>ALVARINA DE ALMEIDA</t>
-  </si>
-  <si>
     <t>ALESSANDRO SANGALO</t>
   </si>
   <si>
@@ -577,21 +499,15 @@
     <t>VANUZA ALMEIDA TORRES</t>
   </si>
   <si>
-    <t>IANA DOS SANTOS RODRIGUES</t>
+    <t>ANNE CAROLINE SOARES DA SILVA</t>
   </si>
   <si>
     <t>LILIANE NONATA BARRETO</t>
   </si>
   <si>
-    <t>DANIEL CAMINHA BEZERRA</t>
-  </si>
-  <si>
     <t>KEILA</t>
   </si>
   <si>
-    <t>EVELLINY ARAUJO</t>
-  </si>
-  <si>
     <t>DAIANA HELENA PEREIRA DA SILVA</t>
   </si>
   <si>
@@ -658,30 +574,15 @@
     <t>RAFAEL MATOS</t>
   </si>
   <si>
-    <t>FABIO DE MELO</t>
-  </si>
-  <si>
     <t>Bernardo Monteiro</t>
   </si>
   <si>
-    <t>ANDEA</t>
-  </si>
-  <si>
     <t>MIKAELLE DE OLIVEIRA ALFAIA</t>
   </si>
   <si>
-    <t>DARCICLEIDE SMITH DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>LOTUS COMERCIO DE COSMETICOS LTDA</t>
   </si>
   <si>
-    <t>NELCHAEL COMERCIO DE COSMETICOS LTDA</t>
-  </si>
-  <si>
-    <t>REGIA COMERCIO DE COSMETICOS LTDA</t>
-  </si>
-  <si>
     <t>REHAEL COMERCIO DE COSMETICOS LTDA</t>
   </si>
   <si>
@@ -703,15 +604,6 @@
     <t>MARCIA PRAIA</t>
   </si>
   <si>
-    <t>RENATA BESSA</t>
-  </si>
-  <si>
-    <t>GUSTAVO CUNHA DA SILVA NETO</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO DAS IRMAS MISSIONARIAS CAPUCHINHAS</t>
-  </si>
-  <si>
     <t>SONIA FLORES</t>
   </si>
   <si>
@@ -724,18 +616,9 @@
     <t>DENSO INDUSTRIAL DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>SALVIA COMERCIO DE COSMETICOS LTDA</t>
-  </si>
-  <si>
     <t>CINTHIA MARIA CORRÊA SIQUEIRA</t>
   </si>
   <si>
-    <t>SUEDINA QUEIROZ</t>
-  </si>
-  <si>
-    <t>KATIA LUCIA DA SILVA</t>
-  </si>
-  <si>
     <t>THIAGO CARDOSO COUTINHO</t>
   </si>
   <si>
@@ -751,25 +634,19 @@
     <t>DANIEL AQUINO</t>
   </si>
   <si>
+    <t>MARIA DE JESUS TAVARES GATO</t>
+  </si>
+  <si>
+    <t>ELVES NEVES</t>
+  </si>
+  <si>
+    <t>CONDOMINIO MUNDI RESORT</t>
+  </si>
+  <si>
+    <t>BOARDTEC DO BRASIL LTDA</t>
+  </si>
+  <si>
     <t>BEMOL S/A</t>
-  </si>
-  <si>
-    <t>MARIA DE JESUS TAVARES GATO</t>
-  </si>
-  <si>
-    <t>SOCIEDADE DE TELEVISAO MANAUARA LTDA</t>
-  </si>
-  <si>
-    <t>ELVES NEVES</t>
-  </si>
-  <si>
-    <t>CONSELHO REGIONAL DE BIOLOGIA 6 REGIAO - CRBIO 06</t>
-  </si>
-  <si>
-    <t>CONDOMINIO MUNDI RESORT</t>
-  </si>
-  <si>
-    <t>BOARDTEC DO BRASIL LTDA</t>
   </si>
   <si>
     <t>RUY MENTA JUNIOR</t>
@@ -1159,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,13 +1110,13 @@
         <v>44177.71849537037</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1247,16 +1124,16 @@
         <v>226</v>
       </c>
       <c r="B3" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D3" s="1">
         <v>0.17</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>0.17</v>
@@ -1265,16 +1142,16 @@
         <v>12</v>
       </c>
       <c r="H3" s="4">
-        <v>45633.71351851852</v>
+        <v>45764.7384837963</v>
       </c>
       <c r="I3" s="4">
-        <v>45815.71351851852</v>
+        <v>45947.7384837963</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1303,13 +1180,13 @@
         <v>44754.55429398148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1338,13 +1215,13 @@
         <v>45391.81866898148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1373,13 +1250,13 @@
         <v>45346.52106481481</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1396,7 +1273,7 @@
         <v>0.17</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>0.17</v>
@@ -1408,13 +1285,13 @@
         <v>45714.45519675926</v>
       </c>
       <c r="I7" s="4">
-        <v>45834.45519675926</v>
+        <v>45864.45519675926</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1443,13 +1320,13 @@
         <v>45296.48252314814</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1478,13 +1355,13 @@
         <v>45264.65059027778</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1513,53 +1390,53 @@
         <v>45759.4741087963</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1868</v>
+        <v>1907</v>
       </c>
       <c r="B11" s="1">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="4">
-        <v>44272.69288194444</v>
+        <v>45687.55204861111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1907</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1">
         <v>0.08</v>
@@ -1571,205 +1448,205 @@
         <v>0.17</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>0.17</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H12" s="4">
-        <v>45687.55204861111</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>45761.77471064815</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45914.77471064815</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>2030</v>
+        <v>2095</v>
       </c>
       <c r="B13" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D13" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="4">
-        <v>45761.77471064815</v>
+        <v>45728.57520833334</v>
       </c>
       <c r="I13" s="4">
-        <v>45914.77471064815</v>
+        <v>45789.57520833334</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>2095</v>
+        <v>2192</v>
       </c>
       <c r="B14" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C14" s="1">
         <v>0.17</v>
       </c>
       <c r="D14" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="4">
-        <v>45728.57520833334</v>
-      </c>
-      <c r="I14" s="4">
-        <v>45789.57520833334</v>
+        <v>45429.70015046297</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>2192</v>
+        <v>2278</v>
       </c>
       <c r="B15" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C15" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D15" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4">
-        <v>45429.70015046297</v>
+        <v>44641.65599537037</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>2278</v>
+        <v>2338</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4">
-        <v>44641.65599537037</v>
+        <v>45762.86993055556</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>2290</v>
+        <v>2401</v>
       </c>
       <c r="B17" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C17" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0.17</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>0.17</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4">
-        <v>45688.79423611111</v>
+        <v>44714.74429398148</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>2401</v>
+        <v>2475</v>
       </c>
       <c r="B18" s="1">
         <v>0.08</v>
@@ -1781,30 +1658,30 @@
         <v>0.17</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1">
         <v>0.17</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="4">
-        <v>44714.74429398148</v>
+        <v>45495.49012731481</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>2475</v>
+        <v>2502</v>
       </c>
       <c r="B19" s="1">
         <v>0.08</v>
@@ -1822,24 +1699,24 @@
         <v>0.17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
-        <v>45495.49012731481</v>
+        <v>45377.70813657407</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>2502</v>
+        <v>2525</v>
       </c>
       <c r="B20" s="1">
         <v>0.08</v>
@@ -1851,30 +1728,30 @@
         <v>0.17</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>0.17</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H20" s="4">
-        <v>45377.70813657407</v>
+        <v>44718.4404050926</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>2525</v>
+        <v>2610</v>
       </c>
       <c r="B21" s="1">
         <v>0.08</v>
@@ -1886,30 +1763,30 @@
         <v>0.17</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
         <v>0.17</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="4">
-        <v>44718.4404050926</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>45</v>
+        <v>45691.81461805556</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45872.81461805556</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>2610</v>
+        <v>2797</v>
       </c>
       <c r="B22" s="1">
         <v>0.08</v>
@@ -1921,30 +1798,30 @@
         <v>0.17</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <v>0.17</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" s="4">
-        <v>45691.81461805556</v>
-      </c>
-      <c r="I22" s="4">
-        <v>45841.81461805556</v>
+        <v>44961.73466435185</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>2797</v>
+        <v>2866</v>
       </c>
       <c r="B23" s="1">
         <v>0.08</v>
@@ -1962,59 +1839,59 @@
         <v>0.17</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H23" s="4">
-        <v>44961.73466435185</v>
+        <v>44701.78590277778</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>2866</v>
+        <v>2936</v>
       </c>
       <c r="B24" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D24" s="1">
         <v>0.17</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <v>0.17</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24" s="4">
-        <v>44701.78590277778</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>45686.49481481482</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45837.49481481482</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>2881</v>
+        <v>3034</v>
       </c>
       <c r="B25" s="1">
         <v>0.08</v>
@@ -2032,24 +1909,24 @@
         <v>0.17</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H25" s="4">
-        <v>44830.57511574074</v>
+        <v>45251.62864583333</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>2936</v>
+        <v>3355</v>
       </c>
       <c r="B26" s="1">
         <v>0.17</v>
@@ -2061,135 +1938,135 @@
         <v>0.17</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>0.17</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H26" s="4">
-        <v>45686.49481481482</v>
-      </c>
-      <c r="I26" s="4">
-        <v>45837.49481481482</v>
+        <v>45740.63751157407</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>2978</v>
+        <v>3358</v>
       </c>
       <c r="B27" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C27" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0.17</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
         <v>0.17</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H27" s="4">
-        <v>45068.79546296296</v>
+        <v>45308.67796296296</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>3034</v>
+        <v>3361</v>
       </c>
       <c r="B28" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D28" s="1">
         <v>0.17</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
         <v>0.17</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" s="4">
-        <v>45251.62864583333</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>45656.80199074074</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45807.80199074074</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>3355</v>
+        <v>3645</v>
       </c>
       <c r="B29" s="1">
         <v>0.17</v>
       </c>
       <c r="C29" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H29" s="4">
-        <v>45740.63751157407</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>45</v>
+        <v>45631.70384259259</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45782.70384259259</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>3358</v>
+        <v>3653</v>
       </c>
       <c r="B30" s="1">
         <v>0.08</v>
@@ -2207,59 +2084,59 @@
         <v>0.17</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H30" s="4">
-        <v>45308.67796296296</v>
+        <v>45161.61640046296</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>3361</v>
+        <v>3664</v>
       </c>
       <c r="B31" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C31" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>0.17</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
         <v>0.17</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H31" s="4">
-        <v>45656.80199074074</v>
+        <v>45609.73203703704</v>
       </c>
       <c r="I31" s="4">
-        <v>45807.80199074074</v>
+        <v>45790.73203703704</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>3630</v>
+        <v>3710</v>
       </c>
       <c r="B32" s="1">
         <v>0.17</v>
@@ -2271,65 +2148,65 @@
         <v>0.33</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1">
         <v>0.33</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H32" s="4">
-        <v>44988.68378472222</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>45758.87094907407</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45941.87094907407</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>3645</v>
+        <v>3711</v>
       </c>
       <c r="B33" s="1">
         <v>0.17</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D33" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E33">
         <v>8</v>
       </c>
       <c r="F33" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33" s="4">
-        <v>45631.70384259259</v>
-      </c>
-      <c r="I33" s="4">
-        <v>45782.70384259259</v>
+        <v>45398.78646990741</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>3653</v>
+        <v>3799</v>
       </c>
       <c r="B34" s="1">
         <v>0.08</v>
@@ -2341,30 +2218,30 @@
         <v>0.17</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
         <v>0.17</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H34" s="4">
-        <v>45161.61640046296</v>
+        <v>45033.63594907407</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>3664</v>
+        <v>3926</v>
       </c>
       <c r="B35" s="1">
         <v>0.08</v>
@@ -2376,100 +2253,100 @@
         <v>0.17</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
         <v>0.17</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H35" s="4">
-        <v>45609.73203703704</v>
+        <v>45642.61438657407</v>
       </c>
       <c r="I35" s="4">
-        <v>45760.73203703704</v>
+        <v>45824.61438657407</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>3710</v>
+        <v>4165</v>
       </c>
       <c r="B36" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D36" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H36" s="4">
-        <v>45758.87094907407</v>
+        <v>45754.75</v>
       </c>
       <c r="I36" s="4">
-        <v>45941.87094907407</v>
+        <v>45815.75</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>3711</v>
+        <v>4243</v>
       </c>
       <c r="B37" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C37" s="1">
         <v>0.17</v>
       </c>
       <c r="D37" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F37" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H37" s="4">
-        <v>45398.78646990741</v>
+        <v>44869.73755787037</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>3799</v>
+        <v>4298</v>
       </c>
       <c r="B38" s="1">
         <v>0.08</v>
@@ -2487,24 +2364,24 @@
         <v>0.17</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H38" s="4">
-        <v>45033.63594907407</v>
+        <v>44805.5749074074</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>3926</v>
+        <v>4594</v>
       </c>
       <c r="B39" s="1">
         <v>0.08</v>
@@ -2522,141 +2399,141 @@
         <v>0.17</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H39" s="4">
-        <v>45642.61438657407</v>
-      </c>
-      <c r="I39" s="4">
-        <v>45824.61438657407</v>
+        <v>45461.68362268519</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>4165</v>
+        <v>4683</v>
       </c>
       <c r="B40" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C40" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D40" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H40" s="4">
-        <v>45754.75</v>
-      </c>
-      <c r="I40" s="4">
-        <v>45815.75</v>
+        <v>45602.63325231482</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>4243</v>
+        <v>5133</v>
       </c>
       <c r="B41" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C41" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H41" s="4">
-        <v>44900.71479166667</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>45</v>
+        <v>45612.75633101852</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45704.75633101852</v>
       </c>
       <c r="J41" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>4298</v>
+        <v>5195</v>
       </c>
       <c r="B42" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D42" s="1">
         <v>0.17</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" s="1">
         <v>0.17</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4">
-        <v>44805.5749074074</v>
+        <v>45063.75159722222</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>4594</v>
+        <v>5216</v>
       </c>
       <c r="B43" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D43" s="1">
         <v>0.17</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1">
         <v>0.17</v>
@@ -2665,56 +2542,56 @@
         <v>27</v>
       </c>
       <c r="H43" s="4">
-        <v>45461.68362268519</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>45</v>
+        <v>45652.57638888889</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45742.57638888889</v>
       </c>
       <c r="J43" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>4683</v>
+        <v>5262</v>
       </c>
       <c r="B44" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C44" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D44" s="1">
         <v>0.33</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1">
         <v>0.33</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="4">
-        <v>45602.63325231482</v>
-      </c>
-      <c r="I44" s="4">
-        <v>45753.63325231482</v>
+        <v>45358.79960648148</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>5133</v>
+        <v>5305</v>
       </c>
       <c r="B45" s="1">
         <v>0.08</v>
@@ -2726,42 +2603,42 @@
         <v>0.17</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1">
         <v>0.17</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4">
-        <v>45612.75633101852</v>
-      </c>
-      <c r="I45" s="4">
-        <v>45704.75633101852</v>
+        <v>45761.78282407407</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>5195</v>
+        <v>5322</v>
       </c>
       <c r="B46" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C46" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
         <v>0.17</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1">
         <v>0.17</v>
@@ -2770,581 +2647,581 @@
         <v>11</v>
       </c>
       <c r="H46" s="4">
-        <v>45063.75159722222</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>45</v>
+        <v>45741.43402777778</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45833.43402777778</v>
       </c>
       <c r="J46" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>5216</v>
+        <v>5464</v>
       </c>
       <c r="B47" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C47" s="1">
         <v>0.17</v>
       </c>
       <c r="D47" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H47" s="4">
-        <v>45652.57638888889</v>
+        <v>45633.75690972222</v>
       </c>
       <c r="I47" s="4">
-        <v>45742.57638888889</v>
+        <v>45723.75690972222</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>5219</v>
+        <v>5476</v>
       </c>
       <c r="B48" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D48" s="1">
         <v>0.33</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1">
         <v>0.33</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H48" s="4">
-        <v>45139.71228009259</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>45610.77327546296</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45702.77327546296</v>
       </c>
       <c r="J48" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>5262</v>
+        <v>5611</v>
       </c>
       <c r="B49" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C49" s="1">
         <v>0.33</v>
       </c>
       <c r="D49" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H49" s="4">
-        <v>45358.79960648148</v>
+        <v>45537.70445601852</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>5305</v>
+        <v>5744</v>
       </c>
       <c r="B50" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C50" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D50" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H50" s="4">
-        <v>45761.78282407407</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>45</v>
+        <v>45653.80520833333</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45715.80520833333</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>5322</v>
+        <v>5754</v>
       </c>
       <c r="B51" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D51" s="1">
         <v>0.17</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1">
         <v>0.17</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H51" s="4">
-        <v>45741.43402777778</v>
+        <v>45775.66159722222</v>
       </c>
       <c r="I51" s="4">
-        <v>45833.43402777778</v>
+        <v>45836.66159722222</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>5340</v>
+        <v>5984</v>
       </c>
       <c r="B52" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D52" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F52" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H52" s="4">
-        <v>45124.68400462963</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>45</v>
+        <v>45780.89711805555</v>
+      </c>
+      <c r="I52" s="4">
+        <v>45795.89711805555</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>5464</v>
+        <v>5985</v>
       </c>
       <c r="B53" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="C53" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D53" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H53" s="4">
-        <v>45633.75690972222</v>
+        <v>45777.83215277778</v>
       </c>
       <c r="I53" s="4">
-        <v>45723.75690972222</v>
+        <v>45792.83215277778</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>5476</v>
+        <v>5986</v>
       </c>
       <c r="B54" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C54" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D54" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F54" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H54" s="4">
-        <v>45610.77327546296</v>
+        <v>45783.60520833333</v>
       </c>
       <c r="I54" s="4">
-        <v>45702.77327546296</v>
+        <v>45844.60520833333</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>5611</v>
+        <v>5988</v>
       </c>
       <c r="B55" s="1">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="C55" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F55" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H55" s="4">
-        <v>45537.70445601852</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>45</v>
+        <v>45719.69902777778</v>
+      </c>
+      <c r="I55" s="4">
+        <v>45734.69902777778</v>
       </c>
       <c r="J55" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>5744</v>
+        <v>6136</v>
       </c>
       <c r="B56" s="1">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="C56" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H56" s="4">
-        <v>45653.80520833333</v>
+        <v>45689.7587037037</v>
       </c>
       <c r="I56" s="4">
-        <v>45715.80520833333</v>
+        <v>45717.7587037037</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>5754</v>
+        <v>6293</v>
       </c>
       <c r="B57" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C57" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>0.17</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="1">
         <v>0.17</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H57" s="4">
-        <v>45700.67123842592</v>
-      </c>
-      <c r="I57" s="4">
-        <v>45789.67123842592</v>
+        <v>45479.50534722222</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>5984</v>
+        <v>6437</v>
       </c>
       <c r="B58" s="1">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="C58" s="1">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="D58" s="1">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H58" s="4">
-        <v>45758.90668981482</v>
+        <v>45708.67063657408</v>
       </c>
       <c r="I58" s="4">
-        <v>45773.90668981482</v>
+        <v>45736.67063657408</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>5985</v>
+        <v>6460</v>
       </c>
       <c r="B59" s="1">
-        <v>0.67</v>
+        <v>0.08</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="E59">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H59" s="4">
-        <v>45756.8378125</v>
+        <v>45733.76335648148</v>
       </c>
       <c r="I59" s="4">
-        <v>45771.8378125</v>
+        <v>45794.76335648148</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>5986</v>
+        <v>6539</v>
       </c>
       <c r="B60" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="C60" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H60" s="4">
-        <v>45744.41959490741</v>
+        <v>45764.40920138889</v>
       </c>
       <c r="I60" s="4">
-        <v>45805.41959490741</v>
+        <v>45794.40920138889</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>5988</v>
+        <v>6752</v>
       </c>
       <c r="B61" s="1">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="C61" s="1">
         <v>0.5</v>
       </c>
       <c r="D61" s="1">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" s="4">
-        <v>45719.69902777778</v>
+        <v>45782.49049768518</v>
       </c>
       <c r="I61" s="4">
-        <v>45734.69902777778</v>
+        <v>45797.49049768518</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>6136</v>
+        <v>7962</v>
       </c>
       <c r="B62" s="1">
         <v>0.17</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D62" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F62" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H62" s="4">
-        <v>45689.7587037037</v>
-      </c>
-      <c r="I62" s="4">
-        <v>45717.7587037037</v>
+        <v>45001.60172453704</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>6293</v>
+        <v>8943</v>
       </c>
       <c r="B63" s="1">
         <v>0.08</v>
@@ -3356,7 +3233,7 @@
         <v>0.17</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>0.17</v>
@@ -3365,266 +3242,266 @@
         <v>32</v>
       </c>
       <c r="H63" s="4">
-        <v>45479.50534722222</v>
+        <v>45180.49822916667</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>6437</v>
+        <v>9247</v>
       </c>
       <c r="B64" s="1">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="C64" s="1">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="D64" s="1">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F64" s="1">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H64" s="4">
-        <v>45708.67063657408</v>
+        <v>45745.47847222222</v>
       </c>
       <c r="I64" s="4">
-        <v>45723.67063657408</v>
+        <v>45776.47847222222</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>6460</v>
+        <v>9621</v>
       </c>
       <c r="B65" s="1">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65" s="4">
-        <v>45733.76335648148</v>
-      </c>
-      <c r="I65" s="4">
-        <v>45794.76335648148</v>
+        <v>45459.62275462963</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>6544</v>
+        <v>9658</v>
       </c>
       <c r="B66" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C66" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="D66" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H66" s="4">
-        <v>45691.80784722222</v>
-      </c>
-      <c r="I66" s="4">
-        <v>45706.80784722222</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>6752</v>
+        <v>9659</v>
       </c>
       <c r="B67" s="1">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="C67" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D67" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F67" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H67" s="4">
-        <v>45757.46145833333</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I67" s="4">
-        <v>45764.46145833333</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>7244</v>
+        <v>9807</v>
       </c>
       <c r="B68" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D68" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H68" s="4">
-        <v>45137.72864583333</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>45</v>
+        <v>45749.95855324074</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45764.95855324074</v>
       </c>
       <c r="J68" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>7962</v>
+        <v>9890</v>
       </c>
       <c r="B69" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="C69" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D69" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H69" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>45</v>
+        <v>45744.94902777778</v>
+      </c>
+      <c r="I69" s="4">
+        <v>45759.94902777778</v>
       </c>
       <c r="J69" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>8704</v>
+        <v>19765</v>
       </c>
       <c r="B70" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D70" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H70" s="4">
-        <v>44861.51681712963</v>
+        <v>45772.44567129629</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>8943</v>
+        <v>20529</v>
       </c>
       <c r="B71" s="1">
         <v>0.08</v>
@@ -3636,450 +3513,450 @@
         <v>0.17</v>
       </c>
       <c r="E71">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1">
         <v>0.17</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H71" s="4">
-        <v>45180.49822916667</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>9247</v>
+        <v>20696</v>
       </c>
       <c r="B72" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C72" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
         <v>0.33</v>
       </c>
       <c r="E72">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1">
         <v>0.33</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H72" s="4">
-        <v>45745.47847222222</v>
-      </c>
-      <c r="I72" s="4">
-        <v>45760.47847222222</v>
+        <v>44834.48420138889</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K72" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>9621</v>
+        <v>20764</v>
       </c>
       <c r="B73" s="1">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="C73" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F73" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H73" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>45</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45755.84116898148</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="K73" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>9658</v>
+        <v>20937</v>
       </c>
       <c r="B74" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="C74" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E74">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H74" s="4">
-        <v>45496.43895833333</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>45</v>
+        <v>45730.89126157408</v>
+      </c>
+      <c r="I74" s="4">
+        <v>45852.89126157408</v>
       </c>
       <c r="J74" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>9659</v>
+        <v>20970</v>
       </c>
       <c r="B75" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C75" s="1">
         <v>0.17</v>
       </c>
       <c r="D75" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H75" s="4">
-        <v>45748.69037037037</v>
+        <v>45652.6609375</v>
       </c>
       <c r="I75" s="4">
-        <v>45809.69037037037</v>
+        <v>45742.6609375</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>9807</v>
+        <v>21003</v>
       </c>
       <c r="B76" s="1">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="C76" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="E76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H76" s="4">
-        <v>45749.95855324074</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I76" s="4">
-        <v>45764.95855324074</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>9890</v>
+        <v>21019</v>
       </c>
       <c r="B77" s="1">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="C77" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="E77">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H77" s="4">
-        <v>45744.94902777778</v>
-      </c>
-      <c r="I77" s="4">
-        <v>45759.94902777778</v>
+        <v>45565.389375</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>19765</v>
+        <v>21162</v>
       </c>
       <c r="B78" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D78" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H78" s="4">
-        <v>45701.46528935185</v>
+        <v>45168.76292824074</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20529</v>
+        <v>21164</v>
       </c>
       <c r="B79" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D79" s="1">
         <v>0.17</v>
       </c>
       <c r="E79">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F79" s="1">
         <v>0.17</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H79" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>45</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I79" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J79" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>20696</v>
+        <v>21229</v>
       </c>
       <c r="B80" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H80" s="4">
-        <v>44834.48420138889</v>
+        <v>45050.52782407407</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>20764</v>
+        <v>21329</v>
       </c>
       <c r="B81" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F81" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H81" s="4">
-        <v>45604.84116898148</v>
+        <v>45659.8877199074</v>
       </c>
       <c r="I81" s="4">
-        <v>45755.84116898148</v>
+        <v>45779.8877199074</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>20937</v>
+        <v>21560</v>
       </c>
       <c r="B82" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D82" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F82" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H82" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I82" s="4">
-        <v>45852.89126157408</v>
+        <v>45183.80324074074</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>20970</v>
+        <v>21571</v>
       </c>
       <c r="B83" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C83" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
         <v>0.5</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
         <v>0.5</v>
       </c>
       <c r="G83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H83" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I83" s="4">
-        <v>45742.6609375</v>
+        <v>45552.70295138889</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21003</v>
+        <v>21816</v>
       </c>
       <c r="B84" s="1">
         <v>0.08</v>
@@ -4091,100 +3968,100 @@
         <v>0.17</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F84" s="1">
         <v>0.17</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H84" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I84" s="4">
-        <v>45811.70832175926</v>
+        <v>45385.58152777778</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21019</v>
+        <v>21944</v>
       </c>
       <c r="B85" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H85" s="4">
-        <v>45565.389375</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21162</v>
+        <v>22130</v>
       </c>
       <c r="B86" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C86" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D86" s="1">
         <v>0.33</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1">
         <v>0.33</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H86" s="4">
-        <v>45168.76292824074</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21164</v>
+        <v>22780</v>
       </c>
       <c r="B87" s="1">
         <v>0.17</v>
@@ -4196,7 +4073,7 @@
         <v>0.17</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1">
         <v>0.17</v>
@@ -4205,21 +4082,21 @@
         <v>29</v>
       </c>
       <c r="H87" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I87" s="4">
-        <v>45814.75921296296</v>
+        <v>45502.45310185185</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>21229</v>
+        <v>25277</v>
       </c>
       <c r="B88" s="1">
         <v>0.08</v>
@@ -4231,30 +4108,30 @@
         <v>0.17</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1">
         <v>0.17</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H88" s="4">
-        <v>45050.52782407407</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>21329</v>
+        <v>25280</v>
       </c>
       <c r="B89" s="1">
         <v>0.17</v>
@@ -4272,94 +4149,94 @@
         <v>0.33</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H89" s="4">
-        <v>45659.8877199074</v>
-      </c>
-      <c r="I89" s="4">
-        <v>45779.8877199074</v>
+        <v>44834.46898148148</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>21560</v>
+        <v>25482</v>
       </c>
       <c r="B90" s="1">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="C90" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D90" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E90">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F90" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H90" s="4">
-        <v>45183.80324074074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>21571</v>
+        <v>25553</v>
       </c>
       <c r="B91" s="1">
         <v>0.25</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D91" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G91" t="s">
         <v>28</v>
       </c>
       <c r="H91" s="4">
-        <v>45552.70295138889</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>21816</v>
+        <v>25633</v>
       </c>
       <c r="B92" s="1">
         <v>0.08</v>
@@ -4371,30 +4248,30 @@
         <v>0.17</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F92" s="1">
         <v>0.17</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H92" s="4">
-        <v>45385.58152777778</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="K92" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>21944</v>
+        <v>25664</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -4412,65 +4289,65 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93" s="4">
-        <v>45689.63208333333</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>22100</v>
+        <v>25667</v>
       </c>
       <c r="B94" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D94" s="1">
         <v>0.17</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1">
         <v>0.17</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H94" s="4">
-        <v>45385.53946759259</v>
+        <v>44848.60068287037</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s">
         <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>22130</v>
+        <v>25864</v>
       </c>
       <c r="B95" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C95" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0.33</v>
@@ -4482,24 +4359,24 @@
         <v>0.33</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H95" s="4">
-        <v>45484.48732638889</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>45</v>
+        <v>45646.48329861111</v>
+      </c>
+      <c r="I95" s="4">
+        <v>45767.48329861111</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="K95" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>22194</v>
+        <v>26206</v>
       </c>
       <c r="B96" s="1">
         <v>0.08</v>
@@ -4511,170 +4388,170 @@
         <v>0.17</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1">
         <v>0.17</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H96" s="4">
-        <v>45258.75267361111</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>22780</v>
+        <v>26221</v>
       </c>
       <c r="B97" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C97" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
         <v>0.17</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1">
         <v>0.17</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H97" s="4">
-        <v>45502.45310185185</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>24369</v>
+        <v>26275</v>
       </c>
       <c r="B98" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D98" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H98" s="4">
-        <v>45267.60381944444</v>
+        <v>44719.5262962963</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="K98" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>25277</v>
+        <v>26329</v>
       </c>
       <c r="B99" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D99" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F99" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G99" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H99" s="4">
-        <v>45510.64077546296</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>45</v>
+        <v>45610.87215277777</v>
+      </c>
+      <c r="I99" s="4">
+        <v>45671.87215277777</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="K99" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>25278</v>
+        <v>26539</v>
       </c>
       <c r="B100" s="1">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E100">
         <v>7</v>
       </c>
       <c r="F100" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H100" s="4">
-        <v>44146.5178125</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="K100" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>25279</v>
+        <v>26800</v>
       </c>
       <c r="B101" s="1">
         <v>0.08</v>
@@ -4692,24 +4569,24 @@
         <v>0.17</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H101" s="4">
-        <v>45435.67693287037</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K101" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>25280</v>
+        <v>26827</v>
       </c>
       <c r="B102" s="1">
         <v>0.08</v>
@@ -4721,30 +4598,30 @@
         <v>0.17</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F102" s="1">
         <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H102" s="4">
-        <v>45365.5997337963</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>25482</v>
+        <v>26865</v>
       </c>
       <c r="B103" s="1">
         <v>0.08</v>
@@ -4756,65 +4633,65 @@
         <v>0.17</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F103" s="1">
         <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H103" s="4">
-        <v>45660.48256944444</v>
-      </c>
-      <c r="I103" s="4">
-        <v>45750.48256944444</v>
+        <v>45077.72989583333</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K103" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>25553</v>
+        <v>26925</v>
       </c>
       <c r="B104" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C104" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F104" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H104" s="4">
-        <v>45275.73480324074</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K104" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>25633</v>
+        <v>26994</v>
       </c>
       <c r="B105" s="1">
         <v>0.08</v>
@@ -4826,1005 +4703,235 @@
         <v>0.17</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F105" s="1">
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H105" s="4">
-        <v>45344.40892361111</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K105" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>25664</v>
+        <v>27289</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E106">
         <v>7</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H106" s="4">
-        <v>45261.46980324074</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>25667</v>
+        <v>27514</v>
       </c>
       <c r="B107" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C107" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
         <v>0.17</v>
       </c>
       <c r="E107">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F107" s="1">
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H107" s="4">
-        <v>44848.60068287037</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>45</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I107" s="4">
+        <v>45775.57778935185</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="K107" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>25864</v>
+        <v>28162</v>
       </c>
       <c r="B108" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H108" s="4">
-        <v>45646.48329861111</v>
+        <v>45684.54253472222</v>
       </c>
       <c r="I108" s="4">
-        <v>45767.48329861111</v>
+        <v>45743.54253472222</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>25918</v>
+        <v>28418</v>
       </c>
       <c r="B109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H109" s="4">
-        <v>45283.64840277778</v>
+        <v>45581.72913194444</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K109" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>25941</v>
+        <v>28458</v>
       </c>
       <c r="B110" s="1">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="C110" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D110" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>13892</v>
       </c>
       <c r="F110" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H110" s="4">
-        <v>45576.74210648148</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>45</v>
+        <v>45783.77612268519</v>
+      </c>
+      <c r="I110" s="4">
+        <v>45784.77612268519</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>26066</v>
+        <v>28502</v>
       </c>
       <c r="B111" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D111" s="1">
         <v>0.33</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F111" s="1">
         <v>0.33</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H111" s="4">
-        <v>44602.46961805555</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>45</v>
+        <v>45723.70773148148</v>
+      </c>
+      <c r="I111" s="4">
+        <v>45784.70773148148</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>26206</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E112">
-        <v>8</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" s="4">
-        <v>45460.71868055555</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J112" t="s">
-        <v>86</v>
-      </c>
-      <c r="K112" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>26221</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E113">
-        <v>6</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" s="4">
-        <v>45150.6974537037</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J113" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>26275</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E114">
-        <v>14</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" s="4">
-        <v>44719.5262962963</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J114" t="s">
-        <v>61</v>
-      </c>
-      <c r="K114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>26329</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="E115">
-        <v>29</v>
-      </c>
-      <c r="F115" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" s="4">
-        <v>45610.87215277777</v>
-      </c>
-      <c r="I115" s="4">
-        <v>45671.87215277777</v>
-      </c>
-      <c r="J115" t="s">
-        <v>47</v>
-      </c>
-      <c r="K115" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>26405</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" s="4">
-        <v>45510.63790509259</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J116" t="s">
-        <v>100</v>
-      </c>
-      <c r="K116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>26539</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E117">
-        <v>7</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J117" t="s">
-        <v>71</v>
-      </c>
-      <c r="K117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>26563</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E118">
-        <v>7</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="4">
-        <v>44966.46085648148</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J118" t="s">
-        <v>112</v>
-      </c>
-      <c r="K118" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>26694</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E119">
-        <v>6</v>
-      </c>
-      <c r="F119" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="4">
-        <v>45129.61349537037</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J119" t="s">
-        <v>113</v>
-      </c>
-      <c r="K119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>26800</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E120">
-        <v>6</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" s="4">
-        <v>45089.61954861111</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J120" t="s">
-        <v>114</v>
-      </c>
-      <c r="K120" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>26827</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E121">
-        <v>6</v>
-      </c>
-      <c r="F121" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="4">
-        <v>45521.44858796296</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J121" t="s">
-        <v>115</v>
-      </c>
-      <c r="K121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>26865</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="4">
-        <v>45077.72989583333</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J122" t="s">
-        <v>116</v>
-      </c>
-      <c r="K122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>26925</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E123">
-        <v>6</v>
-      </c>
-      <c r="F123" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="4">
-        <v>45365.7433912037</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J123" t="s">
-        <v>117</v>
-      </c>
-      <c r="K123" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>26994</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="4">
-        <v>45638.64440972222</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J124" t="s">
-        <v>118</v>
-      </c>
-      <c r="K124" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>27177</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E125">
-        <v>10</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="4">
-        <v>45280.5121412037</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J125" t="s">
-        <v>119</v>
-      </c>
-      <c r="K125" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>27289</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E126">
-        <v>7</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="4">
-        <v>45195.77344907408</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J126" t="s">
-        <v>120</v>
-      </c>
-      <c r="K126" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>27489</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E127">
-        <v>16</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
-      </c>
-      <c r="H127" s="4">
-        <v>45716.49377314815</v>
-      </c>
-      <c r="I127" s="4">
-        <v>45775.49377314815</v>
-      </c>
-      <c r="J127" t="s">
-        <v>47</v>
-      </c>
-      <c r="K127" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>27514</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E128">
-        <v>7</v>
-      </c>
-      <c r="F128" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="4">
-        <v>45624.57778935185</v>
-      </c>
-      <c r="I128" s="4">
-        <v>45775.57778935185</v>
-      </c>
-      <c r="J128" t="s">
-        <v>47</v>
-      </c>
-      <c r="K128" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>27862</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E129">
-        <v>6</v>
-      </c>
-      <c r="F129" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" s="4">
-        <v>45156.4696412037</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J129" t="s">
-        <v>121</v>
-      </c>
-      <c r="K129" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>28162</v>
-      </c>
-      <c r="B130" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E130">
-        <v>12</v>
-      </c>
-      <c r="F130" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" s="4">
-        <v>45684.54253472222</v>
-      </c>
-      <c r="I130" s="4">
-        <v>45743.54253472222</v>
-      </c>
-      <c r="J130" t="s">
-        <v>47</v>
-      </c>
-      <c r="K130" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>28418</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E131">
-        <v>12</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J131" t="s">
-        <v>122</v>
-      </c>
-      <c r="K131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>28458</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>13076</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" t="s">
-        <v>44</v>
-      </c>
-      <c r="H132" s="4">
-        <v>45761.66512731482</v>
-      </c>
-      <c r="I132" s="4">
-        <v>45762.66512731482</v>
-      </c>
-      <c r="J132" t="s">
-        <v>47</v>
-      </c>
-      <c r="K132" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>28502</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E133">
-        <v>9</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G133" t="s">
-        <v>34</v>
-      </c>
-      <c r="H133" s="4">
-        <v>45723.70773148148</v>
-      </c>
-      <c r="I133" s="4">
-        <v>45784.70773148148</v>
-      </c>
-      <c r="J133" t="s">
-        <v>47</v>
-      </c>
-      <c r="K133" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="211">
   <si>
     <t>id_cliente</t>
   </si>
@@ -82,12 +82,12 @@
     <t>1x a cada 2 meses - irregular</t>
   </si>
   <si>
+    <t>1x a cada 5 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
     <t>1x a cada 6 meses - irregular</t>
   </si>
   <si>
-    <t>1x a cada 5 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
     <t>1x a cada 4 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
@@ -151,178 +151,175 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 53.5 meses sem comprar</t>
+    <t>INATIVO - 53.7 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1116,7 +1113,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1151,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1186,7 +1183,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1221,7 +1218,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1256,7 +1253,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1291,7 +1288,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1326,7 +1323,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1361,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1396,7 +1393,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1431,7 +1428,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1466,7 +1463,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1501,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1509,34 +1506,34 @@
         <v>2192</v>
       </c>
       <c r="B14" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C14" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0.17</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>0.17</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H14" s="4">
-        <v>45429.70015046297</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>45785.68853009259</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45969.68853009259</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1568,10 +1565,10 @@
         <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1603,10 +1600,10 @@
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1638,10 +1635,10 @@
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,10 +1670,10 @@
         <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1699,7 +1696,7 @@
         <v>0.17</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="4">
         <v>45377.70813657407</v>
@@ -1708,10 +1705,10 @@
         <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1743,10 +1740,10 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1769,7 +1766,7 @@
         <v>0.17</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4">
         <v>45691.81461805556</v>
@@ -1781,7 +1778,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1813,10 +1810,10 @@
         <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1839,7 +1836,7 @@
         <v>0.17</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="4">
         <v>44701.78590277778</v>
@@ -1848,10 +1845,10 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1886,7 +1883,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1918,10 +1915,10 @@
         <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1929,34 +1926,34 @@
         <v>3355</v>
       </c>
       <c r="B26" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C26" s="1">
         <v>0.17</v>
       </c>
       <c r="D26" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4">
-        <v>45740.63751157407</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>45784.67908564815</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45968.67908564815</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1988,10 +1985,10 @@
         <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2014,7 +2011,7 @@
         <v>0.17</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="4">
         <v>45656.80199074074</v>
@@ -2026,7 +2023,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2061,7 +2058,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2093,10 +2090,10 @@
         <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2131,7 +2128,7 @@
         <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2166,7 +2163,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2198,10 +2195,10 @@
         <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2233,10 +2230,10 @@
         <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2271,7 +2268,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2306,7 +2303,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2338,10 +2335,10 @@
         <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2373,10 +2370,10 @@
         <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2408,10 +2405,10 @@
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2443,10 +2440,10 @@
         <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2481,7 +2478,7 @@
         <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2513,10 +2510,10 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2551,7 +2548,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2583,10 +2580,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2618,10 +2615,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2656,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2691,7 +2688,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2726,7 +2723,7 @@
         <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2758,10 +2755,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2796,7 +2793,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2831,7 +2828,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2866,7 +2863,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2901,7 +2898,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2918,7 +2915,7 @@
         <v>0.83</v>
       </c>
       <c r="E54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" s="1">
         <v>0.83</v>
@@ -2927,16 +2924,16 @@
         <v>21</v>
       </c>
       <c r="H54" s="4">
-        <v>45783.60520833333</v>
+        <v>45783.8121875</v>
       </c>
       <c r="I54" s="4">
-        <v>45844.60520833333</v>
+        <v>45844.8121875</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2971,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3006,7 +3003,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3029,7 +3026,7 @@
         <v>0.17</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H57" s="4">
         <v>45479.50534722222</v>
@@ -3038,10 +3035,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3076,7 +3073,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3111,7 +3108,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3146,7 +3143,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3163,7 +3160,7 @@
         <v>0.75</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1">
         <v>0.75</v>
@@ -3172,16 +3169,16 @@
         <v>36</v>
       </c>
       <c r="H61" s="4">
-        <v>45782.49049768518</v>
+        <v>45787.61539351852</v>
       </c>
       <c r="I61" s="4">
-        <v>45797.49049768518</v>
+        <v>45802.61539351852</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3213,10 +3210,10 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3248,10 +3245,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3286,7 +3283,7 @@
         <v>46</v>
       </c>
       <c r="K64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3318,10 +3315,10 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3353,10 +3350,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3391,7 +3388,7 @@
         <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3426,7 +3423,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3461,7 +3458,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3493,10 +3490,10 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3528,10 +3525,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3563,10 +3560,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3594,14 +3591,14 @@
       <c r="H73" s="4">
         <v>45604.84116898148</v>
       </c>
-      <c r="I73" s="4">
-        <v>45755.84116898148</v>
+      <c r="I73" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3636,7 +3633,7 @@
         <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3671,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3706,7 +3703,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3738,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3773,10 +3770,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3811,7 +3808,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3843,10 +3840,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3881,7 +3878,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3913,10 +3910,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3948,10 +3945,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3983,10 +3980,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4018,10 +4015,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4053,10 +4050,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4088,10 +4085,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4123,10 +4120,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4149,7 +4146,7 @@
         <v>0.33</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H89" s="4">
         <v>44834.46898148148</v>
@@ -4158,10 +4155,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4193,10 +4190,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4228,10 +4225,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4266,7 +4263,7 @@
         <v>49</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4298,10 +4295,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4333,10 +4330,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4371,7 +4368,7 @@
         <v>46</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4403,10 +4400,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4438,10 +4435,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4473,10 +4470,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4511,7 +4508,7 @@
         <v>46</v>
       </c>
       <c r="K99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4543,10 +4540,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4578,10 +4575,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4613,10 +4610,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4648,10 +4645,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4674,7 +4671,7 @@
         <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H104" s="4">
         <v>45365.7433912037</v>
@@ -4683,10 +4680,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4718,10 +4715,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4753,10 +4750,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4779,7 +4776,7 @@
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H107" s="4">
         <v>45624.57778935185</v>
@@ -4791,7 +4788,7 @@
         <v>46</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4826,7 +4823,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4858,10 +4855,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4878,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>13892</v>
+        <v>14123</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4887,16 +4884,16 @@
         <v>43</v>
       </c>
       <c r="H110" s="4">
-        <v>45783.77612268519</v>
+        <v>45786.70686342593</v>
       </c>
       <c r="I110" s="4">
-        <v>45784.77612268519</v>
+        <v>45787.70686342593</v>
       </c>
       <c r="J110" t="s">
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4931,7 +4928,7 @@
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -46,7 +46,7 @@
     <t>situacao</t>
   </si>
   <si>
-    <t>nome_cliente</t>
+    <t>nome</t>
   </si>
   <si>
     <t>1x a cada 3 meses - irregular (preferencialmente na 1ª quinzena)</t>
@@ -160,13 +160,13 @@
     <t>INATIVO - 34.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
+    <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
+    <t>INATIVO - 16.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.5 meses sem comprar</t>
@@ -199,16 +199,16 @@
     <t>INATIVO - 27.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.0 meses sem comprar</t>
@@ -217,55 +217,52 @@
     <t>INATIVO - 25.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 30.6 meses sem comprar</t>
+    <t>INATIVO - 30.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 32.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
+    <t>INATIVO - 24.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.2 meses sem comprar</t>
@@ -277,34 +274,37 @@
     <t>INATIVO - 13.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 3.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 10.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
+    <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 17.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 31.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 21.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
+    <t>INATIVO - 23.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.7 meses sem comprar</t>
@@ -313,7 +313,7 @@
     <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 5.0 meses sem comprar</t>
+    <t>INATIVO - 5.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.8 meses sem comprar</t>
@@ -3315,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s">
         <v>164</v>
@@ -3490,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s">
         <v>169</v>
@@ -3560,7 +3560,7 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
         <v>171</v>
@@ -3595,7 +3595,7 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
         <v>172</v>
@@ -3735,7 +3735,7 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s">
         <v>176</v>
@@ -3770,7 +3770,7 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s">
         <v>177</v>
@@ -3840,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s">
         <v>179</v>
@@ -3910,7 +3910,7 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s">
         <v>181</v>
@@ -3945,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
         <v>182</v>
@@ -3980,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
         <v>183</v>
@@ -4015,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s">
         <v>184</v>
@@ -4050,7 +4050,7 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s">
         <v>185</v>
@@ -4085,7 +4085,7 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
         <v>186</v>
@@ -4120,7 +4120,7 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s">
         <v>187</v>
@@ -4155,7 +4155,7 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s">
         <v>188</v>
@@ -4190,7 +4190,7 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s">
         <v>189</v>
@@ -4225,7 +4225,7 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s">
         <v>190</v>
@@ -4260,7 +4260,7 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
         <v>191</v>
@@ -4295,7 +4295,7 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
         <v>192</v>
@@ -4330,7 +4330,7 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
         <v>193</v>
@@ -4400,7 +4400,7 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s">
         <v>195</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>14123</v>
+        <v>14254</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4884,10 +4884,10 @@
         <v>43</v>
       </c>
       <c r="H110" s="4">
-        <v>45786.70686342593</v>
+        <v>45789.75063657408</v>
       </c>
       <c r="I110" s="4">
-        <v>45787.70686342593</v>
+        <v>45790.75063657408</v>
       </c>
       <c r="J110" t="s">
         <v>46</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="214">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,7 +151,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 53.7 meses sem comprar</t>
+    <t>INATIVO - 53.8 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -184,133 +184,142 @@
     <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 35.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 35.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 23.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
+    <t>INATIVO - 23.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.1 meses sem comprar</t>
@@ -319,7 +328,7 @@
     <t>INATIVO - 19.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1113,7 +1122,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1148,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1183,7 +1192,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1218,7 +1227,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1253,7 +1262,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1288,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1323,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1358,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1393,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1428,7 +1437,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1463,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1498,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1533,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1568,7 +1577,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1603,7 +1612,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1638,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1708,7 +1717,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1743,7 +1752,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1778,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1813,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1848,7 +1857,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1883,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1918,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1935,25 +1944,25 @@
         <v>0.33</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
         <v>0.33</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H26" s="4">
-        <v>45784.67908564815</v>
+        <v>45790.7065625</v>
       </c>
       <c r="I26" s="4">
-        <v>45968.67908564815</v>
+        <v>45943.7065625</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1988,7 +1997,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2023,7 +2032,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2058,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2093,7 +2102,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2121,14 +2130,14 @@
       <c r="H31" s="4">
         <v>45609.73203703704</v>
       </c>
-      <c r="I31" s="4">
-        <v>45790.73203703704</v>
+      <c r="I31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2163,7 +2172,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2195,10 +2204,10 @@
         <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2230,10 +2239,10 @@
         <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2268,7 +2277,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2303,7 +2312,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2335,10 +2344,10 @@
         <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2370,10 +2379,10 @@
         <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2405,10 +2414,10 @@
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2440,10 +2449,10 @@
         <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2478,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2510,10 +2519,10 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2548,7 +2557,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2580,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2615,10 +2624,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2653,7 +2662,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2688,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2723,7 +2732,7 @@
         <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2755,10 +2764,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2793,7 +2802,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2828,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2863,7 +2872,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2898,7 +2907,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2933,7 +2942,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2968,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3003,7 +3012,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3035,10 +3044,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3073,7 +3082,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3108,7 +3117,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3143,7 +3152,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3178,7 +3187,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3210,10 +3219,10 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3245,10 +3254,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3283,7 +3292,7 @@
         <v>46</v>
       </c>
       <c r="K64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3315,10 +3324,10 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3353,7 +3362,7 @@
         <v>57</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3388,7 +3397,7 @@
         <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3423,7 +3432,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3458,7 +3467,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3490,10 +3499,10 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3525,10 +3534,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3560,10 +3569,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3595,10 +3604,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3633,7 +3642,7 @@
         <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3668,7 +3677,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3703,7 +3712,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3735,10 +3744,10 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3770,10 +3779,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3808,7 +3817,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3840,10 +3849,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3878,7 +3887,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3910,10 +3919,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3945,10 +3954,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3980,10 +3989,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4018,7 +4027,7 @@
         <v>53</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4050,10 +4059,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4085,10 +4094,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4120,10 +4129,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4155,10 +4164,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K89" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4190,10 +4199,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4225,10 +4234,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4260,10 +4269,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4295,10 +4304,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4330,10 +4339,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4368,7 +4377,7 @@
         <v>46</v>
       </c>
       <c r="K95" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4400,10 +4409,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K96" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4435,10 +4444,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4470,10 +4479,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4508,7 +4517,7 @@
         <v>46</v>
       </c>
       <c r="K99" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4540,10 +4549,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4575,10 +4584,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4610,10 +4619,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K102" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4645,10 +4654,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K103" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4680,10 +4689,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K104" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4715,10 +4724,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K105" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4750,10 +4759,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4788,7 +4797,7 @@
         <v>46</v>
       </c>
       <c r="K107" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4823,7 +4832,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4855,10 +4864,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K109" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4875,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>14254</v>
+        <v>14325</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4884,16 +4893,16 @@
         <v>43</v>
       </c>
       <c r="H110" s="4">
-        <v>45789.75063657408</v>
+        <v>45790.66450231482</v>
       </c>
       <c r="I110" s="4">
-        <v>45790.75063657408</v>
+        <v>45791.66450231482</v>
       </c>
       <c r="J110" t="s">
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4928,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,130 +157,139 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
+    <t>INATIVO - 34.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
+    <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 3.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.2 meses sem comprar</t>
@@ -289,25 +298,13 @@
     <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.4 meses sem comprar</t>
@@ -325,7 +322,7 @@
     <t>INATIVO - 5.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
+    <t>INATIVO - 19.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.0 meses sem comprar</t>
@@ -1122,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1157,7 +1154,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1192,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1227,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1262,7 +1259,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1297,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1332,7 +1329,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1367,7 +1364,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1402,7 +1399,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1437,7 +1434,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1472,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1507,7 +1504,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1542,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1577,7 +1574,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1612,7 +1609,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1647,7 +1644,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1682,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1717,7 +1714,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1752,7 +1749,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1787,7 +1784,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1822,7 +1819,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1857,7 +1854,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1892,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1927,7 +1924,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1962,7 +1959,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1997,7 +1994,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2032,7 +2029,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2067,7 +2064,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2102,7 +2099,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2137,7 +2134,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2172,7 +2169,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2207,7 +2204,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2242,7 +2239,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2277,7 +2274,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2312,7 +2309,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2347,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2382,7 +2379,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2417,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2452,7 +2449,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2487,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2522,7 +2519,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2557,7 +2554,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2592,7 +2589,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2624,10 +2621,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2662,7 +2659,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2697,7 +2694,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2725,14 +2722,14 @@
       <c r="H48" s="4">
         <v>45610.77327546296</v>
       </c>
-      <c r="I48" s="4">
-        <v>45702.77327546296</v>
+      <c r="I48" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2764,10 +2761,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2802,7 +2799,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2837,7 +2834,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2872,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2907,7 +2904,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2942,7 +2939,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2977,7 +2974,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3012,7 +3009,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3044,10 +3041,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3082,7 +3079,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3117,7 +3114,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3152,7 +3149,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3187,7 +3184,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3219,10 +3216,10 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3254,10 +3251,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3292,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3324,10 +3321,10 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3362,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="K66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3397,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3432,7 +3429,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3467,7 +3464,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3499,10 +3496,10 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3534,10 +3531,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3569,10 +3566,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3604,10 +3601,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3642,7 +3639,7 @@
         <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3677,7 +3674,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3712,7 +3709,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3744,10 +3741,10 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3779,10 +3776,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3817,7 +3814,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,10 +3846,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3887,7 +3884,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3919,10 +3916,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3954,10 +3951,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3989,10 +3986,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4024,10 +4021,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4059,10 +4056,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4094,10 +4091,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4129,10 +4126,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4164,10 +4161,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4199,10 +4196,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4234,10 +4231,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4269,10 +4266,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4304,10 +4301,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4339,10 +4336,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4377,7 +4374,7 @@
         <v>46</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,10 +4406,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4444,10 +4441,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4479,10 +4476,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4510,14 +4507,14 @@
       <c r="H99" s="4">
         <v>45610.87215277777</v>
       </c>
-      <c r="I99" s="4">
-        <v>45671.87215277777</v>
+      <c r="I99" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,10 +4546,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4584,10 +4581,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4619,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4654,10 +4651,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4689,10 +4686,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4724,10 +4721,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4759,10 +4756,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4797,7 +4794,7 @@
         <v>46</v>
       </c>
       <c r="K107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4832,7 +4829,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,10 +4861,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4884,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>14325</v>
+        <v>14390</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4893,16 +4890,16 @@
         <v>43</v>
       </c>
       <c r="H110" s="4">
-        <v>45790.66450231482</v>
+        <v>45791.68199074074</v>
       </c>
       <c r="I110" s="4">
-        <v>45791.66450231482</v>
+        <v>45792.68199074074</v>
       </c>
       <c r="J110" t="s">
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4937,7 +4934,7 @@
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="215">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,181 +151,184 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 53.8 meses sem comprar</t>
+    <t>INATIVO - 54.0 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
+    <t>INATIVO - 5.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -503,6 +506,9 @@
   </si>
   <si>
     <t>ANNE CAROLINE SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>IANA DOS SANTOS RODRIGUES</t>
   </si>
   <si>
     <t>LILIANE NONATA BARRETO</t>
@@ -1039,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1154,7 +1160,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,7 +1195,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,7 +1230,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,7 +1265,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1294,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,7 +1405,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,7 +1440,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1469,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1504,7 +1510,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1539,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,7 +1580,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,7 +1650,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,7 +1720,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,7 +1755,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1784,7 +1790,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,7 +1825,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,7 +1860,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1889,7 +1895,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,7 +1930,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1959,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2029,7 +2035,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,7 +2070,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2169,7 +2175,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,7 +2245,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2274,7 +2280,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2309,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,7 +2385,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2449,7 +2455,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2477,14 +2483,14 @@
       <c r="H41" s="4">
         <v>45612.75633101852</v>
       </c>
-      <c r="I41" s="4">
-        <v>45704.75633101852</v>
+      <c r="I41" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2516,10 +2522,10 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2554,7 +2560,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2586,10 +2592,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2621,10 +2627,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2659,7 +2665,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2726,10 +2732,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2764,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2799,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2834,7 +2840,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2869,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2904,7 +2910,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2939,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2974,7 +2980,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3044,7 +3050,7 @@
         <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3079,7 +3085,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3114,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,292 +3155,292 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B61" s="1">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="C61" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D61" s="1">
         <v>0.5</v>
       </c>
-      <c r="D61" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E61">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H61" s="4">
-        <v>45787.61539351852</v>
+        <v>45792.79412037037</v>
       </c>
       <c r="I61" s="4">
-        <v>45802.61539351852</v>
+        <v>45823.79412037037</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B62" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C62" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D62" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H62" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>44</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I62" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J62" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B63" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D63" s="1">
         <v>0.17</v>
       </c>
       <c r="E63">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1">
         <v>0.17</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H63" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B64" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C64" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E64">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64" s="4">
-        <v>45745.47847222222</v>
-      </c>
-      <c r="I64" s="4">
-        <v>45776.47847222222</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B65" s="1">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="C65" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D65" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F65" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H65" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>44</v>
+        <v>45745.47847222222</v>
+      </c>
+      <c r="I65" s="4">
+        <v>45776.47847222222</v>
       </c>
       <c r="J65" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B66" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C66" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="1">
         <v>0.75</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
         <v>0.75</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H66" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C67" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D67" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H67" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I67" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B68" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C68" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D68" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F68" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H68" s="4">
-        <v>45749.95855324074</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I68" s="4">
-        <v>45764.95855324074</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J68" t="s">
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B69" s="1">
         <v>0.5</v>
@@ -3455,266 +3461,266 @@
         <v>36</v>
       </c>
       <c r="H69" s="4">
-        <v>45744.94902777778</v>
+        <v>45749.95855324074</v>
       </c>
       <c r="I69" s="4">
-        <v>45759.94902777778</v>
+        <v>45764.95855324074</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B70" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C70" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D70" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H70" s="4">
-        <v>45772.44567129629</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>44</v>
+        <v>45744.94902777778</v>
+      </c>
+      <c r="I70" s="4">
+        <v>45759.94902777778</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B71" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D71" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G71" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
       <c r="H71" s="4">
-        <v>45180.50475694444</v>
+        <v>45772.44567129629</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B72" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B73" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" s="4">
-        <v>45604.84116898148</v>
+        <v>44834.48420138889</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B74" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H74" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I74" s="4">
-        <v>45852.89126157408</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20970</v>
+        <v>20937</v>
       </c>
       <c r="B75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C75" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E75">
         <v>8</v>
       </c>
       <c r="F75" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H75" s="4">
-        <v>45652.6609375</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I75" s="4">
-        <v>45742.6609375</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B76" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D76" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H76" s="4">
-        <v>45719.70832175926</v>
+        <v>45652.6609375</v>
       </c>
       <c r="I76" s="4">
-        <v>45811.70832175926</v>
+        <v>45742.6609375</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B77" s="1">
         <v>0.08</v>
@@ -3726,106 +3732,106 @@
         <v>0.17</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H77" s="4">
-        <v>45565.389375</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>44</v>
+        <v>45719.70832175926</v>
+      </c>
+      <c r="I77" s="4">
+        <v>45811.70832175926</v>
       </c>
       <c r="J77" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B78" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C78" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E78">
         <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H78" s="4">
-        <v>45168.76292824074</v>
+        <v>45565.389375</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B79" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C79" s="1">
         <v>0.17</v>
       </c>
       <c r="D79" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H79" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I79" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B80" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D80" s="1">
         <v>0.17</v>
@@ -3837,374 +3843,374 @@
         <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H80" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>44</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I80" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J80" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B81" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H81" s="4">
-        <v>45659.8877199074</v>
-      </c>
-      <c r="I81" s="4">
-        <v>45779.8877199074</v>
+        <v>45050.52782407407</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B82" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C82" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F82" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H82" s="4">
-        <v>45183.80324074074</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>44</v>
+        <v>45659.8877199074</v>
+      </c>
+      <c r="I82" s="4">
+        <v>45779.8877199074</v>
       </c>
       <c r="J82" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B83" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D83" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F83" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H83" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B84" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
         <v>6</v>
       </c>
       <c r="F84" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H84" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B86" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F86" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H86" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B87" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C87" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D87" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B88" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D88" s="1">
         <v>0.17</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" s="1">
         <v>0.17</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H88" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B89" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H89" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B90" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C90" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>0.33</v>
       </c>
       <c r="E90">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F90" s="1">
         <v>0.33</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H90" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B91" s="1">
         <v>0.25</v>
@@ -4216,205 +4222,205 @@
         <v>0.33</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1">
         <v>0.33</v>
       </c>
       <c r="G91" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H91" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B92" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H92" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H93" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B94" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H94" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B95" s="1">
         <v>0.17</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D95" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H95" s="4">
-        <v>45646.48329861111</v>
-      </c>
-      <c r="I95" s="4">
-        <v>45767.48329861111</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B96" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H96" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>44</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I96" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B97" s="1">
         <v>0.08</v>
@@ -4426,156 +4432,156 @@
         <v>0.17</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1">
         <v>0.17</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H97" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B98" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C98" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F98" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H98" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B99" s="1">
         <v>0.42</v>
       </c>
       <c r="C99" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D99" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E99">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H99" s="4">
-        <v>45610.87215277777</v>
+        <v>44719.5262962963</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B100" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D100" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F100" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H100" s="4">
-        <v>45400.57224537037</v>
+        <v>45610.87215277777</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B101" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F101" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G101" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H101" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>44</v>
@@ -4584,12 +4590,12 @@
         <v>97</v>
       </c>
       <c r="K101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B102" s="1">
         <v>0.08</v>
@@ -4607,10 +4613,10 @@
         <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H102" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>44</v>
@@ -4619,12 +4625,12 @@
         <v>98</v>
       </c>
       <c r="K102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B103" s="1">
         <v>0.08</v>
@@ -4642,10 +4648,10 @@
         <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H103" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>44</v>
@@ -4654,12 +4660,12 @@
         <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B104" s="1">
         <v>0.08</v>
@@ -4677,10 +4683,10 @@
         <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H104" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>44</v>
@@ -4689,12 +4695,12 @@
         <v>100</v>
       </c>
       <c r="K104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B105" s="1">
         <v>0.08</v>
@@ -4712,10 +4718,10 @@
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H105" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>44</v>
@@ -4724,33 +4730,33 @@
         <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B106" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H106" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>44</v>
@@ -4759,182 +4765,217 @@
         <v>102</v>
       </c>
       <c r="K106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B107" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E107">
         <v>7</v>
       </c>
       <c r="F107" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H107" s="4">
-        <v>45624.57778935185</v>
-      </c>
-      <c r="I107" s="4">
-        <v>45775.57778935185</v>
+        <v>45195.77344907408</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B108" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F108" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H108" s="4">
-        <v>45684.54253472222</v>
+        <v>45624.57778935185</v>
       </c>
       <c r="I108" s="4">
-        <v>45743.54253472222</v>
+        <v>45775.57778935185</v>
       </c>
       <c r="J108" t="s">
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B109" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C109" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H109" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>44</v>
+        <v>45684.54253472222</v>
+      </c>
+      <c r="I109" s="4">
+        <v>45743.54253472222</v>
       </c>
       <c r="J109" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B110" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C110" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E110">
-        <v>14390</v>
+        <v>7</v>
       </c>
       <c r="F110" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H110" s="4">
-        <v>45791.68199074074</v>
-      </c>
-      <c r="I110" s="4">
-        <v>45792.68199074074</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="K110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B111" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>14491</v>
       </c>
       <c r="F111" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45723.70773148148</v>
+        <v>45793.68855324074</v>
       </c>
       <c r="I111" s="4">
-        <v>45784.70773148148</v>
+        <v>45794.68855324074</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>28502</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="4">
+        <v>45723.70773148148</v>
+      </c>
+      <c r="I112" s="4">
+        <v>45784.70773148148</v>
+      </c>
+      <c r="J112" t="s">
+        <v>46</v>
+      </c>
+      <c r="K112" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="217">
   <si>
     <t>id_cliente</t>
   </si>
@@ -64,21 +64,24 @@
     <t>1x a cada 10 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
+    <t>1x a cada 4 meses - irregular</t>
+  </si>
+  <si>
+    <t>1x a cada 6 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 8 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 7 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 10 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
     <t>1x a cada 5 meses - irregular</t>
   </si>
   <si>
-    <t>1x a cada 6 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 8 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 7 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x a cada 10 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
     <t>1x a cada 2 meses - irregular</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
     <t>1x a cada 3 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
-    <t>1x a cada 4 meses - irregular</t>
-  </si>
-  <si>
     <t>1x a cada 4 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
@@ -172,139 +172,145 @@
     <t>INATIVO - 17.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 1.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 3.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.2 meses sem comprar</t>
@@ -1125,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1160,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1195,7 +1201,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1230,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1265,7 +1271,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1276,31 +1282,31 @@
         <v>0.17</v>
       </c>
       <c r="C7" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="4">
-        <v>45714.45519675926</v>
+        <v>45796.57399305556</v>
       </c>
       <c r="I7" s="4">
-        <v>45864.45519675926</v>
+        <v>45919.57399305556</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1370,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1405,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1440,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1463,7 +1469,7 @@
         <v>0.17</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4">
         <v>45761.77471064815</v>
@@ -1475,7 +1481,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1498,7 +1504,7 @@
         <v>0.33</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4">
         <v>45728.57520833334</v>
@@ -1510,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1545,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1568,7 +1574,7 @@
         <v>0.33</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4">
         <v>44641.65599537037</v>
@@ -1580,7 +1586,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1615,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1650,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1673,7 +1679,7 @@
         <v>0.17</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H18" s="4">
         <v>45495.49012731481</v>
@@ -1685,7 +1691,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1708,7 +1714,7 @@
         <v>0.17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>45377.70813657407</v>
@@ -1720,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1743,7 +1749,7 @@
         <v>0.17</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4">
         <v>44718.4404050926</v>
@@ -1755,7 +1761,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1778,7 +1784,7 @@
         <v>0.17</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4">
         <v>45691.81461805556</v>
@@ -1790,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1813,7 +1819,7 @@
         <v>0.17</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="4">
         <v>44961.73466435185</v>
@@ -1825,7 +1831,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1848,7 +1854,7 @@
         <v>0.17</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" s="4">
         <v>44701.78590277778</v>
@@ -1860,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1883,7 +1889,7 @@
         <v>0.17</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24" s="4">
         <v>45686.49481481482</v>
@@ -1895,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1918,7 +1924,7 @@
         <v>0.17</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="4">
         <v>45251.62864583333</v>
@@ -1930,7 +1936,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1953,7 +1959,7 @@
         <v>0.33</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H26" s="4">
         <v>45790.7065625</v>
@@ -1965,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1988,7 +1994,7 @@
         <v>0.17</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="4">
         <v>45308.67796296296</v>
@@ -2000,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2023,7 +2029,7 @@
         <v>0.17</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="4">
         <v>45656.80199074074</v>
@@ -2035,7 +2041,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2058,7 +2064,7 @@
         <v>0.33</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H29" s="4">
         <v>45631.70384259259</v>
@@ -2070,7 +2076,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2093,7 +2099,7 @@
         <v>0.17</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="4">
         <v>45161.61640046296</v>
@@ -2105,7 +2111,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2140,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2175,7 +2181,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2198,7 +2204,7 @@
         <v>0.17</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H33" s="4">
         <v>45398.78646990741</v>
@@ -2210,7 +2216,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2233,7 +2239,7 @@
         <v>0.17</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="4">
         <v>45033.63594907407</v>
@@ -2245,7 +2251,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2280,7 +2286,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2303,7 +2309,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="4">
         <v>45754.75</v>
@@ -2315,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2338,7 +2344,7 @@
         <v>0.33</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="4">
         <v>44869.73755787037</v>
@@ -2350,7 +2356,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2385,7 +2391,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2420,7 +2426,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2443,7 +2449,7 @@
         <v>0.33</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H40" s="4">
         <v>45602.63325231482</v>
@@ -2455,7 +2461,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2478,7 +2484,7 @@
         <v>0.17</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" s="4">
         <v>45612.75633101852</v>
@@ -2490,7 +2496,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2525,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2548,7 +2554,7 @@
         <v>0.17</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" s="4">
         <v>45652.57638888889</v>
@@ -2560,7 +2566,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2583,7 +2589,7 @@
         <v>0.33</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="4">
         <v>45358.79960648148</v>
@@ -2595,7 +2601,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2627,10 +2633,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2665,7 +2671,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2700,7 +2706,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2735,7 +2741,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2767,10 +2773,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2793,7 +2799,7 @@
         <v>0.5</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" s="4">
         <v>45653.80520833333</v>
@@ -2805,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2828,7 +2834,7 @@
         <v>0.17</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="4">
         <v>45775.66159722222</v>
@@ -2840,7 +2846,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2875,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2910,7 +2916,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2933,7 +2939,7 @@
         <v>0.83</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="4">
         <v>45783.8121875</v>
@@ -2945,7 +2951,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2980,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3015,7 +3021,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3038,7 +3044,7 @@
         <v>0.17</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H57" s="4">
         <v>45479.50534722222</v>
@@ -3047,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3085,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3120,7 +3126,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3155,7 +3161,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3190,7 +3196,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3225,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3248,7 +3254,7 @@
         <v>0.17</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H63" s="4">
         <v>45001.60172453704</v>
@@ -3257,10 +3263,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3292,10 +3298,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3330,7 +3336,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3365,7 +3371,7 @@
         <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3400,7 +3406,7 @@
         <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3423,7 +3429,7 @@
         <v>0.33</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="4">
         <v>45748.69037037037</v>
@@ -3435,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3470,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3505,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3528,7 +3534,7 @@
         <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H71" s="4">
         <v>45772.44567129629</v>
@@ -3537,10 +3543,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3572,10 +3578,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3607,10 +3613,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3633,7 +3639,7 @@
         <v>0.17</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H74" s="4">
         <v>45604.84116898148</v>
@@ -3642,10 +3648,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3668,7 +3674,7 @@
         <v>0.33</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H75" s="4">
         <v>45730.89126157408</v>
@@ -3680,7 +3686,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3703,7 +3709,7 @@
         <v>0.5</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H76" s="4">
         <v>45652.6609375</v>
@@ -3715,7 +3721,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3750,7 +3756,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3782,10 +3788,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3808,7 +3814,7 @@
         <v>0.33</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H79" s="4">
         <v>45168.76292824074</v>
@@ -3817,10 +3823,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3843,7 +3849,7 @@
         <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H80" s="4">
         <v>45694.75921296296</v>
@@ -3855,7 +3861,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3887,10 +3893,10 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3913,7 +3919,7 @@
         <v>0.33</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H82" s="4">
         <v>45659.8877199074</v>
@@ -3925,7 +3931,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3957,10 +3963,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3983,7 +3989,7 @@
         <v>0.5</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H84" s="4">
         <v>45552.70295138889</v>
@@ -3992,10 +3998,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4027,10 +4033,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4065,7 +4071,7 @@
         <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4097,10 +4103,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4132,10 +4138,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4158,7 +4164,7 @@
         <v>0.17</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H89" s="4">
         <v>45384.49722222222</v>
@@ -4167,10 +4173,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4193,7 +4199,7 @@
         <v>0.33</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H90" s="4">
         <v>44834.46898148148</v>
@@ -4202,10 +4208,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4237,10 +4243,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4263,7 +4269,7 @@
         <v>0.33</v>
       </c>
       <c r="G92" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H92" s="4">
         <v>45275.73480324074</v>
@@ -4272,10 +4278,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4307,10 +4313,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4342,10 +4348,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4377,10 +4383,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4397,13 +4403,13 @@
         <v>0.33</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" s="1">
         <v>0.33</v>
       </c>
       <c r="G96" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H96" s="4">
         <v>45794.50590277778</v>
@@ -4415,7 +4421,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4447,10 +4453,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4482,10 +4488,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4517,10 +4523,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4555,7 +4561,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4587,10 +4593,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4613,7 +4619,7 @@
         <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H102" s="4">
         <v>45089.61954861111</v>
@@ -4622,10 +4628,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4657,10 +4663,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4683,7 +4689,7 @@
         <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H104" s="4">
         <v>45077.72989583333</v>
@@ -4692,10 +4698,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4718,7 +4724,7 @@
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H105" s="4">
         <v>45365.7433912037</v>
@@ -4727,10 +4733,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4762,10 +4768,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4797,10 +4803,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4823,7 +4829,7 @@
         <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H108" s="4">
         <v>45624.57778935185</v>
@@ -4835,7 +4841,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4870,7 +4876,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4893,7 +4899,7 @@
         <v>0.33</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110" s="4">
         <v>45581.72913194444</v>
@@ -4902,10 +4908,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4922,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14491</v>
+        <v>14580</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4931,16 +4937,16 @@
         <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45793.68855324074</v>
+        <v>45796.70487268519</v>
       </c>
       <c r="I111" s="4">
-        <v>45794.68855324074</v>
+        <v>45797.70487268519</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4975,7 +4981,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="215">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,37 +157,37 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 3.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
+    <t>INATIVO - 3.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
+    <t>INATIVO - 10.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
@@ -196,97 +196,97 @@
     <t>INATIVO - 36.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.4 meses sem comprar</t>
@@ -295,31 +295,25 @@
     <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
+    <t>INATIVO - 15.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
+    <t>INATIVO - 31.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.0 meses sem comprar</t>
@@ -328,10 +322,10 @@
     <t>INATIVO - 14.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 5.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
+    <t>INATIVO - 5.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.2 meses sem comprar</t>
@@ -1131,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1166,7 +1160,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,7 +1195,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1236,7 +1230,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1271,7 +1265,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1288,7 +1282,7 @@
         <v>0.33</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>0.33</v>
@@ -1297,16 +1291,16 @@
         <v>16</v>
       </c>
       <c r="H7" s="4">
-        <v>45796.57399305556</v>
+        <v>45798.79557870371</v>
       </c>
       <c r="I7" s="4">
-        <v>45919.57399305556</v>
+        <v>45921.79557870371</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1341,7 +1335,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,7 +1370,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1411,7 +1405,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,7 +1440,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1481,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1516,7 +1510,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1551,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1586,7 +1580,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1621,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1656,7 +1650,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1691,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1726,7 +1720,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1761,7 +1755,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1796,7 +1790,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1831,7 +1825,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1866,7 +1860,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1901,7 +1895,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1936,7 +1930,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1971,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2006,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2041,7 +2035,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2076,7 +2070,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2111,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2146,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2181,7 +2175,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2216,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2251,7 +2245,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2286,7 +2280,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2321,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2356,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,7 +2385,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2426,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2461,7 +2455,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2496,7 +2490,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2531,7 +2525,7 @@
         <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2566,7 +2560,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2601,7 +2595,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2633,10 +2627,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2671,7 +2665,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2706,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2741,7 +2735,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2773,10 +2767,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2811,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2846,7 +2840,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2881,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2916,7 +2910,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2951,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2959,34 +2953,34 @@
         <v>5988</v>
       </c>
       <c r="B55" s="1">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="C55" s="1">
         <v>0.5</v>
       </c>
       <c r="D55" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
       </c>
       <c r="H55" s="4">
-        <v>45719.69902777778</v>
+        <v>45797.52894675926</v>
       </c>
       <c r="I55" s="4">
-        <v>45734.69902777778</v>
+        <v>45812.52894675926</v>
       </c>
       <c r="J55" t="s">
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3021,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3053,10 +3047,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3091,7 +3085,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3126,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3161,7 +3155,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3196,7 +3190,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3231,7 +3225,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3263,10 +3257,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3298,10 +3292,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3336,7 +3330,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3368,10 +3362,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,7 +3400,7 @@
         <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3441,7 +3435,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3476,7 +3470,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3511,7 +3505,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3528,16 +3522,16 @@
         <v>0.5</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1">
         <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H71" s="4">
-        <v>45772.44567129629</v>
+        <v>45797.62541666667</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>44</v>
@@ -3546,7 +3540,7 @@
         <v>80</v>
       </c>
       <c r="K71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3578,10 +3572,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3616,7 +3610,7 @@
         <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3651,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3686,7 +3680,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3721,7 +3715,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3756,7 +3750,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3791,7 +3785,7 @@
         <v>83</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3826,7 +3820,7 @@
         <v>84</v>
       </c>
       <c r="K79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3861,7 +3855,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3896,7 +3890,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3931,7 +3925,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3966,7 +3960,7 @@
         <v>86</v>
       </c>
       <c r="K83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4001,7 +3995,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4036,7 +4030,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4071,7 +4065,7 @@
         <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4106,7 +4100,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4141,7 +4135,7 @@
         <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4176,7 +4170,7 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4211,7 +4205,7 @@
         <v>81</v>
       </c>
       <c r="K90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4246,7 +4240,7 @@
         <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4281,7 +4275,7 @@
         <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,7 +4310,7 @@
         <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4351,7 +4345,7 @@
         <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4386,7 +4380,7 @@
         <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4421,7 +4415,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4456,7 +4450,7 @@
         <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4491,7 +4485,7 @@
         <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4523,10 +4517,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4561,7 +4555,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4593,10 +4587,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4628,10 +4622,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4663,10 +4657,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4698,10 +4692,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4733,10 +4727,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4768,10 +4762,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4803,10 +4797,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4841,7 +4835,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4876,7 +4870,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4908,10 +4902,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4928,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14580</v>
+        <v>14681</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4937,16 +4931,16 @@
         <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45796.70487268519</v>
+        <v>45798.66693287037</v>
       </c>
       <c r="I111" s="4">
-        <v>45797.70487268519</v>
+        <v>45799.66693287037</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4981,7 +4975,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="220">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,13 +151,13 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.0 meses sem comprar</t>
+    <t>INATIVO - 54.1 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
+    <t>INATIVO - 34.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.6 meses sem comprar</t>
@@ -172,154 +172,169 @@
     <t>INATIVO - 17.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 1.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 1.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 3.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 23.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 24.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
+    <t>INATIVO - 24.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.4 meses sem comprar</t>
@@ -328,7 +343,7 @@
     <t>INATIVO - 20.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
+    <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1125,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1160,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1195,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1230,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1265,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1300,7 +1315,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1335,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1370,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1405,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1440,7 +1455,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1475,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1510,7 +1525,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1545,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1580,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1615,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1650,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1685,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1720,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1755,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1790,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1825,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1860,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1895,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1930,7 +1945,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1965,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2000,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2035,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2070,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2105,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2140,7 +2155,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2175,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2210,7 +2225,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2245,7 +2260,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2280,7 +2295,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2297,7 +2312,7 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="1">
         <v>0.5</v>
@@ -2306,16 +2321,16 @@
         <v>22</v>
       </c>
       <c r="H36" s="4">
-        <v>45754.75</v>
+        <v>45799.76268518518</v>
       </c>
       <c r="I36" s="4">
-        <v>45815.75</v>
+        <v>45860.76268518518</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2350,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2385,7 +2400,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2420,7 +2435,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2455,7 +2470,7 @@
         <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2490,7 +2505,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2525,7 +2540,7 @@
         <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2560,7 +2575,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2595,7 +2610,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2627,10 +2642,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2665,7 +2680,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2700,7 +2715,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2735,7 +2750,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2767,10 +2782,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2805,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2840,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2875,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2910,7 +2925,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2945,7 +2960,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2980,7 +2995,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3015,7 +3030,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3047,10 +3062,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3085,7 +3100,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3120,7 +3135,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3155,7 +3170,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3190,7 +3205,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3225,7 +3240,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3257,10 +3272,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3292,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3330,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3362,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3397,10 +3412,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3435,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3470,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3505,7 +3520,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3537,10 +3552,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3572,10 +3587,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3607,10 +3622,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3642,10 +3657,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3680,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3715,7 +3730,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3750,7 +3765,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3782,10 +3797,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3817,10 +3832,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3855,7 +3870,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3887,10 +3902,10 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3925,7 +3940,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3957,10 +3972,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3992,10 +4007,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4027,10 +4042,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4062,10 +4077,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4097,10 +4112,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4132,10 +4147,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4167,10 +4182,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4202,10 +4217,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4237,10 +4252,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4272,10 +4287,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4307,10 +4322,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4342,10 +4357,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4377,10 +4392,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4415,7 +4430,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4447,10 +4462,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4482,10 +4497,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4517,10 +4532,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4555,7 +4570,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4587,10 +4602,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4622,10 +4637,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4657,10 +4672,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4692,10 +4707,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K104" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4727,10 +4742,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4762,10 +4777,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4797,10 +4812,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4835,7 +4850,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4870,7 +4885,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4902,10 +4917,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4922,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14681</v>
+        <v>14733</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4931,16 +4946,16 @@
         <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45798.66693287037</v>
+        <v>45799.65523148148</v>
       </c>
       <c r="I111" s="4">
-        <v>45799.66693287037</v>
+        <v>45800.65523148148</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4975,7 +4990,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,7 +151,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.1 meses sem comprar</t>
+    <t>INATIVO - 54.2 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -160,16 +160,16 @@
     <t>INATIVO - 34.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.4 meses sem comprar</t>
@@ -178,172 +178,151 @@
     <t>INATIVO - 3.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.2 meses sem comprar</t>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
+    <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
+    <t>INATIVO - 31.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1140,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1175,7 +1154,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1210,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1245,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,7 +1259,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1350,7 +1329,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,7 +1364,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1420,7 +1399,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1455,7 +1434,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1490,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1525,7 +1504,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1560,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1595,7 +1574,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1630,7 +1609,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1665,7 +1644,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1700,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1735,7 +1714,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1770,7 +1749,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1805,7 +1784,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1840,7 +1819,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1875,7 +1854,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1910,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1945,7 +1924,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1980,7 +1959,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2015,7 +1994,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2050,7 +2029,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2085,7 +2064,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2120,7 +2099,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2155,7 +2134,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2190,7 +2169,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2225,7 +2204,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2260,7 +2239,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2295,7 +2274,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2312,7 +2291,7 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1">
         <v>0.5</v>
@@ -2321,16 +2300,16 @@
         <v>22</v>
       </c>
       <c r="H36" s="4">
-        <v>45799.76268518518</v>
+        <v>45801.7884375</v>
       </c>
       <c r="I36" s="4">
-        <v>45860.76268518518</v>
+        <v>45862.7884375</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2365,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2400,7 +2379,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2435,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2443,34 +2422,34 @@
         <v>4683</v>
       </c>
       <c r="B40" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C40" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G40" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="4">
-        <v>45602.63325231482</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>44</v>
+        <v>45801.74719907407</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45954.74719907407</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2502,10 +2481,10 @@
         <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2537,10 +2516,10 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2575,7 +2554,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2607,10 +2586,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2642,10 +2621,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2680,7 +2659,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2715,7 +2694,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2750,7 +2729,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2782,10 +2761,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2820,7 +2799,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2855,7 +2834,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2890,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2907,7 +2886,7 @@
         <v>0.83</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="1">
         <v>0.83</v>
@@ -2916,16 +2895,16 @@
         <v>32</v>
       </c>
       <c r="H53" s="4">
-        <v>45777.83215277778</v>
+        <v>45801.74162037037</v>
       </c>
       <c r="I53" s="4">
-        <v>45792.83215277778</v>
+        <v>45816.74162037037</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2960,7 +2939,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2977,7 +2956,7 @@
         <v>0.5</v>
       </c>
       <c r="E55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" s="1">
         <v>0.5</v>
@@ -2986,16 +2965,16 @@
         <v>32</v>
       </c>
       <c r="H55" s="4">
-        <v>45797.52894675926</v>
+        <v>45801.75708333333</v>
       </c>
       <c r="I55" s="4">
-        <v>45812.52894675926</v>
+        <v>45816.75708333333</v>
       </c>
       <c r="J55" t="s">
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3030,7 +3009,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3062,10 +3041,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3100,7 +3079,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3135,7 +3114,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3170,7 +3149,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3205,7 +3184,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3240,7 +3219,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3272,10 +3251,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3307,10 +3286,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3345,7 +3324,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3380,7 +3359,7 @@
         <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3412,10 +3391,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3450,7 +3429,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3485,7 +3464,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3520,7 +3499,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3552,10 +3531,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3587,10 +3566,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3622,10 +3601,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3657,10 +3636,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3695,7 +3674,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3730,7 +3709,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3765,7 +3744,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3797,10 +3776,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3832,10 +3811,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3870,7 +3849,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3902,10 +3881,10 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3940,7 +3919,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3972,10 +3951,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4007,10 +3986,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4042,10 +4021,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4077,10 +4056,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4112,10 +4091,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4147,10 +4126,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4182,10 +4161,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4217,10 +4196,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4252,10 +4231,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4287,10 +4266,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4322,10 +4301,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4357,10 +4336,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4392,10 +4371,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4430,7 +4409,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4462,10 +4441,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4497,10 +4476,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4532,10 +4511,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4570,7 +4549,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4602,10 +4581,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4637,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4672,10 +4651,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4707,10 +4686,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4742,10 +4721,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4777,10 +4756,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4812,10 +4791,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K107" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4850,7 +4829,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4885,7 +4864,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4917,10 +4896,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4937,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14733</v>
+        <v>14776</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4946,16 +4925,16 @@
         <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45799.65523148148</v>
+        <v>45800.68358796297</v>
       </c>
       <c r="I111" s="4">
-        <v>45800.65523148148</v>
+        <v>45801.68358796297</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4963,34 +4942,34 @@
         <v>28502</v>
       </c>
       <c r="B112" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C112" s="1">
         <v>0.17</v>
       </c>
       <c r="D112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G112" t="s">
         <v>34</v>
       </c>
       <c r="H112" s="4">
-        <v>45723.70773148148</v>
+        <v>45800.43686342592</v>
       </c>
       <c r="I112" s="4">
-        <v>45784.70773148148</v>
+        <v>45861.43686342592</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="220">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,7 +157,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
+    <t>INATIVO - 35.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.7 meses sem comprar</t>
@@ -169,139 +169,160 @@
     <t>INATIVO - 16.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 3.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.8 meses sem comprar</t>
@@ -1119,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1154,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1294,7 +1315,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,7 +1455,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1469,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1504,7 +1525,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1539,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1784,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1889,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,7 +1945,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1959,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2029,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,7 +2155,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2169,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,7 +2225,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,7 +2260,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2274,7 +2295,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2309,7 +2330,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,7 +2400,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,7 +2435,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2449,7 +2470,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2484,7 +2505,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2519,7 +2540,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2554,7 +2575,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2589,7 +2610,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2621,10 +2642,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2659,7 +2680,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,7 +2715,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2729,7 +2750,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2761,10 +2782,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2799,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2834,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2869,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2904,7 +2925,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2939,7 +2960,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2974,7 +2995,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,7 +3030,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3041,10 +3062,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3079,7 +3100,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3114,7 +3135,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,7 +3170,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3184,7 +3205,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3219,7 +3240,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3251,10 +3272,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3286,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3324,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3356,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3391,10 +3412,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3429,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3464,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3499,7 +3520,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3531,10 +3552,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3566,10 +3587,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3601,10 +3622,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3636,10 +3657,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3674,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3709,7 +3730,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3744,7 +3765,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3776,10 +3797,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3811,10 +3832,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,7 +3870,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3881,10 +3902,10 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3919,7 +3940,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3951,10 +3972,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3986,10 +4007,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4021,10 +4042,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4056,10 +4077,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4091,10 +4112,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4126,10 +4147,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4161,10 +4182,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4196,10 +4217,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4231,10 +4252,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4266,10 +4287,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4301,10 +4322,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4336,10 +4357,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4371,10 +4392,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,7 +4430,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4441,10 +4462,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4476,10 +4497,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4511,10 +4532,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,7 +4570,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4581,10 +4602,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K101" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4616,10 +4637,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4651,10 +4672,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4686,10 +4707,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4721,10 +4742,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4756,10 +4777,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4791,10 +4812,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4829,7 +4850,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,7 +4885,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4896,10 +4917,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4934,7 +4955,7 @@
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4969,7 +4990,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>id_cliente</t>
   </si>
@@ -181,7 +181,7 @@
     <t>INATIVO - 38.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
+    <t>INATIVO - 1.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.3 meses sem comprar</t>
@@ -196,7 +196,7 @@
     <t>INATIVO - 36.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
+    <t>INATIVO - 28.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.7 meses sem comprar</t>
@@ -211,36 +211,33 @@
     <t>INATIVO - 21.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
+    <t>INATIVO - 24.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 8.9 meses sem comprar</t>
   </si>
   <si>
@@ -271,13 +268,13 @@
     <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
+    <t>INATIVO - 21.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
+    <t>INATIVO - 20.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.4 meses sem comprar</t>
@@ -340,7 +337,7 @@
     <t>INATIVO - 5.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
+    <t>INATIVO - 20.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.4 meses sem comprar</t>
@@ -1140,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1175,7 +1172,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1210,7 +1207,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1245,7 +1242,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1350,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,7 +1382,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1420,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1455,7 +1452,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1490,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1525,7 +1522,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1560,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1595,7 +1592,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1630,7 +1627,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1665,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1700,7 +1697,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1735,7 +1732,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1770,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1805,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1840,7 +1837,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1875,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1910,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1945,7 +1942,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1980,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2015,7 +2012,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2050,7 +2047,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2085,7 +2082,7 @@
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2120,7 +2117,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2155,7 +2152,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2190,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2225,7 +2222,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2260,7 +2257,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2295,7 +2292,7 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2330,7 +2327,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2365,7 +2362,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2400,7 +2397,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2435,7 +2432,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2470,7 +2467,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2505,7 +2502,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2540,7 +2537,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2575,7 +2572,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2610,7 +2607,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2642,10 +2639,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2680,7 +2677,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2715,7 +2712,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2747,10 +2744,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2782,10 +2779,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2820,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2855,7 +2852,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2890,7 +2887,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2925,7 +2922,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2960,7 +2957,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2995,7 +2992,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3030,7 +3027,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3062,10 +3059,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3100,7 +3097,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3135,7 +3132,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3170,7 +3167,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3205,7 +3202,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3240,7 +3237,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3272,10 +3269,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3307,10 +3304,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3318,16 +3315,16 @@
         <v>9247</v>
       </c>
       <c r="B65" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C65" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D65" s="1">
         <v>0.33</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1">
         <v>0.33</v>
@@ -3336,16 +3333,16 @@
         <v>31</v>
       </c>
       <c r="H65" s="4">
-        <v>45745.47847222222</v>
+        <v>45803.91217592593</v>
       </c>
       <c r="I65" s="4">
-        <v>45776.47847222222</v>
+        <v>45834.91217592593</v>
       </c>
       <c r="J65" t="s">
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3377,10 +3374,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3412,10 +3409,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3450,7 +3447,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3461,31 +3458,31 @@
         <v>0.5</v>
       </c>
       <c r="C69" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H69" s="4">
-        <v>45749.95855324074</v>
+        <v>45803.93900462963</v>
       </c>
       <c r="I69" s="4">
-        <v>45764.95855324074</v>
+        <v>45834.93900462963</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3520,7 +3517,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3552,10 +3549,10 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3587,10 +3584,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3622,10 +3619,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3657,10 +3654,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3695,7 +3692,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3730,7 +3727,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3765,7 +3762,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3797,10 +3794,10 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3832,10 +3829,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3870,7 +3867,7 @@
         <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3902,10 +3899,10 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3940,7 +3937,7 @@
         <v>46</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3972,10 +3969,10 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4007,10 +4004,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4042,10 +4039,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4077,10 +4074,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4112,10 +4109,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4147,10 +4144,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4182,10 +4179,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4217,10 +4214,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4252,10 +4249,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4287,10 +4284,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4322,10 +4319,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4357,10 +4354,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4392,10 +4389,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4430,7 +4427,7 @@
         <v>46</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4462,10 +4459,10 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4497,10 +4494,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4532,10 +4529,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4567,10 +4564,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4602,10 +4599,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4637,10 +4634,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4672,10 +4669,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4707,10 +4704,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4742,10 +4739,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4777,10 +4774,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4812,10 +4809,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4850,7 +4847,7 @@
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4885,7 +4882,7 @@
         <v>46</v>
       </c>
       <c r="K109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4917,10 +4914,10 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4937,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14776</v>
+        <v>14861</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4946,16 +4943,16 @@
         <v>43</v>
       </c>
       <c r="H111" s="4">
-        <v>45800.68358796297</v>
+        <v>45803.72020833333</v>
       </c>
       <c r="I111" s="4">
-        <v>45801.68358796297</v>
+        <v>45804.72020833333</v>
       </c>
       <c r="J111" t="s">
         <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4990,7 +4987,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -121,9 +121,6 @@
     <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
-    <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
     <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
@@ -160,10 +157,10 @@
     <t>INATIVO - 35.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 16.9 meses sem comprar</t>
@@ -178,7 +175,7 @@
     <t>INATIVO - 3.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
+    <t>INATIVO - 38.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.4 meses sem comprar</t>
@@ -199,7 +196,7 @@
     <t>INATIVO - 28.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.7 meses sem comprar</t>
+    <t>INATIVO - 36.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.4 meses sem comprar</t>
@@ -220,7 +217,7 @@
     <t>INATIVO - 25.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.1 meses sem comprar</t>
+    <t>INATIVO - 31.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.3 meses sem comprar</t>
@@ -235,7 +232,7 @@
     <t>INATIVO - 24.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
+    <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.9 meses sem comprar</t>
@@ -244,7 +241,7 @@
     <t>INATIVO - 10.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
+    <t>INATIVO - 26.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.8 meses sem comprar</t>
@@ -253,19 +250,13 @@
     <t>INATIVO - 11.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 32.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
+    <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.2 meses sem comprar</t>
@@ -280,19 +271,16 @@
     <t>INATIVO - 8.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
+    <t>INATIVO - 14.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.6 meses sem comprar</t>
@@ -301,25 +289,19 @@
     <t>INATIVO - 17.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
+    <t>INATIVO - 15.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.8 meses sem comprar</t>
+    <t>INATIVO - 31.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.8 meses sem comprar</t>
@@ -1131,13 +1113,13 @@
         <v>44177.71849537037</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1169,10 +1151,10 @@
         <v>45947.7384837963</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,13 +1183,13 @@
         <v>44754.55429398148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1236,13 +1218,13 @@
         <v>45391.81866898148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1271,13 +1253,13 @@
         <v>45346.52106481481</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1309,10 +1291,10 @@
         <v>45921.79557870371</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1341,13 +1323,13 @@
         <v>45296.48252314814</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,13 +1358,13 @@
         <v>45264.65059027778</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1411,13 +1393,13 @@
         <v>45759.4741087963</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,13 +1428,13 @@
         <v>45687.55204861111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1484,10 +1466,10 @@
         <v>45914.77471064815</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1519,10 +1501,10 @@
         <v>45789.57520833334</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1554,10 +1536,10 @@
         <v>45969.68853009259</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1586,13 +1568,13 @@
         <v>44641.65599537037</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1621,13 +1603,13 @@
         <v>45762.86993055556</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1656,13 +1638,13 @@
         <v>44714.74429398148</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1691,13 +1673,13 @@
         <v>45495.49012731481</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1726,13 +1708,13 @@
         <v>45377.70813657407</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1761,13 +1743,13 @@
         <v>44718.4404050926</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1799,10 +1781,10 @@
         <v>45872.81461805556</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1831,13 +1813,13 @@
         <v>44961.73466435185</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1866,13 +1848,13 @@
         <v>44701.78590277778</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1904,10 +1886,10 @@
         <v>45837.49481481482</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1936,13 +1918,13 @@
         <v>45251.62864583333</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1974,10 +1956,10 @@
         <v>45943.7065625</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2006,13 +1988,13 @@
         <v>45308.67796296296</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2044,10 +2026,10 @@
         <v>45807.80199074074</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2079,10 +2061,10 @@
         <v>45782.70384259259</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2111,13 +2093,13 @@
         <v>45161.61640046296</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2146,13 +2128,13 @@
         <v>45609.73203703704</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2184,10 +2166,10 @@
         <v>45941.87094907407</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2216,13 +2198,13 @@
         <v>45398.78646990741</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2251,13 +2233,13 @@
         <v>45033.63594907407</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2289,10 +2271,10 @@
         <v>45824.61438657407</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2324,10 +2306,10 @@
         <v>45862.7884375</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2356,13 +2338,13 @@
         <v>44869.73755787037</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,13 +2373,13 @@
         <v>44805.5749074074</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2426,13 +2408,13 @@
         <v>45461.68362268519</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2464,10 +2446,10 @@
         <v>45954.74719907407</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2496,13 +2478,13 @@
         <v>45612.75633101852</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2531,13 +2513,13 @@
         <v>45063.75159722222</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2569,10 +2551,10 @@
         <v>45742.57638888889</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2601,13 +2583,13 @@
         <v>45358.79960648148</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2636,13 +2618,13 @@
         <v>45761.78282407407</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2674,10 +2656,10 @@
         <v>45833.43402777778</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2709,10 +2691,10 @@
         <v>45723.75690972222</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2741,13 +2723,13 @@
         <v>45610.77327546296</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,13 +2758,13 @@
         <v>45537.70445601852</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2814,10 +2796,10 @@
         <v>45715.80520833333</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2849,10 +2831,10 @@
         <v>45836.66159722222</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2884,10 +2866,10 @@
         <v>45795.89711805555</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2919,10 +2901,10 @@
         <v>45816.74162037037</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2954,10 +2936,10 @@
         <v>45844.8121875</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2989,10 +2971,10 @@
         <v>45816.75708333333</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3024,10 +3006,10 @@
         <v>45717.7587037037</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,13 +3038,13 @@
         <v>45479.50534722222</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3094,10 +3076,10 @@
         <v>45736.67063657408</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3129,10 +3111,10 @@
         <v>45794.76335648148</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,25 +3131,25 @@
         <v>0.5</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" s="1">
         <v>0.5</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" s="4">
-        <v>45764.40920138889</v>
+        <v>45804.76493055555</v>
       </c>
       <c r="I60" s="4">
-        <v>45794.40920138889</v>
+        <v>45865.76493055555</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3199,10 +3181,10 @@
         <v>45823.79412037037</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3225,7 +3207,7 @@
         <v>0.75</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62" s="4">
         <v>45787.61539351852</v>
@@ -3234,10 +3216,10 @@
         <v>45802.61539351852</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,13 +3248,13 @@
         <v>45001.60172453704</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,13 +3283,13 @@
         <v>45180.49822916667</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3339,10 +3321,10 @@
         <v>45834.91217592593</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3365,19 +3347,19 @@
         <v>0.75</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66" s="4">
         <v>45459.62275462963</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,13 +3388,13 @@
         <v>45496.43895833333</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3444,10 +3426,10 @@
         <v>45809.69037037037</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3479,10 +3461,10 @@
         <v>45834.93900462963</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3505,7 +3487,7 @@
         <v>0.67</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" s="4">
         <v>45744.94902777778</v>
@@ -3514,10 +3496,10 @@
         <v>45759.94902777778</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3546,13 +3528,13 @@
         <v>45797.62541666667</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,13 +3563,13 @@
         <v>45180.50475694444</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3616,13 +3598,13 @@
         <v>44834.48420138889</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3651,13 +3633,13 @@
         <v>45604.84116898148</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3689,10 +3671,10 @@
         <v>45852.89126157408</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3724,10 +3706,10 @@
         <v>45742.6609375</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3759,10 +3741,10 @@
         <v>45811.70832175926</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3779,25 +3761,25 @@
         <v>0.17</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F78" s="1">
         <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H78" s="4">
-        <v>45565.389375</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>44</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I78" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J78" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3826,13 +3808,13 @@
         <v>45168.76292824074</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3864,10 +3846,10 @@
         <v>45844.75921296296</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3890,19 +3872,19 @@
         <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" s="4">
         <v>45050.52782407407</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3934,10 +3916,10 @@
         <v>45779.8877199074</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3960,19 +3942,19 @@
         <v>0.67</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H83" s="4">
         <v>45183.80324074074</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4001,13 +3983,13 @@
         <v>45552.70295138889</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4030,19 +4012,19 @@
         <v>0.17</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85" s="4">
         <v>45385.58152777778</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4065,19 +4047,19 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H86" s="4">
         <v>45689.63208333333</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4106,13 +4088,13 @@
         <v>45484.48732638889</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4141,13 +4123,13 @@
         <v>45502.45310185185</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4176,13 +4158,13 @@
         <v>45384.49722222222</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4211,13 +4193,13 @@
         <v>44834.46898148148</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4246,13 +4228,13 @@
         <v>45425.69083333333</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4281,13 +4263,13 @@
         <v>45275.73480324074</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,13 +4298,13 @@
         <v>45344.40892361111</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4345,19 +4327,19 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H94" s="4">
         <v>45261.46980324074</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4386,13 +4368,13 @@
         <v>44848.60068287037</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4424,10 +4406,10 @@
         <v>45917.50590277778</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4450,19 +4432,19 @@
         <v>0.17</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H97" s="4">
         <v>45770.68174768519</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4491,13 +4473,13 @@
         <v>45150.6974537037</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4526,13 +4508,13 @@
         <v>44719.5262962963</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4555,19 +4537,19 @@
         <v>0.67</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100" s="4">
         <v>45610.87215277777</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K100" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4596,13 +4578,13 @@
         <v>45400.57224537037</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4631,13 +4613,13 @@
         <v>45089.61954861111</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4666,13 +4648,13 @@
         <v>45521.44858796296</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4701,13 +4683,13 @@
         <v>45077.72989583333</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4736,13 +4718,13 @@
         <v>45365.7433912037</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4771,13 +4753,13 @@
         <v>45638.64440972222</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4806,13 +4788,13 @@
         <v>45195.77344907408</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K107" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4844,10 +4826,10 @@
         <v>45775.57778935185</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4879,10 +4861,10 @@
         <v>45743.54253472222</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4911,13 +4893,13 @@
         <v>45581.72913194444</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4934,25 +4916,25 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14861</v>
+        <v>14874</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45803.72020833333</v>
+        <v>45804.50607638889</v>
       </c>
       <c r="I111" s="4">
-        <v>45804.72020833333</v>
+        <v>45805.50607638889</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4984,10 +4966,10 @@
         <v>45861.43686342592</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
   <si>
     <t>id_cliente</t>
   </si>
@@ -148,13 +148,13 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.2 meses sem comprar</t>
+    <t>INATIVO - 54.3 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
+    <t>INATIVO - 35.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.8 meses sem comprar</t>
@@ -163,166 +163,181 @@
     <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
+    <t>INATIVO - 17.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 1.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 1.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 3.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.5 meses sem comprar</t>
+    <t>INATIVO - 23.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1119,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1154,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1294,7 +1309,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,7 +1344,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,7 +1379,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,7 +1414,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,7 +1449,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1469,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1504,7 +1519,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1539,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,7 +1589,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,7 +1694,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,7 +1729,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,7 +1764,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1784,7 +1799,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,7 +1834,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,7 +1869,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1889,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,7 +1939,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1959,7 +1974,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2029,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,7 +2079,7 @@
         <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,7 +2114,7 @@
         <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,7 +2149,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2169,7 +2184,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,7 +2219,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,7 +2254,7 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2274,7 +2289,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2309,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,7 +2429,7 @@
         <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2449,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2484,7 +2499,7 @@
         <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2519,7 +2534,7 @@
         <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2554,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2589,7 +2604,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2621,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2659,7 +2674,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,7 +2709,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2729,7 +2744,7 @@
         <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2761,10 +2776,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2799,7 +2814,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2834,7 +2849,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2869,7 +2884,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2904,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2912,34 +2927,34 @@
         <v>5986</v>
       </c>
       <c r="B54" s="1">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C54" s="1">
         <v>0.5</v>
       </c>
       <c r="D54" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="4">
-        <v>45783.8121875</v>
+        <v>45805.76532407408</v>
       </c>
       <c r="I54" s="4">
-        <v>45844.8121875</v>
+        <v>45866.76532407408</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2974,7 +2989,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,7 +3024,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3041,10 +3056,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3079,7 +3094,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3114,7 +3129,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3184,7 +3199,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3219,7 +3234,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3251,10 +3266,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3286,10 +3301,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3324,7 +3339,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3356,10 +3371,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3391,10 +3406,10 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3429,7 +3444,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3464,7 +3479,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3499,7 +3514,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3531,10 +3546,10 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3566,10 +3581,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3601,10 +3616,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3636,10 +3651,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3674,7 +3689,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3709,7 +3724,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3744,7 +3759,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3779,7 +3794,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3811,10 +3826,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,7 +3864,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3881,10 +3896,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3919,7 +3934,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3951,10 +3966,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3986,10 +4001,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4021,10 +4036,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4056,10 +4071,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4091,10 +4106,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4126,10 +4141,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4161,10 +4176,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4196,10 +4211,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4231,10 +4246,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4266,10 +4281,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4301,10 +4316,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4336,10 +4351,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4371,10 +4386,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,7 +4424,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4441,10 +4456,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4476,10 +4491,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4511,10 +4526,10 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,7 +4564,7 @@
         <v>64</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4581,10 +4596,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4616,10 +4631,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4651,10 +4666,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4686,10 +4701,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4721,10 +4736,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4756,10 +4771,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4791,10 +4806,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4822,14 +4837,14 @@
       <c r="H108" s="4">
         <v>45624.57778935185</v>
       </c>
-      <c r="I108" s="4">
-        <v>45775.57778935185</v>
+      <c r="I108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,7 +4879,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4896,10 +4911,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4916,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14874</v>
+        <v>14943</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4925,16 +4940,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45804.50607638889</v>
+        <v>45805.68260416666</v>
       </c>
       <c r="I111" s="4">
-        <v>45805.50607638889</v>
+        <v>45806.68260416666</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4969,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
   <si>
     <t>id_cliente</t>
   </si>
@@ -166,7 +166,7 @@
     <t>INATIVO - 17.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
+    <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.6 meses sem comprar</t>
@@ -178,7 +178,7 @@
     <t>INATIVO - 38.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.4 meses sem comprar</t>
+    <t>INATIVO - 1.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.4 meses sem comprar</t>
@@ -193,7 +193,7 @@
     <t>INATIVO - 36.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
+    <t>INATIVO - 28.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.8 meses sem comprar</t>
@@ -208,37 +208,34 @@
     <t>INATIVO - 21.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
+    <t>INATIVO - 24.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
+    <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.9 meses sem comprar</t>
@@ -250,7 +247,7 @@
     <t>INATIVO - 20.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
+    <t>INATIVO - 11.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 0.3 meses sem comprar</t>
@@ -262,16 +259,16 @@
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
+    <t>INATIVO - 21.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
@@ -307,7 +304,7 @@
     <t>INATIVO - 1.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
+    <t>INATIVO - 21.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.2 meses sem comprar</t>
@@ -331,7 +328,7 @@
     <t>INATIVO - 5.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
+    <t>INATIVO - 20.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.1 meses sem comprar</t>
@@ -1134,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1169,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1204,7 +1201,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1239,7 +1236,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1274,7 +1271,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1309,7 +1306,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1344,7 +1341,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1379,7 +1376,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1414,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1449,7 +1446,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1484,7 +1481,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1519,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1554,7 +1551,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1589,7 +1586,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1624,7 +1621,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1659,7 +1656,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1694,7 +1691,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1729,7 +1726,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1764,7 +1761,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1799,7 +1796,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1834,7 +1831,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1869,7 +1866,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1904,7 +1901,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1939,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1974,7 +1971,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2009,7 +2006,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2044,7 +2041,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2079,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2114,7 +2111,7 @@
         <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2149,7 +2146,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2184,7 +2181,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2219,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2254,7 +2251,7 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2289,7 +2286,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2324,7 +2321,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2359,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2394,7 +2391,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2429,7 +2426,7 @@
         <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2464,7 +2461,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2499,7 +2496,7 @@
         <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2534,7 +2531,7 @@
         <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2569,7 +2566,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2604,7 +2601,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2636,10 +2633,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2674,7 +2671,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2709,7 +2706,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2741,10 +2738,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,10 +2773,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2814,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2849,7 +2846,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2884,7 +2881,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2919,7 +2916,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2954,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2989,7 +2986,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3024,7 +3021,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,10 +3053,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3094,7 +3091,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3129,7 +3126,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3164,7 +3161,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3199,7 +3196,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3234,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,10 +3263,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,10 +3298,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3339,7 +3336,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3371,10 +3368,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,10 +3403,10 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3444,7 +3441,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3479,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3514,7 +3511,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3546,10 +3543,10 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,10 +3578,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3616,10 +3613,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3651,10 +3648,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3689,7 +3686,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3724,7 +3721,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3759,7 +3756,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3794,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3826,10 +3823,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3864,7 +3861,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3896,10 +3893,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3934,7 +3931,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3966,10 +3963,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4001,10 +3998,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4036,10 +4033,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4071,10 +4068,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4106,10 +4103,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4141,10 +4138,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4176,10 +4173,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4211,10 +4208,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4246,10 +4243,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4281,10 +4278,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,10 +4313,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4351,10 +4348,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4386,10 +4383,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4424,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4456,10 +4453,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4491,10 +4488,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4526,10 +4523,10 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4561,10 +4558,10 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4596,10 +4593,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4631,10 +4628,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4666,10 +4663,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4701,10 +4698,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4736,10 +4733,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4771,10 +4768,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4806,10 +4803,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4841,10 +4838,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4879,7 +4876,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4911,10 +4908,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4931,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14943</v>
+        <v>14998</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4940,16 +4937,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45805.68260416666</v>
+        <v>45806.72331018518</v>
       </c>
       <c r="I111" s="4">
-        <v>45806.68260416666</v>
+        <v>45807.72331018518</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4984,7 +4981,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -148,193 +148,193 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.3 meses sem comprar</t>
+    <t>INATIVO - 54.4 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 36.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
+    <t>INATIVO - 24.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1489,16 +1489,16 @@
         <v>2095</v>
       </c>
       <c r="B13" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C13" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D13" s="1">
         <v>0.33</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>0.33</v>
@@ -1507,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="H13" s="4">
-        <v>45728.57520833334</v>
+        <v>45807.49570601852</v>
       </c>
       <c r="I13" s="4">
-        <v>45789.57520833334</v>
+        <v>45868.49570601852</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
@@ -2863,7 +2863,7 @@
         <v>0.83</v>
       </c>
       <c r="E52">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1">
         <v>0.83</v>
@@ -2872,10 +2872,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="4">
-        <v>45780.89711805555</v>
+        <v>45809.63699074074</v>
       </c>
       <c r="I52" s="4">
-        <v>45795.89711805555</v>
+        <v>45824.63699074074</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
@@ -3169,16 +3169,16 @@
         <v>6544</v>
       </c>
       <c r="B61" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C61" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D61" s="1">
         <v>0.5</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1">
         <v>0.5</v>
@@ -3187,10 +3187,10 @@
         <v>31</v>
       </c>
       <c r="H61" s="4">
-        <v>45792.79412037037</v>
+        <v>45807.40917824074</v>
       </c>
       <c r="I61" s="4">
-        <v>45823.79412037037</v>
+        <v>45838.40917824074</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
@@ -4849,28 +4849,28 @@
         <v>28162</v>
       </c>
       <c r="B109" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E109">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
       </c>
       <c r="H109" s="4">
-        <v>45684.54253472222</v>
+        <v>45807.45422453704</v>
       </c>
       <c r="I109" s="4">
-        <v>45743.54253472222</v>
+        <v>45868.45422453704</v>
       </c>
       <c r="J109" t="s">
         <v>45</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>14998</v>
+        <v>15038</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4937,10 +4937,10 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45806.72331018518</v>
+        <v>45807.76511574074</v>
       </c>
       <c r="I111" s="4">
-        <v>45807.72331018518</v>
+        <v>45808.76511574074</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,10 +157,10 @@
     <t>INATIVO - 35.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.1 meses sem comprar</t>
@@ -175,7 +175,7 @@
     <t>INATIVO - 4.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
+    <t>INATIVO - 39.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.6 meses sem comprar</t>
@@ -196,7 +196,7 @@
     <t>INATIVO - 28.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.9 meses sem comprar</t>
+    <t>INATIVO - 37.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.6 meses sem comprar</t>
@@ -217,7 +217,7 @@
     <t>INATIVO - 25.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.3 meses sem comprar</t>
+    <t>INATIVO - 31.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.5 meses sem comprar</t>
@@ -232,7 +232,7 @@
     <t>INATIVO - 24.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
+    <t>INATIVO - 15.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.1 meses sem comprar</t>
@@ -241,7 +241,7 @@
     <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
+    <t>INATIVO - 27.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.0 meses sem comprar</t>
@@ -250,13 +250,10 @@
     <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 32.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
+    <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.4 meses sem comprar</t>
@@ -271,7 +268,7 @@
     <t>INATIVO - 8.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
+    <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 4.0 meses sem comprar</t>
@@ -283,34 +280,25 @@
     <t>INATIVO - 10.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
+    <t>INATIVO - 15.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.0 meses sem comprar</t>
+    <t>INATIVO - 32.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.0 meses sem comprar</t>
@@ -1131,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1166,7 +1154,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,7 +1189,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1236,7 +1224,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1271,7 +1259,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1306,7 +1294,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1341,7 +1329,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1411,7 +1399,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1481,7 +1469,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1516,7 +1504,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1551,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1586,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1621,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1656,7 +1644,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1691,7 +1679,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1726,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1761,7 +1749,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1796,7 +1784,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1831,7 +1819,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1866,7 +1854,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1901,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1936,7 +1924,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1971,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2006,7 +1994,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2041,7 +2029,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2076,7 +2064,7 @@
         <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2111,7 +2099,7 @@
         <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2146,7 +2134,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2181,7 +2169,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2216,7 +2204,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2251,7 +2239,7 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2286,7 +2274,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2321,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2356,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,7 +2379,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2426,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2461,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2496,7 +2484,7 @@
         <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2531,7 +2519,7 @@
         <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2566,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2601,7 +2589,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2636,7 +2624,7 @@
         <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2671,7 +2659,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2706,7 +2694,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2738,10 +2726,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,7 +2764,7 @@
         <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2811,7 +2799,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2846,7 +2834,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2881,7 +2869,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2916,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2951,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2986,7 +2974,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3021,7 +3009,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,7 +3044,7 @@
         <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3091,7 +3079,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3126,7 +3114,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3161,7 +3149,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3196,7 +3184,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3231,7 +3219,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,7 +3254,7 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,7 +3289,7 @@
         <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3336,7 +3324,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3371,7 +3359,7 @@
         <v>77</v>
       </c>
       <c r="K66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,7 +3394,7 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3441,7 +3429,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3476,7 +3464,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3511,7 +3499,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3519,34 +3507,34 @@
         <v>19765</v>
       </c>
       <c r="B71" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C71" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D71" s="1">
         <v>0.5</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="1">
         <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H71" s="4">
-        <v>45797.62541666667</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>43</v>
+        <v>45810.79798611111</v>
+      </c>
+      <c r="I71" s="4">
+        <v>45993.79798611111</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,7 +3569,7 @@
         <v>76</v>
       </c>
       <c r="K72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3613,10 +3601,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3648,10 +3636,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3686,7 +3674,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3721,7 +3709,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3756,7 +3744,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3791,7 +3779,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3823,10 +3811,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3861,7 +3849,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3893,10 +3881,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3931,7 +3919,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3963,10 +3951,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3998,10 +3986,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4033,10 +4021,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4068,10 +4056,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4103,10 +4091,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4138,10 +4126,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4173,10 +4161,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4208,10 +4196,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4243,10 +4231,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4278,10 +4266,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4313,10 +4301,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4348,10 +4336,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4383,10 +4371,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4421,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4453,10 +4441,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4488,10 +4476,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4523,10 +4511,10 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4558,10 +4546,10 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4593,10 +4581,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4628,10 +4616,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4663,10 +4651,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K103" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4698,10 +4686,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4733,10 +4721,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K105" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4768,10 +4756,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4803,10 +4791,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4838,10 +4826,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4876,7 +4864,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4908,10 +4896,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4919,16 +4907,16 @@
         <v>28458</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C111" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15038</v>
+        <v>15123</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4937,16 +4925,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45807.76511574074</v>
+        <v>45810.72594907408</v>
       </c>
       <c r="I111" s="4">
-        <v>45808.76511574074</v>
+        <v>45811.72594907408</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4981,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
   <si>
     <t>id_cliente</t>
   </si>
@@ -148,7 +148,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.4 meses sem comprar</t>
+    <t>INATIVO - 54.5 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -163,7 +163,7 @@
     <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
+    <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.2 meses sem comprar</t>
@@ -181,13 +181,13 @@
     <t>INATIVO - 1.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.5 meses sem comprar</t>
+    <t>INATIVO - 36.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
+    <t>INATIVO - 14.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.4 meses sem comprar</t>
@@ -199,121 +199,118 @@
     <t>INATIVO - 37.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.7 meses sem comprar</t>
+    <t>INATIVO - 24.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.5 meses sem comprar</t>
@@ -322,7 +319,7 @@
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1119,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1154,7 +1151,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,7 +1221,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,7 +1256,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1294,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,7 +1326,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,7 +1396,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,7 +1431,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1469,7 +1466,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1504,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1539,7 +1536,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,7 +1606,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,7 +1641,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,7 +1676,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,7 +1746,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1784,7 +1781,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,7 +1816,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,7 +1851,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1889,7 +1886,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,7 +1921,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1959,7 +1956,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,7 +1991,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2029,7 +2026,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,7 +2061,7 @@
         <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,7 +2131,7 @@
         <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2169,7 +2166,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,7 +2201,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,7 +2236,7 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2274,7 +2271,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2309,7 +2306,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,7 +2376,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,7 +2411,7 @@
         <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2449,7 +2446,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2484,7 +2481,7 @@
         <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2519,7 +2516,7 @@
         <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2554,7 +2551,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2589,7 +2586,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2621,10 +2618,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2659,7 +2656,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2729,7 +2726,7 @@
         <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2764,7 +2761,7 @@
         <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2799,7 +2796,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2834,7 +2831,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2869,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2904,7 +2901,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2939,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2974,7 +2971,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,7 +3006,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3044,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3079,7 +3076,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3114,7 +3111,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,7 +3146,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3184,7 +3181,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3219,7 +3216,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3254,7 +3251,7 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3289,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3324,7 +3321,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3356,10 +3353,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3394,7 +3391,7 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3429,7 +3426,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3464,7 +3461,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3499,7 +3496,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3534,7 +3531,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3569,7 +3566,7 @@
         <v>76</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3601,10 +3598,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3636,10 +3633,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3674,7 +3671,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3709,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3744,7 +3741,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3779,7 +3776,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3811,10 +3808,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,7 +3846,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3881,10 +3878,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3919,7 +3916,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3951,10 +3948,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3986,10 +3983,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4021,10 +4018,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4056,10 +4053,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4091,10 +4088,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4126,10 +4123,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4161,10 +4158,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4196,10 +4193,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4231,10 +4228,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4266,10 +4263,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4301,10 +4298,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4336,10 +4333,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4371,10 +4368,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,7 +4406,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4441,10 +4438,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4476,10 +4473,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4514,7 +4511,7 @@
         <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4581,10 +4578,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4616,10 +4613,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4651,10 +4648,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4686,10 +4683,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4721,10 +4718,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4756,10 +4753,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4791,10 +4788,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4826,10 +4823,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,7 +4861,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4896,10 +4893,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4916,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15123</v>
+        <v>15189</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4925,16 +4922,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45810.72594907408</v>
+        <v>45811.73751157407</v>
       </c>
       <c r="I111" s="4">
-        <v>45811.72594907408</v>
+        <v>45812.73751157407</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4969,7 +4966,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,124 +154,133 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
+    <t>INATIVO - 35.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
+    <t>INATIVO - 15.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 36.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.9 meses sem comprar</t>
@@ -280,22 +289,16 @@
     <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
+    <t>INATIVO - 22.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.1 meses sem comprar</t>
@@ -313,10 +316,10 @@
     <t>INATIVO - 5.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.7 meses sem comprar</t>
@@ -1116,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1151,7 +1154,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1186,7 +1189,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1221,7 +1224,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1256,7 +1259,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1291,7 +1294,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1326,7 +1329,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1361,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1396,7 +1399,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1431,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1466,7 +1469,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1501,7 +1504,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1536,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1571,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1606,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1641,7 +1644,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1676,7 +1679,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1711,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1746,7 +1749,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1781,7 +1784,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1816,7 +1819,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1851,7 +1854,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1886,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1921,7 +1924,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1956,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1991,7 +1994,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2026,7 +2029,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2054,14 +2057,14 @@
       <c r="H29" s="4">
         <v>45631.70384259259</v>
       </c>
-      <c r="I29" s="4">
-        <v>45782.70384259259</v>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2093,10 +2096,10 @@
         <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2128,10 +2131,10 @@
         <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2166,7 +2169,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2198,10 +2201,10 @@
         <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2233,10 +2236,10 @@
         <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2271,7 +2274,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2306,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2338,10 +2341,10 @@
         <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2373,10 +2376,10 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2408,10 +2411,10 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2446,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2478,10 +2481,10 @@
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2513,10 +2516,10 @@
         <v>43</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2551,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2583,10 +2586,10 @@
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2618,10 +2621,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2656,7 +2659,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2691,7 +2694,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2723,10 +2726,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2758,10 +2761,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2796,7 +2799,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2831,7 +2834,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2866,7 +2869,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2901,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2936,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2971,7 +2974,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3006,7 +3009,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3038,10 +3041,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3076,7 +3079,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3111,7 +3114,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3146,7 +3149,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3181,7 +3184,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3216,7 +3219,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3248,10 +3251,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3283,10 +3286,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3321,7 +3324,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3353,10 +3356,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3391,7 +3394,7 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3426,7 +3429,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3461,7 +3464,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3496,7 +3499,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3531,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3563,10 +3566,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3598,10 +3601,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3633,10 +3636,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3671,7 +3674,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3706,7 +3709,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3741,7 +3744,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3776,7 +3779,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3808,10 +3811,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3846,7 +3849,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3878,10 +3881,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3916,7 +3919,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3948,10 +3951,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3983,10 +3986,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4018,10 +4021,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4053,10 +4056,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4088,10 +4091,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4123,10 +4126,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4158,10 +4161,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4193,10 +4196,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4228,10 +4231,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4263,10 +4266,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4298,10 +4301,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4333,10 +4336,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4368,10 +4371,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4406,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4438,10 +4441,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4473,10 +4476,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4511,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4543,10 +4546,10 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4578,10 +4581,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4613,10 +4616,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4648,10 +4651,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4683,10 +4686,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4718,10 +4721,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4753,10 +4756,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4788,10 +4791,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4823,10 +4826,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4861,7 +4864,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4893,10 +4896,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4913,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15189</v>
+        <v>15246</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4922,16 +4925,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45811.73751157407</v>
+        <v>45812.67104166667</v>
       </c>
       <c r="I111" s="4">
-        <v>45812.73751157407</v>
+        <v>45813.67104166667</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4966,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -157,7 +157,7 @@
     <t>INATIVO - 35.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
+    <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.6 meses sem comprar</t>
@@ -196,7 +196,7 @@
     <t>INATIVO - 28.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
+    <t>INATIVO - 37.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.7 meses sem comprar</t>
@@ -205,7 +205,7 @@
     <t>INATIVO - 16.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
+    <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.7 meses sem comprar</t>
@@ -220,7 +220,7 @@
     <t>INATIVO - 26.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 31.4 meses sem comprar</t>
+    <t>INATIVO - 31.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 33.6 meses sem comprar</t>
@@ -235,7 +235,7 @@
     <t>INATIVO - 25.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
+    <t>INATIVO - 15.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.2 meses sem comprar</t>
@@ -256,7 +256,7 @@
     <t>INATIVO - 32.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.5 meses sem comprar</t>
@@ -2726,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s">
         <v>149</v>
@@ -4546,7 +4546,7 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K100" t="s">
         <v>200</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15246</v>
+        <v>15285</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4925,10 +4925,10 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45812.67104166667</v>
+        <v>45813.678125</v>
       </c>
       <c r="I111" s="4">
-        <v>45813.67104166667</v>
+        <v>45814.678125</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="213">
   <si>
     <t>id_cliente</t>
   </si>
@@ -148,181 +148,181 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.5 meses sem comprar</t>
+    <t>INATIVO - 54.6 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.3 meses sem comprar</t>
+    <t>INATIVO - 35.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 36.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 11.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 32.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
+    <t>INATIVO - 1.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2687,11 +2687,11 @@
       <c r="H47" s="4">
         <v>45633.75690972222</v>
       </c>
-      <c r="I47" s="4">
-        <v>45723.75690972222</v>
+      <c r="I47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K47" t="s">
         <v>148</v>
@@ -2726,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
         <v>149</v>
@@ -3437,16 +3437,16 @@
         <v>9807</v>
       </c>
       <c r="B69" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="C69" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D69" s="1">
         <v>0.5</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1">
         <v>0.5</v>
@@ -3455,10 +3455,10 @@
         <v>33</v>
       </c>
       <c r="H69" s="4">
-        <v>45803.93900462963</v>
+        <v>45815.91634259259</v>
       </c>
       <c r="I69" s="4">
-        <v>45834.93900462963</v>
+        <v>45845.91634259259</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
@@ -3516,19 +3516,19 @@
         <v>0.5</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1">
         <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H71" s="4">
-        <v>45810.79798611111</v>
+        <v>45814.73548611111</v>
       </c>
       <c r="I71" s="4">
-        <v>45993.79798611111</v>
+        <v>45967.73548611111</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
@@ -4546,7 +4546,7 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
         <v>200</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15285</v>
+        <v>15318</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4925,10 +4925,10 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45813.678125</v>
+        <v>45814.65280092593</v>
       </c>
       <c r="I111" s="4">
-        <v>45814.678125</v>
+        <v>45815.65280092593</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,7 +157,7 @@
     <t>INATIVO - 35.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
+    <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.7 meses sem comprar</t>
@@ -175,7 +175,7 @@
     <t>INATIVO - 4.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.1 meses sem comprar</t>
+    <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.8 meses sem comprar</t>
@@ -196,7 +196,7 @@
     <t>INATIVO - 28.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
+    <t>INATIVO - 37.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.8 meses sem comprar</t>
@@ -205,46 +205,49 @@
     <t>INATIVO - 16.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
+    <t>INATIVO - 27.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.2 meses sem comprar</t>
@@ -256,7 +259,7 @@
     <t>INATIVO - 32.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
+    <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.6 meses sem comprar</t>
@@ -292,7 +295,7 @@
     <t>INATIVO - 18.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
+    <t>INATIVO - 32.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.5 meses sem comprar</t>
@@ -1119,7 +1122,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1154,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1294,7 +1297,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,7 +1332,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,7 +1402,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,7 +1437,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1469,7 +1472,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1504,7 +1507,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1539,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,7 +1577,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,7 +1612,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,7 +1647,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,7 +1717,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,7 +1752,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1784,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,7 +1822,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,7 +1857,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1889,7 +1892,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,7 +1927,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1959,7 +1962,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,7 +1997,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2029,7 +2032,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,7 +2067,7 @@
         <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,7 +2102,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2169,7 +2172,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,7 +2207,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,7 +2242,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2274,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2309,7 +2312,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,7 +2347,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,7 +2382,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,7 +2417,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2449,7 +2452,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2484,7 +2487,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2519,7 +2522,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2554,7 +2557,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2589,7 +2592,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2624,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2659,7 +2662,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2691,10 +2694,10 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2726,10 +2729,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2761,10 +2764,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2799,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2834,7 +2837,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2869,7 +2872,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2904,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2939,7 +2942,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2974,7 +2977,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,7 +3012,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3041,10 +3044,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3079,7 +3082,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3114,7 +3117,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3149,7 +3152,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3184,7 +3187,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3219,7 +3222,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3251,10 +3254,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3286,10 +3289,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3324,7 +3327,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3356,10 +3359,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3394,7 +3397,7 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3429,7 +3432,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3464,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3499,7 +3502,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3534,7 +3537,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3566,10 +3569,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3601,10 +3604,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3636,10 +3639,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3674,7 +3677,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3709,7 +3712,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3744,7 +3747,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3779,7 +3782,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3811,10 +3814,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,7 +3852,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3881,10 +3884,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3919,7 +3922,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3951,10 +3954,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3986,10 +3989,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4021,10 +4024,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4056,10 +4059,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4091,10 +4094,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4126,10 +4129,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4161,10 +4164,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4196,10 +4199,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4231,10 +4234,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4266,10 +4269,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4304,7 +4307,7 @@
         <v>48</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4336,10 +4339,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4371,10 +4374,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,7 +4412,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4441,10 +4444,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4476,10 +4479,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4514,7 +4517,7 @@
         <v>58</v>
       </c>
       <c r="K99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4546,10 +4549,10 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4584,7 +4587,7 @@
         <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4616,10 +4619,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4651,10 +4654,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4686,10 +4689,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4721,10 +4724,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4756,10 +4759,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4791,10 +4794,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4826,10 +4829,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,7 +4867,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4896,10 +4899,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4934,7 +4937,7 @@
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4969,7 +4972,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -148,7 +148,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.6 meses sem comprar</t>
+    <t>INATIVO - 54.7 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -163,7 +163,7 @@
     <t>INATIVO - 15.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
+    <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.4 meses sem comprar</t>
@@ -181,13 +181,13 @@
     <t>INATIVO - 1.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.7 meses sem comprar</t>
+    <t>INATIVO - 36.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
+    <t>INATIVO - 14.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.6 meses sem comprar</t>
@@ -199,124 +199,124 @@
     <t>INATIVO - 37.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
+    <t>INATIVO - 21.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.9 meses sem comprar</t>
+    <t>INATIVO - 24.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.7 meses sem comprar</t>
@@ -325,7 +325,7 @@
     <t>INATIVO - 6.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
+    <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2425,28 +2425,28 @@
         <v>4683</v>
       </c>
       <c r="B40" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D40" s="1">
         <v>0.17</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1">
         <v>0.17</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H40" s="4">
-        <v>45801.74719907407</v>
+        <v>45817.73247685185</v>
       </c>
       <c r="I40" s="4">
-        <v>45954.74719907407</v>
+        <v>45939.73247685185</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
@@ -2624,7 +2624,7 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
         <v>147</v>
@@ -2918,25 +2918,25 @@
         <v>0.75</v>
       </c>
       <c r="C54" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E54">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="4">
-        <v>45805.76532407408</v>
+        <v>45817.5108912037</v>
       </c>
       <c r="I54" s="4">
-        <v>45866.76532407408</v>
+        <v>45878.5108912037</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
@@ -3309,7 +3309,7 @@
         <v>0.33</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1">
         <v>0.33</v>
@@ -3318,10 +3318,10 @@
         <v>31</v>
       </c>
       <c r="H65" s="4">
-        <v>45803.91217592593</v>
+        <v>45817.94976851852</v>
       </c>
       <c r="I65" s="4">
-        <v>45834.91217592593</v>
+        <v>45847.94976851852</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
@@ -3359,7 +3359,7 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
         <v>167</v>
@@ -3604,7 +3604,7 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
         <v>174</v>
@@ -3639,7 +3639,7 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
         <v>175</v>
@@ -3814,7 +3814,7 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s">
         <v>180</v>
@@ -3884,7 +3884,7 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s">
         <v>182</v>
@@ -3954,7 +3954,7 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
         <v>184</v>
@@ -3989,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
         <v>185</v>
@@ -4024,7 +4024,7 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
         <v>186</v>
@@ -4059,7 +4059,7 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="K86" t="s">
         <v>187</v>
@@ -4094,7 +4094,7 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s">
         <v>188</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s">
         <v>189</v>
@@ -4164,7 +4164,7 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s">
         <v>190</v>
@@ -4199,7 +4199,7 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s">
         <v>191</v>
@@ -4234,7 +4234,7 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s">
         <v>192</v>
@@ -4269,7 +4269,7 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s">
         <v>193</v>
@@ -4304,7 +4304,7 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s">
         <v>194</v>
@@ -4339,7 +4339,7 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s">
         <v>195</v>
@@ -4374,7 +4374,7 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s">
         <v>196</v>
@@ -4444,7 +4444,7 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s">
         <v>198</v>
@@ -4479,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s">
         <v>199</v>
@@ -4584,7 +4584,7 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K101" t="s">
         <v>202</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15318</v>
+        <v>15399</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4928,10 +4928,10 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45814.65280092593</v>
+        <v>45817.74002314815</v>
       </c>
       <c r="I111" s="4">
-        <v>45815.65280092593</v>
+        <v>45818.74002314815</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="218">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
+    <t>INATIVO - 35.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.2 meses sem comprar</t>
@@ -166,141 +166,153 @@
     <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 36.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 13.9 meses sem comprar</t>
   </si>
   <si>
@@ -319,10 +331,10 @@
     <t>INATIVO - 6.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
+    <t>INATIVO - 20.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.9 meses sem comprar</t>
@@ -1122,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1157,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1192,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1227,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1262,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1297,7 +1309,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1332,7 +1344,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1367,7 +1379,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1402,7 +1414,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1437,7 +1449,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1472,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1507,7 +1519,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1542,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1577,7 +1589,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1612,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1647,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1682,7 +1694,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1717,7 +1729,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1752,7 +1764,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1787,7 +1799,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1822,7 +1834,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1857,7 +1869,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1892,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1927,7 +1939,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1962,7 +1974,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1997,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2032,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2067,7 +2079,7 @@
         <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2102,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2137,7 +2149,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2172,7 +2184,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2207,7 +2219,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2242,7 +2254,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2277,7 +2289,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2312,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2347,7 +2359,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2382,7 +2394,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2417,7 +2429,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2452,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2487,7 +2499,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2522,7 +2534,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2557,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2592,7 +2604,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2624,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2662,7 +2674,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,10 +2706,10 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K47" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2729,10 +2741,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2764,10 +2776,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2802,7 +2814,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2837,7 +2849,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2854,7 +2866,7 @@
         <v>0.83</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" s="1">
         <v>0.83</v>
@@ -2863,16 +2875,16 @@
         <v>32</v>
       </c>
       <c r="H52" s="4">
-        <v>45809.63699074074</v>
+        <v>45818.90405092593</v>
       </c>
       <c r="I52" s="4">
-        <v>45824.63699074074</v>
+        <v>45833.90405092593</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2907,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2942,7 +2954,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2977,7 +2989,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3012,7 +3024,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3044,10 +3056,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3082,7 +3094,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3117,7 +3129,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3152,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3187,7 +3199,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3222,7 +3234,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3254,10 +3266,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3289,10 +3301,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3327,7 +3339,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3359,10 +3371,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3394,10 +3406,10 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3432,7 +3444,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3467,7 +3479,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3502,7 +3514,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3537,7 +3549,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3569,10 +3581,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3604,10 +3616,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3639,10 +3651,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3677,7 +3689,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3712,7 +3724,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3747,7 +3759,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3782,7 +3794,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3814,10 +3826,10 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3852,7 +3864,7 @@
         <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3884,10 +3896,10 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3922,7 +3934,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3954,10 +3966,10 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3989,10 +4001,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4024,10 +4036,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4059,10 +4071,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4094,10 +4106,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4129,10 +4141,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4164,10 +4176,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4199,10 +4211,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4234,10 +4246,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4269,10 +4281,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4304,10 +4316,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4339,10 +4351,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4374,10 +4386,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4412,7 +4424,7 @@
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4444,10 +4456,10 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4479,10 +4491,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4514,10 +4526,10 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,10 +4561,10 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4584,10 +4596,10 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4619,10 +4631,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4654,10 +4666,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4689,10 +4701,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4724,10 +4736,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4759,10 +4771,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4794,10 +4806,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4829,10 +4841,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4867,7 +4879,7 @@
         <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4899,10 +4911,10 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4919,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>15399</v>
+        <v>15463</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4928,16 +4940,16 @@
         <v>42</v>
       </c>
       <c r="H111" s="4">
-        <v>45817.74002314815</v>
+        <v>45818.70194444444</v>
       </c>
       <c r="I111" s="4">
-        <v>45818.74002314815</v>
+        <v>45819.70194444444</v>
       </c>
       <c r="J111" t="s">
         <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4972,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="216">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,10 +157,10 @@
     <t>INATIVO - 35.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.4 meses sem comprar</t>
@@ -175,7 +175,7 @@
     <t>INATIVO - 4.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.2 meses sem comprar</t>
+    <t>INATIVO - 39.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.9 meses sem comprar</t>
@@ -196,7 +196,7 @@
     <t>INATIVO - 28.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
+    <t>INATIVO - 37.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.9 meses sem comprar</t>
@@ -205,46 +205,49 @@
     <t>INATIVO - 17.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 9.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
+    <t>INATIVO - 27.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.3 meses sem comprar</t>
@@ -253,13 +256,10 @@
     <t>INATIVO - 12.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 32.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
+    <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.7 meses sem comprar</t>
@@ -274,19 +274,16 @@
     <t>INATIVO - 8.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
+    <t>INATIVO - 14.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 4.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.1 meses sem comprar</t>
@@ -295,13 +292,13 @@
     <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
+    <t>INATIVO - 15.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
+    <t>INATIVO - 32.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.6 meses sem comprar</t>
@@ -310,16 +307,10 @@
     <t>INATIVO - 22.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 24.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
+    <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.7 meses sem comprar</t>
@@ -557,6 +548,9 @@
   </si>
   <si>
     <t>MARCIO FARIAS</t>
+  </si>
+  <si>
+    <t>VICTOR PIMENTEL</t>
   </si>
   <si>
     <t>JOÃO FERREIRA</t>
@@ -1054,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1128,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1169,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1204,7 +1198,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1239,7 +1233,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1274,7 +1268,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1309,7 +1303,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1344,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1379,7 +1373,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1414,7 +1408,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1449,7 +1443,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1484,7 +1478,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1519,7 +1513,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1554,7 +1548,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1589,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1624,7 +1618,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1659,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1694,7 +1688,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1729,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1764,7 +1758,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1799,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1834,7 +1828,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1869,7 +1863,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1904,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1939,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1974,7 +1968,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2009,7 +2003,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2044,7 +2038,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2079,7 +2073,7 @@
         <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2114,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2149,7 +2143,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2184,7 +2178,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2219,7 +2213,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2254,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2289,7 +2283,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2324,7 +2318,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2359,7 +2353,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2394,7 +2388,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2429,7 +2423,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2464,7 +2458,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2499,7 +2493,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2534,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2569,7 +2563,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2604,7 +2598,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2639,7 +2633,7 @@
         <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2674,7 +2668,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2706,10 +2700,10 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2741,10 +2735,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,10 +2770,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2814,7 +2808,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2849,7 +2843,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2884,7 +2878,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2919,7 +2913,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2954,7 +2948,7 @@
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2989,7 +2983,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3024,7 +3018,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,10 +3050,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3094,7 +3088,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3129,7 +3123,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3164,7 +3158,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3199,7 +3193,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3234,7 +3228,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,10 +3260,10 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,10 +3295,10 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3339,7 +3333,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3371,10 +3365,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,10 +3400,10 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3444,7 +3438,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3479,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3514,7 +3508,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3549,7 +3543,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,10 +3575,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3619,7 +3613,7 @@
         <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3654,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3689,82 +3683,82 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B76" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C76" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F76" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H76" s="4">
-        <v>45652.6609375</v>
+        <v>45819.81947916667</v>
       </c>
       <c r="I76" s="4">
-        <v>45742.6609375</v>
+        <v>46002.81947916667</v>
       </c>
       <c r="J76" t="s">
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B77" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D77" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H77" s="4">
-        <v>45719.70832175926</v>
+        <v>45652.6609375</v>
       </c>
       <c r="I77" s="4">
-        <v>45811.70832175926</v>
+        <v>45742.6609375</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B78" s="1">
         <v>0.08</v>
@@ -3776,106 +3770,106 @@
         <v>0.17</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1">
         <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H78" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I78" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B79" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C79" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H79" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>43</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I79" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J79" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B80" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C80" s="1">
         <v>0.17</v>
       </c>
       <c r="D80" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E80">
         <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H80" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I80" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B81" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D81" s="1">
         <v>0.17</v>
@@ -3887,374 +3881,374 @@
         <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H81" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>43</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I81" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B82" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H82" s="4">
-        <v>45659.8877199074</v>
-      </c>
-      <c r="I82" s="4">
-        <v>45779.8877199074</v>
+        <v>45050.52782407407</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B83" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C83" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E83">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H83" s="4">
-        <v>45183.80324074074</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>43</v>
+        <v>45659.8877199074</v>
+      </c>
+      <c r="I83" s="4">
+        <v>45779.8877199074</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B84" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D84" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H84" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B85" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H85" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E86">
         <v>6</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B87" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F87" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H87" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B88" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C88" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D88" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H88" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B89" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D89" s="1">
         <v>0.17</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1">
         <v>0.17</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H89" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B90" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H90" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K90" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B91" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C91" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <v>0.33</v>
       </c>
       <c r="E91">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F91" s="1">
         <v>0.33</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H91" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B92" s="1">
         <v>0.25</v>
@@ -4266,205 +4260,205 @@
         <v>0.33</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1">
         <v>0.33</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H92" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B93" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H93" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H94" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B95" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H95" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B96" s="1">
         <v>0.17</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D96" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G96" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
       <c r="H96" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I96" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="K96" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B97" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H97" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>43</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I97" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="K97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B98" s="1">
         <v>0.08</v>
@@ -4476,170 +4470,170 @@
         <v>0.17</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1">
         <v>0.17</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H98" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B99" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C99" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F99" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H99" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B100" s="1">
         <v>0.42</v>
       </c>
       <c r="C100" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D100" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E100">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F100" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H100" s="4">
-        <v>45610.87215277777</v>
+        <v>44719.5262962963</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J100" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B101" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D101" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F101" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H101" s="4">
-        <v>45400.57224537037</v>
+        <v>45610.87215277777</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J101" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B102" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F102" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H102" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K102" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B103" s="1">
         <v>0.08</v>
@@ -4657,24 +4651,24 @@
         <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H103" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B104" s="1">
         <v>0.08</v>
@@ -4692,24 +4686,24 @@
         <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H104" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K104" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B105" s="1">
         <v>0.08</v>
@@ -4727,24 +4721,24 @@
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H105" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B106" s="1">
         <v>0.08</v>
@@ -4762,229 +4756,264 @@
         <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H106" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B107" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F107" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H107" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B108" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E108">
         <v>7</v>
       </c>
       <c r="F108" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H108" s="4">
-        <v>45624.57778935185</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B109" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F109" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H109" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I109" s="4">
-        <v>45868.45422453704</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="K109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B110" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C110" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
         <v>0.33</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1">
         <v>0.33</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H110" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>43</v>
+        <v>45807.45422453704</v>
+      </c>
+      <c r="I110" s="4">
+        <v>45868.45422453704</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="K110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B111" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C111" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E111">
-        <v>15463</v>
+        <v>7</v>
       </c>
       <c r="F111" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H111" s="4">
-        <v>45818.70194444444</v>
-      </c>
-      <c r="I111" s="4">
-        <v>45819.70194444444</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="K111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B112" s="1">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="C112" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D112" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>15520</v>
       </c>
       <c r="F112" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H112" s="4">
-        <v>45800.43686342592</v>
+        <v>45819.65416666667</v>
       </c>
       <c r="I112" s="4">
-        <v>45861.43686342592</v>
+        <v>45820.65416666667</v>
       </c>
       <c r="J112" t="s">
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>28502</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="4">
+        <v>45800.43686342592</v>
+      </c>
+      <c r="I113" s="4">
+        <v>45861.43686342592</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
   <si>
     <t>id_cliente</t>
   </si>
@@ -148,7 +148,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.7 meses sem comprar</t>
+    <t>INATIVO - 54.8 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -163,7 +163,7 @@
     <t>INATIVO - 15.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
+    <t>INATIVO - 17.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.5 meses sem comprar</t>
@@ -181,13 +181,13 @@
     <t>INATIVO - 1.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
+    <t>INATIVO - 36.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
+    <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.7 meses sem comprar</t>
@@ -199,127 +199,124 @@
     <t>INATIVO - 37.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
+    <t>INATIVO - 22.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.3 meses sem comprar</t>
+    <t>INATIVO - 24.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
+    <t>INATIVO - 24.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.8 meses sem comprar</t>
@@ -328,7 +325,7 @@
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
+    <t>INATIVO - 8.0 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1128,7 +1125,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1163,7 +1160,7 @@
         <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1198,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1233,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1268,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1303,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1338,7 +1335,7 @@
         <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1373,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1408,7 +1405,7 @@
         <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1443,7 +1440,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1478,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1513,7 +1510,7 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1548,7 +1545,7 @@
         <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1583,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1618,7 +1615,7 @@
         <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1653,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1688,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1723,7 +1720,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1758,7 +1755,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1793,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1828,7 +1825,7 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1863,7 +1860,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1898,7 +1895,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1933,7 +1930,7 @@
         <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1968,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2003,7 +2000,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2038,7 +2035,7 @@
         <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2073,7 +2070,7 @@
         <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2108,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2143,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2178,7 +2175,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2213,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2248,7 +2245,7 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2283,7 +2280,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2318,7 +2315,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2353,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2388,7 +2385,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2423,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2458,7 +2455,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2493,7 +2490,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2528,7 +2525,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2563,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2598,7 +2595,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2630,10 +2627,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2668,7 +2665,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2703,7 +2700,7 @@
         <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2738,7 +2735,7 @@
         <v>65</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2773,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2808,7 +2805,7 @@
         <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2843,7 +2840,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2878,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2913,7 +2910,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2930,7 +2927,7 @@
         <v>0.83</v>
       </c>
       <c r="E54">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1">
         <v>0.83</v>
@@ -2939,16 +2936,16 @@
         <v>22</v>
       </c>
       <c r="H54" s="4">
-        <v>45817.5108912037</v>
+        <v>45820.74543981482</v>
       </c>
       <c r="I54" s="4">
-        <v>45878.5108912037</v>
+        <v>45881.74543981482</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2983,7 +2980,7 @@
         <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3018,7 +3015,7 @@
         <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3053,7 +3050,7 @@
         <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3088,7 +3085,7 @@
         <v>45</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3123,7 +3120,7 @@
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3158,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3193,7 +3190,7 @@
         <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3228,7 +3225,7 @@
         <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3263,7 +3260,7 @@
         <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3298,7 +3295,7 @@
         <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3333,7 +3330,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3365,10 +3362,10 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3403,7 +3400,7 @@
         <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3438,7 +3435,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3473,7 +3470,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3508,7 +3505,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3543,7 +3540,7 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3578,7 +3575,7 @@
         <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3610,10 +3607,10 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3645,10 +3642,10 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3683,7 +3680,7 @@
         <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3718,7 +3715,7 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3753,7 +3750,7 @@
         <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3788,7 +3785,7 @@
         <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3823,7 +3820,7 @@
         <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3855,10 +3852,10 @@
         <v>43</v>
       </c>
       <c r="J80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3893,7 +3890,7 @@
         <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3925,10 +3922,10 @@
         <v>43</v>
       </c>
       <c r="J82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3963,7 +3960,7 @@
         <v>45</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3995,10 +3992,10 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4030,10 +4027,10 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4065,10 +4062,10 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4100,10 +4097,10 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4135,10 +4132,10 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4170,10 +4167,10 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4205,10 +4202,10 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4240,10 +4237,10 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4275,10 +4272,10 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4310,10 +4307,10 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4345,10 +4342,10 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4380,10 +4377,10 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4415,10 +4412,10 @@
         <v>43</v>
       </c>
       <c r="J96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4453,7 +4450,7 @@
         <v>45</v>
       </c>
       <c r="K97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4485,10 +4482,10 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4520,10 +4517,10 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4558,7 +4555,7 @@
         <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4593,7 +4590,7 @@
         <v>65</v>
       </c>
       <c r="K101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4625,10 +4622,10 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4660,10 +4657,10 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4695,10 +4692,10 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4730,10 +4727,10 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4765,10 +4762,10 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4800,10 +4797,10 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4835,10 +4832,10 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4870,10 +4867,10 @@
         <v>43</v>
       </c>
       <c r="J109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4908,7 +4905,7 @@
         <v>45</v>
       </c>
       <c r="K110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4940,10 +4937,10 @@
         <v>43</v>
       </c>
       <c r="J111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4960,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15520</v>
+        <v>15572</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4969,16 +4966,16 @@
         <v>42</v>
       </c>
       <c r="H112" s="4">
-        <v>45819.65416666667</v>
+        <v>45820.6597800926</v>
       </c>
       <c r="I112" s="4">
-        <v>45820.65416666667</v>
+        <v>45821.6597800926</v>
       </c>
       <c r="J112" t="s">
         <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5013,7 +5010,7 @@
         <v>45</v>
       </c>
       <c r="K113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
   <si>
     <t>id_cliente</t>
   </si>
@@ -121,6 +121,9 @@
     <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
+    <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
     <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.5 meses sem comprar</t>
+    <t>INATIVO - 35.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.3 meses sem comprar</t>
@@ -166,141 +169,153 @@
     <t>INATIVO - 17.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 36.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
   </si>
   <si>
@@ -319,10 +334,10 @@
     <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
+    <t>INATIVO - 20.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.0 meses sem comprar</t>
@@ -1119,13 +1134,13 @@
         <v>44177.71849537037</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1157,10 +1172,10 @@
         <v>45947.7384837963</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1189,13 +1204,13 @@
         <v>44754.55429398148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1224,13 +1239,13 @@
         <v>45391.81866898148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1259,13 +1274,13 @@
         <v>45346.52106481481</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1297,10 +1312,10 @@
         <v>45921.79557870371</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,13 +1344,13 @@
         <v>45296.48252314814</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1364,13 +1379,13 @@
         <v>45264.65059027778</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1399,13 +1414,13 @@
         <v>45759.4741087963</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,13 +1449,13 @@
         <v>45687.55204861111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1472,10 +1487,10 @@
         <v>45914.77471064815</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1507,10 +1522,10 @@
         <v>45868.49570601852</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1542,10 +1557,10 @@
         <v>45969.68853009259</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1574,13 +1589,13 @@
         <v>44641.65599537037</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1609,13 +1624,13 @@
         <v>45762.86993055556</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1644,13 +1659,13 @@
         <v>44714.74429398148</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1679,13 +1694,13 @@
         <v>45495.49012731481</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1714,13 +1729,13 @@
         <v>45377.70813657407</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1749,13 +1764,13 @@
         <v>44718.4404050926</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1787,10 +1802,10 @@
         <v>45872.81461805556</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1819,13 +1834,13 @@
         <v>44961.73466435185</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1854,13 +1869,13 @@
         <v>44701.78590277778</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1892,10 +1907,10 @@
         <v>45837.49481481482</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1924,13 +1939,13 @@
         <v>45251.62864583333</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1962,10 +1977,10 @@
         <v>45943.7065625</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1994,13 +2009,13 @@
         <v>45308.67796296296</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2032,10 +2047,10 @@
         <v>45807.80199074074</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2064,13 +2079,13 @@
         <v>45631.70384259259</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2099,13 +2114,13 @@
         <v>45161.61640046296</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2134,13 +2149,13 @@
         <v>45609.73203703704</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2172,10 +2187,10 @@
         <v>45941.87094907407</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2204,13 +2219,13 @@
         <v>45398.78646990741</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2239,13 +2254,13 @@
         <v>45033.63594907407</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2277,10 +2292,10 @@
         <v>45824.61438657407</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2312,10 +2327,10 @@
         <v>45862.7884375</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2344,13 +2359,13 @@
         <v>44869.73755787037</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,13 +2394,13 @@
         <v>44805.5749074074</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2414,13 +2429,13 @@
         <v>45461.68362268519</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2452,10 +2467,10 @@
         <v>45939.73247685185</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2484,13 +2499,13 @@
         <v>45612.75633101852</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2519,13 +2534,13 @@
         <v>45063.75159722222</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2557,10 +2572,10 @@
         <v>45742.57638888889</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2589,13 +2604,13 @@
         <v>45358.79960648148</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2624,13 +2639,13 @@
         <v>45761.78282407407</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2662,10 +2677,10 @@
         <v>45833.43402777778</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2694,13 +2709,13 @@
         <v>45633.75690972222</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2729,13 +2744,13 @@
         <v>45610.77327546296</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2764,13 +2779,13 @@
         <v>45537.70445601852</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
         <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2802,10 +2817,10 @@
         <v>45715.80520833333</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2837,10 +2852,10 @@
         <v>45836.66159722222</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2872,10 +2887,10 @@
         <v>45833.90405092593</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2907,10 +2922,10 @@
         <v>45816.74162037037</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2927,7 +2942,7 @@
         <v>0.83</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1">
         <v>0.83</v>
@@ -2936,16 +2951,16 @@
         <v>22</v>
       </c>
       <c r="H54" s="4">
-        <v>45820.74543981482</v>
+        <v>45821.43618055555</v>
       </c>
       <c r="I54" s="4">
-        <v>45881.74543981482</v>
+        <v>45882.43618055555</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2977,10 +2992,10 @@
         <v>45816.75708333333</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3012,10 +3027,10 @@
         <v>45717.7587037037</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3044,13 +3059,13 @@
         <v>45479.50534722222</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
         <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3082,10 +3097,10 @@
         <v>45736.67063657408</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3117,10 +3132,10 @@
         <v>45794.76335648148</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3131,31 +3146,31 @@
         <v>0.33</v>
       </c>
       <c r="C60" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D60" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60" s="4">
-        <v>45804.76493055555</v>
+        <v>45821.79486111111</v>
       </c>
       <c r="I60" s="4">
-        <v>45865.76493055555</v>
+        <v>45851.79486111111</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3187,10 +3202,10 @@
         <v>45838.40917824074</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3213,7 +3228,7 @@
         <v>0.75</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62" s="4">
         <v>45787.61539351852</v>
@@ -3222,10 +3237,10 @@
         <v>45802.61539351852</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3254,13 +3269,13 @@
         <v>45001.60172453704</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
         <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3289,13 +3304,13 @@
         <v>45180.49822916667</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
         <v>78</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3327,10 +3342,10 @@
         <v>45847.94976851852</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3353,19 +3368,19 @@
         <v>0.75</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66" s="4">
         <v>45459.62275462963</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3394,13 +3409,13 @@
         <v>45496.43895833333</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3432,10 +3447,10 @@
         <v>45809.69037037037</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3467,10 +3482,10 @@
         <v>45845.91634259259</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3493,7 +3508,7 @@
         <v>0.67</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H70" s="4">
         <v>45744.94902777778</v>
@@ -3502,10 +3517,10 @@
         <v>45759.94902777778</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3537,10 +3552,10 @@
         <v>45967.73548611111</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3569,13 +3584,13 @@
         <v>45180.50475694444</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s">
         <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3604,13 +3619,13 @@
         <v>44834.48420138889</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3639,13 +3654,13 @@
         <v>45604.84116898148</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3677,10 +3692,10 @@
         <v>45852.89126157408</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3712,10 +3727,10 @@
         <v>46002.81947916667</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3747,10 +3762,10 @@
         <v>45742.6609375</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3782,10 +3797,10 @@
         <v>45811.70832175926</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3817,10 +3832,10 @@
         <v>45957.87510416667</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3849,13 +3864,13 @@
         <v>45168.76292824074</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3887,10 +3902,10 @@
         <v>45844.75921296296</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3913,19 +3928,19 @@
         <v>0.17</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82" s="4">
         <v>45050.52782407407</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3957,10 +3972,10 @@
         <v>45779.8877199074</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3983,19 +3998,19 @@
         <v>0.67</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H84" s="4">
         <v>45183.80324074074</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4024,13 +4039,13 @@
         <v>45552.70295138889</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4053,19 +4068,19 @@
         <v>0.17</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86" s="4">
         <v>45385.58152777778</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4088,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H87" s="4">
         <v>45689.63208333333</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4129,13 +4144,13 @@
         <v>45484.48732638889</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4164,13 +4179,13 @@
         <v>45502.45310185185</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4199,13 +4214,13 @@
         <v>45384.49722222222</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4234,13 +4249,13 @@
         <v>44834.46898148148</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4269,13 +4284,13 @@
         <v>45425.69083333333</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4304,13 +4319,13 @@
         <v>45275.73480324074</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4339,13 +4354,13 @@
         <v>45344.40892361111</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4368,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H95" s="4">
         <v>45261.46980324074</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4409,13 +4424,13 @@
         <v>44848.60068287037</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4447,10 +4462,10 @@
         <v>45917.50590277778</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4473,19 +4488,19 @@
         <v>0.17</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H98" s="4">
         <v>45770.68174768519</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4514,13 +4529,13 @@
         <v>45150.6974537037</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4549,13 +4564,13 @@
         <v>44719.5262962963</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4578,19 +4593,19 @@
         <v>0.67</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H101" s="4">
         <v>45610.87215277777</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K101" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4619,13 +4634,13 @@
         <v>45400.57224537037</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4654,13 +4669,13 @@
         <v>45089.61954861111</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4689,13 +4704,13 @@
         <v>45521.44858796296</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4724,13 +4739,13 @@
         <v>45077.72989583333</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4759,13 +4774,13 @@
         <v>45365.7433912037</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4794,13 +4809,13 @@
         <v>45638.64440972222</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4829,13 +4844,13 @@
         <v>45195.77344907408</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4864,13 +4879,13 @@
         <v>45624.57778935185</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4902,10 +4917,10 @@
         <v>45868.45422453704</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4934,13 +4949,13 @@
         <v>45581.72913194444</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4957,25 +4972,25 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15572</v>
+        <v>15618</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45820.6597800926</v>
+        <v>45821.69030092593</v>
       </c>
       <c r="I112" s="4">
-        <v>45821.6597800926</v>
+        <v>45822.69030092593</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5007,10 +5022,10 @@
         <v>45861.43686342592</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="218">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,7 +151,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.8 meses sem comprar</t>
+    <t>INATIVO - 54.9 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -160,13 +160,13 @@
     <t>INATIVO - 35.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.6 meses sem comprar</t>
@@ -178,160 +178,154 @@
     <t>INATIVO - 4.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.3 meses sem comprar</t>
+    <t>INATIVO - 39.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 36.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
+    <t>INATIVO - 28.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
+    <t>INATIVO - 24.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.9 meses sem comprar</t>
@@ -340,7 +334,7 @@
     <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
+    <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1140,7 +1134,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1175,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1210,7 +1204,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1245,7 +1239,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1350,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1420,7 +1414,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1455,7 +1449,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1490,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1501,31 +1495,31 @@
         <v>0.33</v>
       </c>
       <c r="C13" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D13" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="4">
-        <v>45807.49570601852</v>
+        <v>45822.75996527778</v>
       </c>
       <c r="I13" s="4">
-        <v>45868.49570601852</v>
+        <v>45883.75996527778</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1560,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1595,7 +1589,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1630,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1665,7 +1659,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1700,7 +1694,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1735,7 +1729,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1770,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1805,7 +1799,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1840,7 +1834,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1875,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1910,7 +1904,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1945,7 +1939,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1980,7 +1974,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2015,7 +2009,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2050,7 +2044,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2085,7 +2079,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2120,7 +2114,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2155,7 +2149,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2190,7 +2184,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2225,7 +2219,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2260,7 +2254,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2288,14 +2282,14 @@
       <c r="H35" s="4">
         <v>45642.61438657407</v>
       </c>
-      <c r="I35" s="4">
-        <v>45824.61438657407</v>
+      <c r="I35" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2330,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2362,10 +2356,10 @@
         <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2397,10 +2391,10 @@
         <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2432,10 +2426,10 @@
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2470,7 +2464,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2502,10 +2496,10 @@
         <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2537,10 +2531,10 @@
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2575,7 +2569,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2607,10 +2601,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2642,10 +2636,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2680,7 +2674,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2712,10 +2706,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2747,10 +2741,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2782,10 +2776,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2820,7 +2814,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2855,7 +2849,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2872,7 +2866,7 @@
         <v>0.83</v>
       </c>
       <c r="E52">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1">
         <v>0.83</v>
@@ -2881,16 +2875,16 @@
         <v>32</v>
       </c>
       <c r="H52" s="4">
-        <v>45818.90405092593</v>
+        <v>45822.90015046296</v>
       </c>
       <c r="I52" s="4">
-        <v>45833.90405092593</v>
+        <v>45837.90015046296</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2925,7 +2919,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2960,7 +2954,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2995,7 +2989,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3030,7 +3024,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3062,10 +3056,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3100,7 +3094,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3135,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3170,7 +3164,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3205,7 +3199,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3240,7 +3234,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3272,10 +3266,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3307,10 +3301,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3327,7 +3321,7 @@
         <v>0.33</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" s="1">
         <v>0.33</v>
@@ -3336,16 +3330,16 @@
         <v>31</v>
       </c>
       <c r="H65" s="4">
-        <v>45817.94976851852</v>
+        <v>45821.95559027778</v>
       </c>
       <c r="I65" s="4">
-        <v>45847.94976851852</v>
+        <v>45851.95559027778</v>
       </c>
       <c r="J65" t="s">
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3377,10 +3371,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3412,10 +3406,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3450,7 +3444,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3485,7 +3479,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3520,7 +3514,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3555,7 +3549,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3587,10 +3581,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3625,7 +3619,7 @@
         <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3660,7 +3654,7 @@
         <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3695,7 +3689,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3730,7 +3724,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3765,7 +3759,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3800,7 +3794,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3835,7 +3829,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3870,7 +3864,7 @@
         <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3905,7 +3899,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3940,7 +3934,7 @@
         <v>84</v>
       </c>
       <c r="K82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3975,7 +3969,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4010,7 +4004,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4045,7 +4039,7 @@
         <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4080,7 +4074,7 @@
         <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4112,10 +4106,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4147,10 +4141,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4182,10 +4176,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4217,10 +4211,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4255,7 +4249,7 @@
         <v>81</v>
       </c>
       <c r="K91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4287,10 +4281,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4322,10 +4316,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4357,10 +4351,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4392,10 +4386,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4427,10 +4421,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4465,7 +4459,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4497,10 +4491,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4532,10 +4526,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4567,10 +4561,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4602,10 +4596,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4637,10 +4631,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4672,10 +4666,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4707,10 +4701,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4742,10 +4736,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4777,10 +4771,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4812,10 +4806,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4847,10 +4841,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4882,10 +4876,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4920,7 +4914,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4952,10 +4946,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4990,7 +4984,7 @@
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5025,7 +5019,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,7 +157,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.6 meses sem comprar</t>
+    <t>INATIVO - 35.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.4 meses sem comprar</t>
@@ -169,123 +169,132 @@
     <t>INATIVO - 17.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 36.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 11.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 10.7 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
   </si>
   <si>
@@ -295,7 +304,7 @@
     <t>INATIVO - 16.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
+    <t>INATIVO - 18.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 32.5 meses sem comprar</t>
@@ -304,7 +313,7 @@
     <t>INATIVO - 1.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
+    <t>INATIVO - 22.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.8 meses sem comprar</t>
@@ -328,10 +337,10 @@
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
+    <t>INATIVO - 21.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.1 meses sem comprar</t>
@@ -1134,7 +1143,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1169,7 +1178,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1204,7 +1213,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1239,7 +1248,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1274,7 +1283,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1309,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1344,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1379,7 +1388,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1414,7 +1423,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1449,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1484,7 +1493,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1519,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1554,7 +1563,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1589,7 +1598,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1624,7 +1633,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1659,7 +1668,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1694,7 +1703,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1729,7 +1738,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1764,7 +1773,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1799,7 +1808,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1834,7 +1843,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1869,7 +1878,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1904,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1939,7 +1948,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1974,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2009,7 +2018,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2044,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2079,7 +2088,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2114,7 +2123,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2149,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2184,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2219,7 +2228,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2254,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2289,7 +2298,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2324,7 +2333,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2359,7 +2368,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2394,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2429,7 +2438,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2464,7 +2473,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2499,7 +2508,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2534,7 +2543,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2569,7 +2578,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2604,7 +2613,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2636,10 +2645,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2674,7 +2683,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2706,10 +2715,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2741,10 +2750,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,10 +2785,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2814,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2849,7 +2858,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2884,7 +2893,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2892,16 +2901,16 @@
         <v>5985</v>
       </c>
       <c r="B53" s="1">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C53" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="1">
         <v>0.83</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F53" s="1">
         <v>0.83</v>
@@ -2910,16 +2919,16 @@
         <v>32</v>
       </c>
       <c r="H53" s="4">
-        <v>45801.74162037037</v>
+        <v>45824.58818287037</v>
       </c>
       <c r="I53" s="4">
-        <v>45816.74162037037</v>
+        <v>45839.58818287037</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2954,7 +2963,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2989,7 +2998,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3024,7 +3033,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,10 +3065,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3094,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3129,7 +3138,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3164,7 +3173,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3199,7 +3208,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3234,7 +3243,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,10 +3275,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,10 +3310,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3339,7 +3348,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3371,10 +3380,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,10 +3415,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3444,7 +3453,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3479,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3514,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3549,7 +3558,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,10 +3590,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3616,10 +3625,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3651,10 +3660,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3689,7 +3698,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3724,7 +3733,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3759,7 +3768,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3794,7 +3803,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3829,7 +3838,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3861,10 +3870,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3899,7 +3908,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3931,10 +3940,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3969,7 +3978,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4001,10 +4010,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4036,10 +4045,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4071,10 +4080,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4106,10 +4115,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4141,10 +4150,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4176,10 +4185,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4211,10 +4220,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4246,10 +4255,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4281,10 +4290,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,10 +4325,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4351,10 +4360,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4386,10 +4395,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4421,10 +4430,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K96" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4459,7 +4468,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4491,10 +4500,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4526,10 +4535,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4561,10 +4570,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4596,10 +4605,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K101" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4631,10 +4640,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4666,10 +4675,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4701,10 +4710,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4736,10 +4745,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4771,10 +4780,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4806,10 +4815,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4841,10 +4850,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4876,10 +4885,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4914,7 +4923,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4946,10 +4955,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4957,16 +4966,16 @@
         <v>28458</v>
       </c>
       <c r="B112" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15618</v>
+        <v>15682</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4975,16 +4984,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45821.69030092593</v>
+        <v>45824.67550925926</v>
       </c>
       <c r="I112" s="4">
-        <v>45822.69030092593</v>
+        <v>45825.67550925926</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5019,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="217">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,10 +160,10 @@
     <t>INATIVO - 35.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.6 meses sem comprar</t>
@@ -178,7 +178,7 @@
     <t>INATIVO - 4.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.4 meses sem comprar</t>
+    <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.1 meses sem comprar</t>
@@ -199,7 +199,7 @@
     <t>INATIVO - 28.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.4 meses sem comprar</t>
+    <t>INATIVO - 37.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.1 meses sem comprar</t>
@@ -208,49 +208,52 @@
     <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
+    <t>INATIVO - 27.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.5 meses sem comprar</t>
@@ -259,13 +262,10 @@
     <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
+    <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.9 meses sem comprar</t>
@@ -280,19 +280,16 @@
     <t>INATIVO - 9.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
+    <t>INATIVO - 14.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 4.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.3 meses sem comprar</t>
@@ -301,25 +298,16 @@
     <t>INATIVO - 18.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 18.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.5 meses sem comprar</t>
+    <t>INATIVO - 32.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 1.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.5 meses sem comprar</t>
@@ -1143,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1178,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1213,7 +1201,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1248,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1283,7 +1271,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1318,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1353,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1388,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1423,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1458,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1493,7 +1481,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1528,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1563,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1598,7 +1586,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1633,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1668,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1703,7 +1691,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1738,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1773,7 +1761,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1808,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1843,7 +1831,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1878,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1913,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1948,7 +1936,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1983,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2018,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2053,7 +2041,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2088,7 +2076,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2123,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2158,7 +2146,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2193,7 +2181,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2228,7 +2216,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2263,7 +2251,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2298,7 +2286,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2333,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2368,7 +2356,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2403,7 +2391,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2438,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2473,7 +2461,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2508,7 +2496,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2543,7 +2531,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2578,7 +2566,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2613,7 +2601,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2648,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2683,7 +2671,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2715,10 +2703,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2750,10 +2738,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2785,10 +2773,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2823,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2858,7 +2846,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2893,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2928,7 +2916,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2963,7 +2951,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2998,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3033,7 +3021,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3065,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3103,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3138,7 +3126,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3173,7 +3161,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3190,7 +3178,7 @@
         <v>0.5</v>
       </c>
       <c r="E61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1">
         <v>0.5</v>
@@ -3199,16 +3187,16 @@
         <v>31</v>
       </c>
       <c r="H61" s="4">
-        <v>45807.40917824074</v>
+        <v>45825.79979166666</v>
       </c>
       <c r="I61" s="4">
-        <v>45838.40917824074</v>
+        <v>45855.79979166666</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3243,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3275,10 +3263,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3310,10 +3298,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3348,7 +3336,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3380,10 +3368,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3415,10 +3403,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3453,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3488,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3523,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3558,7 +3546,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3590,10 +3578,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3628,7 +3616,7 @@
         <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3663,7 +3651,7 @@
         <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3698,7 +3686,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3733,7 +3721,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3768,7 +3756,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3803,7 +3791,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3838,7 +3826,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3873,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3908,7 +3896,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3943,7 +3931,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3978,7 +3966,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4013,7 +4001,7 @@
         <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4048,7 +4036,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4083,7 +4071,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4118,7 +4106,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4153,7 +4141,7 @@
         <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4188,7 +4176,7 @@
         <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4220,10 +4208,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4258,7 +4246,7 @@
         <v>82</v>
       </c>
       <c r="K91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4290,10 +4278,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4325,10 +4313,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4360,10 +4348,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4395,10 +4383,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4430,10 +4418,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4468,7 +4456,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4500,10 +4488,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4535,10 +4523,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4570,10 +4558,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="K100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4605,10 +4593,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4640,10 +4628,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4675,10 +4663,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K103" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4710,10 +4698,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4745,10 +4733,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K105" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4780,10 +4768,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4815,10 +4803,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K107" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4850,10 +4838,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4885,10 +4873,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4923,7 +4911,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4955,10 +4943,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4975,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15682</v>
+        <v>15729</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4984,16 +4972,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45824.67550925926</v>
+        <v>45825.66503472222</v>
       </c>
       <c r="I112" s="4">
-        <v>45825.67550925926</v>
+        <v>45826.66503472222</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5028,7 +5016,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="220">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,13 +151,13 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 54.9 meses sem comprar</t>
+    <t>INATIVO - 55.0 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.7 meses sem comprar</t>
+    <t>INATIVO - 35.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.5 meses sem comprar</t>
@@ -166,172 +166,181 @@
     <t>INATIVO - 16.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 31.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 36.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
+    <t>INATIVO - 24.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1131,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1166,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1236,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1271,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1306,7 +1315,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1341,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1411,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,7 +1455,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1481,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1516,7 +1525,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1551,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1586,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1621,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1656,7 +1665,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1691,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1726,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1761,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1796,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1831,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1866,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1901,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1936,7 +1945,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1971,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2006,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2041,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2076,7 +2085,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2111,7 +2120,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2146,7 +2155,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2181,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2216,7 +2225,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2251,7 +2260,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2286,7 +2295,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2321,7 +2330,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2356,7 +2365,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,7 +2400,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2426,7 +2435,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2461,7 +2470,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2496,7 +2505,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2531,7 +2540,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2566,7 +2575,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2601,7 +2610,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2636,7 +2645,7 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2671,7 +2680,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2703,10 +2712,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2738,10 +2747,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2773,10 +2782,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2811,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2846,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2881,7 +2890,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2916,7 +2925,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2924,34 +2933,34 @@
         <v>5986</v>
       </c>
       <c r="B54" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C54" s="1">
         <v>0.67</v>
       </c>
       <c r="D54" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="4">
-        <v>45821.43618055555</v>
+        <v>45826.58416666667</v>
       </c>
       <c r="I54" s="4">
-        <v>45882.43618055555</v>
+        <v>45887.58416666667</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2986,7 +2995,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3021,7 +3030,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3053,10 +3062,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3091,7 +3100,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3126,7 +3135,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3161,7 +3170,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3196,7 +3205,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3231,7 +3240,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3263,10 +3272,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3298,10 +3307,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3336,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3368,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3406,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3441,7 +3450,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3476,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3511,7 +3520,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3546,7 +3555,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3578,10 +3587,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3613,10 +3622,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3648,10 +3657,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3686,7 +3695,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3721,7 +3730,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3756,7 +3765,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3791,7 +3800,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3826,7 +3835,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3858,10 +3867,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3896,7 +3905,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3928,10 +3937,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3966,7 +3975,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3998,10 +4007,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4033,10 +4042,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4068,10 +4077,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4103,10 +4112,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4138,10 +4147,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4173,10 +4182,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4208,10 +4217,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4243,10 +4252,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4281,7 +4290,7 @@
         <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4316,7 +4325,7 @@
         <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4348,10 +4357,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4383,10 +4392,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4418,10 +4427,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4456,7 +4465,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4488,10 +4497,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4523,10 +4532,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4558,10 +4567,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4593,10 +4602,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K101" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4628,10 +4637,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4663,10 +4672,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4698,10 +4707,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4733,10 +4742,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4768,10 +4777,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4803,10 +4812,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4838,10 +4847,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4873,10 +4882,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4911,7 +4920,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4943,10 +4952,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4963,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15729</v>
+        <v>15833</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4972,16 +4981,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45825.66503472222</v>
+        <v>45827.64092592592</v>
       </c>
       <c r="I112" s="4">
-        <v>45826.66503472222</v>
+        <v>45828.64092592592</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5016,7 +5025,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,196 +151,199 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.0 meses sem comprar</t>
+    <t>INATIVO - 55.1 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
+    <t>INATIVO - 35.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 31.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 1.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 36.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
+    <t>INATIVO - 24.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1140,7 +1143,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1175,7 +1178,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1210,7 +1213,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1245,7 +1248,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,7 +1283,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1350,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,7 +1388,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1420,7 +1423,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1455,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1490,7 +1493,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1525,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1560,7 +1563,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1595,7 +1598,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1630,7 +1633,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1665,7 +1668,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1700,7 +1703,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1735,7 +1738,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1770,7 +1773,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1805,7 +1808,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1840,7 +1843,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1875,7 +1878,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1910,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1945,7 +1948,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1980,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2015,7 +2018,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2050,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2085,7 +2088,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2120,7 +2123,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2155,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2190,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2225,7 +2228,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2260,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2295,7 +2298,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2330,7 +2333,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2365,7 +2368,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2400,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2435,7 +2438,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2470,7 +2473,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2505,7 +2508,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2540,7 +2543,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2575,7 +2578,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2610,7 +2613,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2645,7 +2648,7 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2680,7 +2683,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2715,7 +2718,7 @@
         <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2750,7 +2753,7 @@
         <v>73</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2785,7 +2788,7 @@
         <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2820,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2855,7 +2858,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2890,7 +2893,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2925,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2960,7 +2963,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2995,7 +2998,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3030,7 +3033,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3065,7 +3068,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3100,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3135,7 +3138,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3170,7 +3173,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3205,7 +3208,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3240,7 +3243,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3275,7 +3278,7 @@
         <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3310,7 +3313,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3345,7 +3348,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3380,7 +3383,7 @@
         <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3412,10 +3415,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="K67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3450,7 +3453,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3485,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3520,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3555,7 +3558,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3590,7 +3593,7 @@
         <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3622,10 +3625,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3657,10 +3660,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3695,7 +3698,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3730,7 +3733,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3765,7 +3768,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3800,7 +3803,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3835,7 +3838,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3867,10 +3870,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3905,7 +3908,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3937,10 +3940,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3975,7 +3978,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4007,10 +4010,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4042,10 +4045,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4077,10 +4080,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4112,10 +4115,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4147,10 +4150,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4182,10 +4185,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4217,10 +4220,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4252,10 +4255,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4287,10 +4290,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4322,10 +4325,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4357,10 +4360,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4392,10 +4395,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4427,10 +4430,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4465,7 +4468,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4497,10 +4500,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4532,10 +4535,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4567,10 +4570,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4605,7 +4608,7 @@
         <v>73</v>
       </c>
       <c r="K101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4637,10 +4640,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4672,10 +4675,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4707,10 +4710,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4742,10 +4745,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4777,10 +4780,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4812,10 +4815,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4847,10 +4850,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4882,10 +4885,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4920,7 +4923,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4952,10 +4955,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4972,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15833</v>
+        <v>15870</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4981,16 +4984,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45827.64092592592</v>
+        <v>45828.67952546296</v>
       </c>
       <c r="I112" s="4">
-        <v>45828.64092592592</v>
+        <v>45829.67952546296</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5025,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="217">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,10 +160,10 @@
     <t>INATIVO - 35.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.8 meses sem comprar</t>
@@ -178,7 +178,7 @@
     <t>INATIVO - 4.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.6 meses sem comprar</t>
+    <t>INATIVO - 39.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.3 meses sem comprar</t>
@@ -199,7 +199,7 @@
     <t>INATIVO - 29.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
+    <t>INATIVO - 37.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.3 meses sem comprar</t>
@@ -208,49 +208,52 @@
     <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 9.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
+    <t>INATIVO - 27.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.7 meses sem comprar</t>
@@ -259,13 +262,10 @@
     <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
+    <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.1 meses sem comprar</t>
@@ -280,19 +280,16 @@
     <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
+    <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 4.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.5 meses sem comprar</t>
@@ -301,25 +298,16 @@
     <t>INATIVO - 18.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 19.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
+    <t>INATIVO - 32.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 24.7 meses sem comprar</t>
@@ -1143,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1178,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1213,7 +1201,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1248,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1283,7 +1271,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1318,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1353,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1388,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1423,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1458,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1493,7 +1481,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1528,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1563,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1598,7 +1586,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1633,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1668,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1703,7 +1691,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1738,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1773,7 +1761,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1808,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1843,7 +1831,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1878,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1913,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1948,7 +1936,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1983,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2018,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2053,7 +2041,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2088,7 +2076,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2123,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2158,7 +2146,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2193,7 +2181,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2228,7 +2216,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2263,7 +2251,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2298,7 +2286,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2333,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2368,7 +2356,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2403,7 +2391,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2438,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2473,7 +2461,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2508,7 +2496,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2543,7 +2531,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2578,7 +2566,7 @@
         <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2613,7 +2601,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2648,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2683,7 +2671,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2715,10 +2703,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2750,10 +2738,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2785,10 +2773,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2823,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2858,7 +2846,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2893,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2928,7 +2916,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2963,7 +2951,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2998,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3033,7 +3021,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3065,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3103,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3138,7 +3126,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3173,7 +3161,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3208,7 +3196,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3243,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3275,10 +3263,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3310,10 +3298,10 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3348,7 +3336,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3380,10 +3368,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3415,10 +3403,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3453,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3488,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3523,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3558,7 +3546,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3590,10 +3578,10 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3628,7 +3616,7 @@
         <v>82</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3663,7 +3651,7 @@
         <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3698,7 +3686,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3733,7 +3721,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3768,7 +3756,7 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3803,7 +3791,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3838,7 +3826,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3873,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3908,7 +3896,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3943,7 +3931,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3978,7 +3966,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4013,7 +4001,7 @@
         <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4048,7 +4036,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4083,7 +4071,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4118,7 +4106,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4153,7 +4141,7 @@
         <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4188,7 +4176,7 @@
         <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4220,10 +4208,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4258,7 +4246,7 @@
         <v>82</v>
       </c>
       <c r="K91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4290,10 +4278,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4325,10 +4313,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4360,10 +4348,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4395,10 +4383,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4430,10 +4418,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4468,7 +4456,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4500,10 +4488,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4535,10 +4523,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4570,10 +4558,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="K100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4605,10 +4593,10 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4640,10 +4628,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4675,10 +4663,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K103" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4710,10 +4698,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4745,10 +4733,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K105" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4780,10 +4768,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4815,10 +4803,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K107" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4850,10 +4838,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4885,10 +4873,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4923,7 +4911,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4955,10 +4943,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4975,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15870</v>
+        <v>15944</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4984,16 +4972,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45828.67952546296</v>
+        <v>45831.64700231481</v>
       </c>
       <c r="I112" s="4">
-        <v>45829.67952546296</v>
+        <v>45832.64700231481</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5028,7 +5016,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
   <si>
     <t>id_cliente</t>
   </si>
@@ -151,7 +151,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.1 meses sem comprar</t>
+    <t>INATIVO - 55.2 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -166,7 +166,7 @@
     <t>INATIVO - 16.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
+    <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.9 meses sem comprar</t>
@@ -184,13 +184,13 @@
     <t>INATIVO - 2.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
+    <t>INATIVO - 37.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
+    <t>INATIVO - 15.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.1 meses sem comprar</t>
@@ -202,127 +202,127 @@
     <t>INATIVO - 37.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
+    <t>INATIVO - 22.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 14.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
+    <t>INATIVO - 24.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.2 meses sem comprar</t>
@@ -331,7 +331,7 @@
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
+    <t>INATIVO - 8.4 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2633,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
         <v>149</v>
@@ -3368,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s">
         <v>169</v>
@@ -3613,7 +3613,7 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s">
         <v>176</v>
@@ -3648,7 +3648,7 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
         <v>177</v>
@@ -3858,7 +3858,7 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
         <v>183</v>
@@ -3928,7 +3928,7 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s">
         <v>185</v>
@@ -3998,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
         <v>187</v>
@@ -4033,7 +4033,7 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s">
         <v>188</v>
@@ -4068,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K86" t="s">
         <v>189</v>
@@ -4103,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s">
         <v>190</v>
@@ -4138,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s">
         <v>191</v>
@@ -4173,7 +4173,7 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s">
         <v>192</v>
@@ -4208,7 +4208,7 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s">
         <v>193</v>
@@ -4243,7 +4243,7 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s">
         <v>194</v>
@@ -4278,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s">
         <v>195</v>
@@ -4313,7 +4313,7 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
         <v>196</v>
@@ -4348,7 +4348,7 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
         <v>197</v>
@@ -4383,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
         <v>198</v>
@@ -4418,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K96" t="s">
         <v>199</v>
@@ -4488,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s">
         <v>201</v>
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s">
         <v>202</v>
@@ -4569,31 +4569,31 @@
         <v>26329</v>
       </c>
       <c r="B101" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C101" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F101" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H101" s="4">
-        <v>45610.87215277777</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>44</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I101" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J101" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K101" t="s">
         <v>204</v>
@@ -4628,7 +4628,7 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s">
         <v>205</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15944</v>
+        <v>15990</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4972,10 +4972,10 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45831.64700231481</v>
+        <v>45832.65212962963</v>
       </c>
       <c r="I112" s="4">
-        <v>45832.64700231481</v>
+        <v>45833.65212962963</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="222">
   <si>
     <t>id_cliente</t>
   </si>
@@ -157,7 +157,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 35.9 meses sem comprar</t>
+    <t>INATIVO - 36.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.7 meses sem comprar</t>
@@ -169,144 +169,159 @@
     <t>INATIVO - 17.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 4.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.4 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.4 meses sem comprar</t>
   </si>
   <si>
@@ -325,10 +340,10 @@
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 21.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.4 meses sem comprar</t>
@@ -1131,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1166,7 +1181,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1236,7 +1251,7 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1271,7 +1286,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1306,7 +1321,7 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1341,7 +1356,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1411,7 +1426,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1446,7 +1461,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1481,7 +1496,7 @@
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1516,7 +1531,7 @@
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1551,7 +1566,7 @@
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1586,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1621,7 +1636,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1656,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1691,7 +1706,7 @@
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1726,7 +1741,7 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1761,7 +1776,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1796,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1831,7 +1846,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1866,7 +1881,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1901,7 +1916,7 @@
         <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1936,7 +1951,7 @@
         <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1971,7 +1986,7 @@
         <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2006,7 +2021,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2041,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2076,7 +2091,7 @@
         <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2111,7 +2126,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2146,7 +2161,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2181,7 +2196,7 @@
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2216,7 +2231,7 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2251,7 +2266,7 @@
         <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2286,7 +2301,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2321,7 +2336,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2356,7 +2371,7 @@
         <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,7 +2406,7 @@
         <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2426,7 +2441,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2461,7 +2476,7 @@
         <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2496,7 +2511,7 @@
         <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2531,7 +2546,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2559,14 +2574,14 @@
       <c r="H43" s="4">
         <v>45652.57638888889</v>
       </c>
-      <c r="I43" s="4">
-        <v>45742.57638888889</v>
+      <c r="I43" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2598,10 +2613,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2633,10 +2648,10 @@
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2671,7 +2686,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2703,10 +2718,10 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2738,10 +2753,10 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2776,7 +2791,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2811,7 +2826,7 @@
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2846,7 +2861,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2881,7 +2896,7 @@
         <v>46</v>
       </c>
       <c r="K52" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2916,7 +2931,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2951,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2986,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3021,7 +3036,7 @@
         <v>46</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3056,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="K57" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3091,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3126,7 +3141,7 @@
         <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3161,7 +3176,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3196,7 +3211,7 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3231,7 +3246,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3266,7 +3281,7 @@
         <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3301,7 +3316,7 @@
         <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3336,7 +3351,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3368,10 +3383,10 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3403,10 +3418,10 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3441,7 +3456,7 @@
         <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3476,7 +3491,7 @@
         <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3511,7 +3526,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3546,7 +3561,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3581,7 +3596,7 @@
         <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3613,10 +3628,10 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3648,10 +3663,10 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3686,7 +3701,7 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3721,7 +3736,7 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3749,14 +3764,14 @@
       <c r="H77" s="4">
         <v>45652.6609375</v>
       </c>
-      <c r="I77" s="4">
-        <v>45742.6609375</v>
+      <c r="I77" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3791,7 +3806,7 @@
         <v>46</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3826,7 +3841,7 @@
         <v>46</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3858,10 +3873,10 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3896,7 +3911,7 @@
         <v>46</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3928,10 +3943,10 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3966,7 +3981,7 @@
         <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3998,10 +4013,10 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4033,10 +4048,10 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4068,10 +4083,10 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4103,10 +4118,10 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4138,10 +4153,10 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4173,10 +4188,10 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4208,10 +4223,10 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4243,10 +4258,10 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4278,10 +4293,10 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4313,10 +4328,10 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4348,10 +4363,10 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4383,10 +4398,10 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K95" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4418,10 +4433,10 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K96" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4456,7 +4471,7 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4488,10 +4503,10 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4523,10 +4538,10 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4558,10 +4573,10 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="K100" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4596,7 +4611,7 @@
         <v>46</v>
       </c>
       <c r="K101" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4628,10 +4643,10 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4663,10 +4678,10 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K103" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4698,10 +4713,10 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4733,10 +4748,10 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K105" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4768,10 +4783,10 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4803,10 +4818,10 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4838,10 +4853,10 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4873,10 +4888,10 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K109" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4911,7 +4926,7 @@
         <v>46</v>
       </c>
       <c r="K110" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4943,10 +4958,10 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K111" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4963,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>15990</v>
+        <v>16022</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4972,16 +4987,16 @@
         <v>43</v>
       </c>
       <c r="H112" s="4">
-        <v>45832.65212962963</v>
+        <v>45833.63037037037</v>
       </c>
       <c r="I112" s="4">
-        <v>45833.65212962963</v>
+        <v>45834.63037037037</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5016,7 +5031,7 @@
         <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
   <si>
     <t>id_cliente</t>
   </si>
@@ -79,6 +79,9 @@
     <t>1x a cada 10 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
+    <t>1x a cada 11 meses - irregular</t>
+  </si>
+  <si>
     <t>1x a cada 5 meses - irregular</t>
   </si>
   <si>
@@ -160,10 +163,10 @@
     <t>INATIVO - 36.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 17.9 meses sem comprar</t>
@@ -178,7 +181,10 @@
     <t>INATIVO - 4.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.7 meses sem comprar</t>
+    <t>INATIVO - 0.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.4 meses sem comprar</t>
@@ -199,7 +205,7 @@
     <t>INATIVO - 29.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
+    <t>INATIVO - 37.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.4 meses sem comprar</t>
@@ -208,52 +214,58 @@
     <t>INATIVO - 17.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
+    <t>INATIVO - 9.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
+    <t>INATIVO - 27.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.8 meses sem comprar</t>
@@ -262,13 +274,10 @@
     <t>INATIVO - 12.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.2 meses sem comprar</t>
@@ -283,19 +292,16 @@
     <t>INATIVO - 9.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
+    <t>INATIVO - 15.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 4.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.6 meses sem comprar</t>
@@ -304,13 +310,13 @@
     <t>INATIVO - 18.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
+    <t>INATIVO - 16.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
+    <t>INATIVO - 32.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.1 meses sem comprar</t>
@@ -319,12 +325,6 @@
     <t>INATIVO - 22.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 24.8 meses sem comprar</t>
   </si>
   <si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>JAYÇARA REBELLO DA SILVA</t>
+  </si>
+  <si>
+    <t>JOAO LEONEL DE BRITO FEITOSA</t>
   </si>
   <si>
     <t>ANDREIA LEITE</t>
@@ -1066,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,10 +1143,10 @@
         <v>44177.71849537037</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>111</v>
@@ -1178,7 +1181,7 @@
         <v>45947.7384837963</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -1210,10 +1213,10 @@
         <v>44754.55429398148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>113</v>
@@ -1245,10 +1248,10 @@
         <v>45391.81866898148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>114</v>
@@ -1280,10 +1283,10 @@
         <v>45346.52106481481</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>115</v>
@@ -1318,7 +1321,7 @@
         <v>45921.79557870371</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
         <v>116</v>
@@ -1350,10 +1353,10 @@
         <v>45296.48252314814</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>117</v>
@@ -1385,10 +1388,10 @@
         <v>45264.65059027778</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
         <v>118</v>
@@ -1420,10 +1423,10 @@
         <v>45759.4741087963</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
         <v>119</v>
@@ -1455,10 +1458,10 @@
         <v>45687.55204861111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
         <v>120</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>2030</v>
+        <v>1937</v>
       </c>
       <c r="B12" s="1">
         <v>0.08</v>
@@ -1478,7 +1481,7 @@
         <v>0.17</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <v>0.17</v>
@@ -1487,13 +1490,13 @@
         <v>21</v>
       </c>
       <c r="H12" s="4">
-        <v>45761.77471064815</v>
-      </c>
-      <c r="I12" s="4">
-        <v>45914.77471064815</v>
+        <v>45834.72760416667</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
         <v>121</v>
@@ -1501,34 +1504,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>2095</v>
+        <v>2030</v>
       </c>
       <c r="B13" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C13" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="4">
-        <v>45822.75996527778</v>
+        <v>45761.77471064815</v>
       </c>
       <c r="I13" s="4">
-        <v>45883.75996527778</v>
+        <v>45914.77471064815</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
         <v>122</v>
@@ -1536,34 +1539,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>2192</v>
+        <v>2095</v>
       </c>
       <c r="B14" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D14" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4">
-        <v>45785.68853009259</v>
+        <v>45822.75996527778</v>
       </c>
       <c r="I14" s="4">
-        <v>45969.68853009259</v>
+        <v>45883.75996527778</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
         <v>123</v>
@@ -1571,34 +1574,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>2278</v>
+        <v>2192</v>
       </c>
       <c r="B15" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H15" s="4">
-        <v>44641.65599537037</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>45785.68853009259</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45969.68853009259</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
         <v>124</v>
@@ -1606,34 +1609,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>2338</v>
+        <v>2278</v>
       </c>
       <c r="B16" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D16" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4">
-        <v>45762.86993055556</v>
+        <v>44641.65599537037</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
         <v>125</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>2401</v>
+        <v>2338</v>
       </c>
       <c r="B17" s="1">
         <v>0.08</v>
@@ -1659,16 +1662,16 @@
         <v>0.17</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4">
-        <v>44714.74429398148</v>
+        <v>45762.86993055556</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
         <v>126</v>
@@ -1676,7 +1679,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>2475</v>
+        <v>2401</v>
       </c>
       <c r="B18" s="1">
         <v>0.08</v>
@@ -1688,22 +1691,22 @@
         <v>0.17</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>0.17</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4">
-        <v>45495.49012731481</v>
+        <v>44714.74429398148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
         <v>127</v>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>2502</v>
+        <v>2475</v>
       </c>
       <c r="B19" s="1">
         <v>0.08</v>
@@ -1729,16 +1732,16 @@
         <v>0.17</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="4">
-        <v>45377.70813657407</v>
+        <v>45495.49012731481</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
         <v>128</v>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>2525</v>
+        <v>2502</v>
       </c>
       <c r="B20" s="1">
         <v>0.08</v>
@@ -1758,22 +1761,22 @@
         <v>0.17</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1">
         <v>0.17</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H20" s="4">
-        <v>44718.4404050926</v>
+        <v>45377.70813657407</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>129</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>2610</v>
+        <v>2525</v>
       </c>
       <c r="B21" s="1">
         <v>0.08</v>
@@ -1793,22 +1796,22 @@
         <v>0.17</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1">
         <v>0.17</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4">
-        <v>45691.81461805556</v>
-      </c>
-      <c r="I21" s="4">
-        <v>45872.81461805556</v>
+        <v>44718.4404050926</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
         <v>130</v>
@@ -1816,7 +1819,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>2797</v>
+        <v>2610</v>
       </c>
       <c r="B22" s="1">
         <v>0.08</v>
@@ -1828,7 +1831,7 @@
         <v>0.17</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1">
         <v>0.17</v>
@@ -1837,13 +1840,13 @@
         <v>25</v>
       </c>
       <c r="H22" s="4">
-        <v>44961.73466435185</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>45691.81461805556</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45872.81461805556</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
         <v>131</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>2866</v>
+        <v>2797</v>
       </c>
       <c r="B23" s="1">
         <v>0.08</v>
@@ -1863,22 +1866,22 @@
         <v>0.17</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
         <v>0.17</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H23" s="4">
-        <v>44701.78590277778</v>
+        <v>44961.73466435185</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
         <v>132</v>
@@ -1886,34 +1889,34 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>2936</v>
+        <v>2866</v>
       </c>
       <c r="B24" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C24" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0.17</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
         <v>0.17</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="4">
-        <v>45686.49481481482</v>
-      </c>
-      <c r="I24" s="4">
-        <v>45837.49481481482</v>
+        <v>44701.78590277778</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
         <v>133</v>
@@ -1921,34 +1924,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>3034</v>
+        <v>2936</v>
       </c>
       <c r="B25" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D25" s="1">
         <v>0.17</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
         <v>0.17</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" s="4">
-        <v>45251.62864583333</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>45686.49481481482</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45837.49481481482</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
         <v>134</v>
@@ -1956,34 +1959,34 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>3355</v>
+        <v>3034</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C26" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H26" s="4">
-        <v>45790.7065625</v>
-      </c>
-      <c r="I26" s="4">
-        <v>45943.7065625</v>
+        <v>45251.62864583333</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>135</v>
@@ -1991,34 +1994,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="B27" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D27" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H27" s="4">
-        <v>45308.67796296296</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>45790.7065625</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45943.7065625</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
         <v>136</v>
@@ -2026,34 +2029,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="B28" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C28" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>0.17</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
         <v>0.17</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H28" s="4">
-        <v>45656.80199074074</v>
-      </c>
-      <c r="I28" s="4">
-        <v>45807.80199074074</v>
+        <v>45308.67796296296</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
         <v>137</v>
@@ -2061,34 +2064,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>3645</v>
+        <v>3361</v>
       </c>
       <c r="B29" s="1">
         <v>0.17</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D29" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H29" s="4">
-        <v>45631.70384259259</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>45656.80199074074</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45807.80199074074</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
         <v>138</v>
@@ -2096,34 +2099,34 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>3653</v>
+        <v>3645</v>
       </c>
       <c r="B30" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="4">
-        <v>45161.61640046296</v>
+        <v>45631.70384259259</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
         <v>139</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>3664</v>
+        <v>3653</v>
       </c>
       <c r="B31" s="1">
         <v>0.08</v>
@@ -2149,16 +2152,16 @@
         <v>0.17</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H31" s="4">
-        <v>45609.73203703704</v>
+        <v>45161.61640046296</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s">
         <v>140</v>
@@ -2166,34 +2169,34 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>3710</v>
+        <v>3664</v>
       </c>
       <c r="B32" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="4">
-        <v>45758.87094907407</v>
-      </c>
-      <c r="I32" s="4">
-        <v>45941.87094907407</v>
+        <v>45609.73203703704</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
         <v>141</v>
@@ -2201,34 +2204,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B33" s="1">
         <v>0.17</v>
       </c>
       <c r="C33" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" s="4">
-        <v>45398.78646990741</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>44</v>
+        <v>45758.87094907407</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45941.87094907407</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>142</v>
@@ -2236,34 +2239,34 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>3799</v>
+        <v>3711</v>
       </c>
       <c r="B34" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D34" s="1">
         <v>0.17</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <v>0.17</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H34" s="4">
-        <v>45033.63594907407</v>
+        <v>45398.78646990741</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
         <v>143</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>3926</v>
+        <v>3799</v>
       </c>
       <c r="B35" s="1">
         <v>0.08</v>
@@ -2289,16 +2292,16 @@
         <v>0.17</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H35" s="4">
-        <v>45642.61438657407</v>
+        <v>45033.63594907407</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
         <v>144</v>
@@ -2306,34 +2309,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>4165</v>
+        <v>3926</v>
       </c>
       <c r="B36" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C36" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H36" s="4">
-        <v>45801.7884375</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45862.7884375</v>
+        <v>45642.61438657407</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
         <v>145</v>
@@ -2341,34 +2344,34 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>4243</v>
+        <v>4165</v>
       </c>
       <c r="B37" s="1">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C37" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D37" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4">
-        <v>44869.73755787037</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>44</v>
+        <v>45801.7884375</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45862.7884375</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
         <v>146</v>
@@ -2376,34 +2379,34 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>4298</v>
+        <v>4243</v>
       </c>
       <c r="B38" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D38" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H38" s="4">
-        <v>44805.5749074074</v>
+        <v>44869.73755787037</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s">
         <v>147</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>4594</v>
+        <v>4298</v>
       </c>
       <c r="B39" s="1">
         <v>0.08</v>
@@ -2429,16 +2432,16 @@
         <v>0.17</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4">
-        <v>45461.68362268519</v>
+        <v>44805.5749074074</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s">
         <v>148</v>
@@ -2446,34 +2449,34 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>4683</v>
+        <v>4594</v>
       </c>
       <c r="B40" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C40" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
         <v>0.17</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
         <v>0.17</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4">
-        <v>45817.73247685185</v>
-      </c>
-      <c r="I40" s="4">
-        <v>45939.73247685185</v>
+        <v>45461.68362268519</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s">
         <v>149</v>
@@ -2481,34 +2484,34 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>5133</v>
+        <v>4683</v>
       </c>
       <c r="B41" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D41" s="1">
         <v>0.17</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1">
         <v>0.17</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H41" s="4">
-        <v>45612.75633101852</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>44</v>
+        <v>45817.73247685185</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45939.73247685185</v>
       </c>
       <c r="J41" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
         <v>150</v>
@@ -2516,34 +2519,34 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>5195</v>
+        <v>5133</v>
       </c>
       <c r="B42" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C42" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>0.17</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1">
         <v>0.17</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H42" s="4">
-        <v>45063.75159722222</v>
+        <v>45612.75633101852</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s">
         <v>151</v>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>5216</v>
+        <v>5195</v>
       </c>
       <c r="B43" s="1">
         <v>0.17</v>
@@ -2563,22 +2566,22 @@
         <v>0.17</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1">
         <v>0.17</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4">
-        <v>45652.57638888889</v>
+        <v>45063.75159722222</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
         <v>152</v>
@@ -2586,34 +2589,34 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>5262</v>
+        <v>5216</v>
       </c>
       <c r="B44" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C44" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D44" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E44">
         <v>7</v>
       </c>
       <c r="F44" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H44" s="4">
-        <v>45358.79960648148</v>
+        <v>45652.57638888889</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
         <v>153</v>
@@ -2621,34 +2624,34 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>5305</v>
+        <v>5262</v>
       </c>
       <c r="B45" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D45" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4">
-        <v>45761.78282407407</v>
+        <v>45358.79960648148</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s">
         <v>154</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>5322</v>
+        <v>5305</v>
       </c>
       <c r="B46" s="1">
         <v>0.08</v>
@@ -2668,22 +2671,22 @@
         <v>0.17</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
         <v>0.17</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H46" s="4">
-        <v>45741.43402777778</v>
-      </c>
-      <c r="I46" s="4">
-        <v>45833.43402777778</v>
+        <v>45761.78282407407</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
         <v>155</v>
@@ -2691,34 +2694,34 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>5464</v>
+        <v>5322</v>
       </c>
       <c r="B47" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C47" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H47" s="4">
-        <v>45633.75690972222</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>44</v>
+        <v>45741.43402777778</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45833.43402777778</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
         <v>156</v>
@@ -2726,34 +2729,34 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>5476</v>
+        <v>5464</v>
       </c>
       <c r="B48" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C48" s="1">
         <v>0.17</v>
       </c>
       <c r="D48" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="4">
-        <v>45610.77327546296</v>
+        <v>45633.75690972222</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s">
         <v>157</v>
@@ -2761,34 +2764,34 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>5611</v>
+        <v>5476</v>
       </c>
       <c r="B49" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C49" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D49" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H49" s="4">
-        <v>45537.70445601852</v>
+        <v>45610.77327546296</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K49" t="s">
         <v>158</v>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>5744</v>
+        <v>5611</v>
       </c>
       <c r="B50" s="1">
         <v>0.42</v>
@@ -2808,22 +2811,22 @@
         <v>0.5</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1">
         <v>0.5</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H50" s="4">
-        <v>45653.80520833333</v>
-      </c>
-      <c r="I50" s="4">
-        <v>45715.80520833333</v>
+        <v>45537.70445601852</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
         <v>159</v>
@@ -2831,34 +2834,34 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>5754</v>
+        <v>5744</v>
       </c>
       <c r="B51" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C51" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D51" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" s="4">
-        <v>45775.66159722222</v>
-      </c>
-      <c r="I51" s="4">
-        <v>45836.66159722222</v>
+        <v>45653.80520833333</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s">
         <v>160</v>
@@ -2866,34 +2869,34 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>5984</v>
+        <v>5754</v>
       </c>
       <c r="B52" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="C52" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D52" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="E52">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H52" s="4">
-        <v>45822.90015046296</v>
+        <v>45775.66159722222</v>
       </c>
       <c r="I52" s="4">
-        <v>45837.90015046296</v>
+        <v>45836.66159722222</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
         <v>161</v>
@@ -2901,34 +2904,34 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>5985</v>
+        <v>5984</v>
       </c>
       <c r="B53" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C53" s="1">
         <v>0.67</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.5</v>
       </c>
       <c r="D53" s="1">
         <v>0.83</v>
       </c>
       <c r="E53">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1">
         <v>0.83</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" s="4">
-        <v>45824.58818287037</v>
+        <v>45822.90015046296</v>
       </c>
       <c r="I53" s="4">
-        <v>45839.58818287037</v>
+        <v>45837.90015046296</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
         <v>162</v>
@@ -2936,34 +2939,34 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B54" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.83</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
       <c r="E54">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H54" s="4">
-        <v>45826.58416666667</v>
+        <v>45824.58818287037</v>
       </c>
       <c r="I54" s="4">
-        <v>45887.58416666667</v>
+        <v>45839.58818287037</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
         <v>163</v>
@@ -2971,34 +2974,34 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B55" s="1">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="C55" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D55" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H55" s="4">
-        <v>45801.75708333333</v>
+        <v>45826.58416666667</v>
       </c>
       <c r="I55" s="4">
-        <v>45816.75708333333</v>
+        <v>45887.58416666667</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
         <v>164</v>
@@ -3006,34 +3009,34 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>6136</v>
+        <v>5988</v>
       </c>
       <c r="B56" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
       </c>
       <c r="H56" s="4">
-        <v>45689.7587037037</v>
+        <v>45801.75708333333</v>
       </c>
       <c r="I56" s="4">
-        <v>45717.7587037037</v>
+        <v>45816.75708333333</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
         <v>165</v>
@@ -3041,34 +3044,34 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>6293</v>
+        <v>6136</v>
       </c>
       <c r="B57" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H57" s="4">
-        <v>45479.50534722222</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>44</v>
+        <v>45689.7587037037</v>
+      </c>
+      <c r="I57" s="4">
+        <v>45717.7587037037</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
         <v>166</v>
@@ -3076,34 +3079,34 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>6437</v>
+        <v>6293</v>
       </c>
       <c r="B58" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="C58" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E58">
         <v>7</v>
       </c>
       <c r="F58" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H58" s="4">
-        <v>45708.67063657408</v>
-      </c>
-      <c r="I58" s="4">
-        <v>45736.67063657408</v>
+        <v>45479.50534722222</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s">
         <v>167</v>
@@ -3111,34 +3114,34 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>6460</v>
+        <v>6437</v>
       </c>
       <c r="B59" s="1">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D59" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E59">
         <v>7</v>
       </c>
       <c r="F59" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H59" s="4">
-        <v>45733.76335648148</v>
+        <v>45708.67063657408</v>
       </c>
       <c r="I59" s="4">
-        <v>45794.76335648148</v>
+        <v>45736.67063657408</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
         <v>168</v>
@@ -3146,34 +3149,34 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>6539</v>
+        <v>6460</v>
       </c>
       <c r="B60" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C60" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
       </c>
       <c r="H60" s="4">
-        <v>45821.79486111111</v>
+        <v>45733.76335648148</v>
       </c>
       <c r="I60" s="4">
-        <v>45851.79486111111</v>
+        <v>45794.76335648148</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
         <v>169</v>
@@ -3181,34 +3184,34 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B61" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C61" s="1">
         <v>0.33</v>
       </c>
       <c r="D61" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E61">
         <v>8</v>
       </c>
       <c r="F61" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H61" s="4">
-        <v>45825.79979166666</v>
+        <v>45821.79486111111</v>
       </c>
       <c r="I61" s="4">
-        <v>45855.79979166666</v>
+        <v>45851.79486111111</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
         <v>170</v>
@@ -3216,34 +3219,34 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B62" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C62" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.5</v>
       </c>
-      <c r="D62" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E62">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H62" s="4">
-        <v>45787.61539351852</v>
+        <v>45825.79979166666</v>
       </c>
       <c r="I62" s="4">
-        <v>45802.61539351852</v>
+        <v>45855.79979166666</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
         <v>171</v>
@@ -3251,34 +3254,34 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B63" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C63" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D63" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H63" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>44</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I63" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
         <v>172</v>
@@ -3286,104 +3289,104 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B64" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D64" s="1">
         <v>0.17</v>
       </c>
       <c r="E64">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1">
         <v>0.17</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H64" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B65" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C65" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E65">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H65" s="4">
-        <v>45821.95559027778</v>
-      </c>
-      <c r="I65" s="4">
-        <v>45851.95559027778</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B66" s="1">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="C66" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D66" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F66" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H66" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>44</v>
+        <v>45821.95559027778</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45851.95559027778</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s">
         <v>174</v>
@@ -3391,34 +3394,34 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B67" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C67" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D67" s="1">
         <v>0.75</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
         <v>0.75</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H67" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s">
         <v>175</v>
@@ -3426,34 +3429,34 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B68" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C68" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D68" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H68" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I68" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K68" t="s">
         <v>176</v>
@@ -3461,34 +3464,34 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B69" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C69" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D69" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F69" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H69" s="4">
-        <v>45815.91634259259</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I69" s="4">
-        <v>45845.91634259259</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s">
         <v>177</v>
@@ -3496,34 +3499,34 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B70" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.5</v>
       </c>
-      <c r="C70" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.67</v>
-      </c>
       <c r="E70">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H70" s="4">
-        <v>45744.94902777778</v>
+        <v>45815.91634259259</v>
       </c>
       <c r="I70" s="4">
-        <v>45759.94902777778</v>
+        <v>45845.91634259259</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
         <v>178</v>
@@ -3531,34 +3534,34 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B71" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C71" s="1">
         <v>0.33</v>
       </c>
       <c r="D71" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E71">
         <v>11</v>
       </c>
       <c r="F71" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H71" s="4">
-        <v>45814.73548611111</v>
+        <v>45744.94902777778</v>
       </c>
       <c r="I71" s="4">
-        <v>45967.73548611111</v>
+        <v>45759.94902777778</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
         <v>179</v>
@@ -3566,34 +3569,34 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B72" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D72" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E72">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H72" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>44</v>
+        <v>45814.73548611111</v>
+      </c>
+      <c r="I72" s="4">
+        <v>45967.73548611111</v>
       </c>
       <c r="J72" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
         <v>180</v>
@@ -3601,34 +3604,34 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B73" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F73" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H73" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s">
         <v>181</v>
@@ -3636,34 +3639,34 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B74" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E74">
         <v>6</v>
       </c>
       <c r="F74" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H74" s="4">
-        <v>45604.84116898148</v>
+        <v>44834.48420138889</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
         <v>182</v>
@@ -3671,34 +3674,34 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B75" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H75" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I75" s="4">
-        <v>45852.89126157408</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s">
         <v>183</v>
@@ -3706,34 +3709,34 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="B76" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" s="4">
-        <v>45819.81947916667</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I76" s="4">
-        <v>46002.81947916667</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s">
         <v>184</v>
@@ -3741,34 +3744,34 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B77" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C77" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H77" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>44</v>
+        <v>45819.81947916667</v>
+      </c>
+      <c r="I77" s="4">
+        <v>46002.81947916667</v>
       </c>
       <c r="J77" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s">
         <v>185</v>
@@ -3776,34 +3779,34 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B78" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D78" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H78" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I78" s="4">
-        <v>45811.70832175926</v>
+        <v>45652.6609375</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s">
         <v>186</v>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B79" s="1">
         <v>0.08</v>
@@ -3823,22 +3826,22 @@
         <v>0.17</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F79" s="1">
         <v>0.17</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H79" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I79" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s">
         <v>187</v>
@@ -3846,34 +3849,34 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B80" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C80" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F80" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>44</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I80" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J80" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
         <v>188</v>
@@ -3881,34 +3884,34 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B81" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C81" s="1">
         <v>0.17</v>
       </c>
       <c r="D81" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E81">
         <v>6</v>
       </c>
       <c r="F81" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
       </c>
       <c r="H81" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I81" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s">
         <v>189</v>
@@ -3916,13 +3919,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B82" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D82" s="1">
         <v>0.17</v>
@@ -3934,16 +3937,16 @@
         <v>0.17</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H82" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>44</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I82" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J82" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K82" t="s">
         <v>190</v>
@@ -3951,34 +3954,34 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B83" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H83" s="4">
-        <v>45659.8877199074</v>
-      </c>
-      <c r="I83" s="4">
-        <v>45779.8877199074</v>
+        <v>45050.52782407407</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s">
         <v>191</v>
@@ -3986,34 +3989,34 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B84" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C84" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E84">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F84" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H84" s="4">
-        <v>45183.80324074074</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>44</v>
+        <v>45659.8877199074</v>
+      </c>
+      <c r="I84" s="4">
+        <v>45779.8877199074</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s">
         <v>192</v>
@@ -4021,34 +4024,34 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B85" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D85" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F85" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H85" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
         <v>193</v>
@@ -4056,34 +4059,34 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B86" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E86">
         <v>6</v>
       </c>
       <c r="F86" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H86" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s">
         <v>194</v>
@@ -4091,34 +4094,34 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E87">
         <v>6</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G87" t="s">
         <v>40</v>
       </c>
       <c r="H87" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s">
         <v>195</v>
@@ -4126,34 +4129,34 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B88" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F88" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H88" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
         <v>196</v>
@@ -4161,34 +4164,34 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B89" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C89" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D89" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
         <v>197</v>
@@ -4196,34 +4199,34 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B90" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D90" s="1">
         <v>0.17</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90" s="1">
         <v>0.17</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H90" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
         <v>198</v>
@@ -4231,34 +4234,34 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B91" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s">
         <v>199</v>
@@ -4266,34 +4269,34 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B92" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C92" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0.33</v>
       </c>
       <c r="E92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F92" s="1">
         <v>0.33</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H92" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s">
         <v>200</v>
@@ -4301,7 +4304,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B93" s="1">
         <v>0.25</v>
@@ -4313,22 +4316,22 @@
         <v>0.33</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1">
         <v>0.33</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H93" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K93" t="s">
         <v>201</v>
@@ -4336,34 +4339,34 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B94" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D94" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H94" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K94" t="s">
         <v>202</v>
@@ -4371,34 +4374,34 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H95" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K95" t="s">
         <v>203</v>
@@ -4406,34 +4409,34 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B96" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H96" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
         <v>204</v>
@@ -4441,34 +4444,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B97" s="1">
         <v>0.17</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D97" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G97" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
       <c r="H97" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I97" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="K97" t="s">
         <v>205</v>
@@ -4476,34 +4479,34 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B98" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H98" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>44</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I98" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s">
         <v>206</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B99" s="1">
         <v>0.08</v>
@@ -4523,22 +4526,22 @@
         <v>0.17</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1">
         <v>0.17</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H99" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
         <v>207</v>
@@ -4546,34 +4549,34 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B100" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C100" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E100">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F100" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H100" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K100" t="s">
         <v>208</v>
@@ -4581,34 +4584,34 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B101" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D101" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E101">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G101" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H101" s="4">
-        <v>45832.5594212963</v>
-      </c>
-      <c r="I101" s="4">
-        <v>45893.5594212963</v>
+        <v>44719.5262962963</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K101" t="s">
         <v>209</v>
@@ -4616,34 +4619,34 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B102" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H102" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>44</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I102" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s">
         <v>210</v>
@@ -4651,34 +4654,34 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B103" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F103" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H103" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K103" t="s">
         <v>211</v>
@@ -4686,7 +4689,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B104" s="1">
         <v>0.08</v>
@@ -4704,16 +4707,16 @@
         <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H104" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
         <v>212</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B105" s="1">
         <v>0.08</v>
@@ -4739,16 +4742,16 @@
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H105" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s">
         <v>213</v>
@@ -4756,7 +4759,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B106" s="1">
         <v>0.08</v>
@@ -4774,16 +4777,16 @@
         <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H106" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
         <v>214</v>
@@ -4791,7 +4794,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B107" s="1">
         <v>0.08</v>
@@ -4809,16 +4812,16 @@
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H107" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
         <v>215</v>
@@ -4826,34 +4829,34 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B108" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F108" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H108" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
         <v>216</v>
@@ -4861,34 +4864,34 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B109" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E109">
         <v>7</v>
       </c>
       <c r="F109" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H109" s="4">
-        <v>45624.57778935185</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
         <v>217</v>
@@ -4896,34 +4899,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B110" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F110" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H110" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I110" s="4">
-        <v>45868.45422453704</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
         <v>218</v>
@@ -4931,34 +4934,34 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B111" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C111" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
         <v>0.33</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1">
         <v>0.33</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H111" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>44</v>
+        <v>45807.45422453704</v>
+      </c>
+      <c r="I111" s="4">
+        <v>45868.45422453704</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s">
         <v>219</v>
@@ -4966,34 +4969,34 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B112" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E112">
-        <v>16022</v>
+        <v>7</v>
       </c>
       <c r="F112" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H112" s="4">
-        <v>45833.63037037037</v>
-      </c>
-      <c r="I112" s="4">
-        <v>45834.63037037037</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="K112" t="s">
         <v>220</v>
@@ -5001,37 +5004,72 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B113" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>16050</v>
       </c>
       <c r="F113" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H113" s="4">
-        <v>45800.43686342592</v>
+        <v>45835.43268518519</v>
       </c>
       <c r="I113" s="4">
-        <v>45861.43686342592</v>
+        <v>45836.43268518519</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>28502</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="4">
+        <v>45800.43686342592</v>
+      </c>
+      <c r="I114" s="4">
+        <v>45861.43686342592</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,199 +154,199 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.2 meses sem comprar</t>
+    <t>INATIVO - 55.3 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
+    <t>INATIVO - 36.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 4.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2087,11 +2087,11 @@
       <c r="H29" s="4">
         <v>45656.80199074074</v>
       </c>
-      <c r="I29" s="4">
-        <v>45807.80199074074</v>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
         <v>138</v>
@@ -2126,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
         <v>139</v>
@@ -2161,7 +2161,7 @@
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
         <v>140</v>
@@ -2196,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
         <v>141</v>
@@ -2266,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
         <v>143</v>
@@ -2301,7 +2301,7 @@
         <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s">
         <v>144</v>
@@ -2336,7 +2336,7 @@
         <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s">
         <v>145</v>
@@ -2406,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s">
         <v>147</v>
@@ -2441,7 +2441,7 @@
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
         <v>148</v>
@@ -2476,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s">
         <v>149</v>
@@ -2546,7 +2546,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s">
         <v>151</v>
@@ -2581,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s">
         <v>152</v>
@@ -2616,7 +2616,7 @@
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s">
         <v>153</v>
@@ -2651,7 +2651,7 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
         <v>154</v>
@@ -2756,7 +2756,7 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
         <v>157</v>
@@ -2791,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
         <v>158</v>
@@ -2826,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
         <v>159</v>
@@ -2861,7 +2861,7 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
         <v>160</v>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -2995,10 +2995,10 @@
         <v>23</v>
       </c>
       <c r="H55" s="4">
-        <v>45826.58416666667</v>
+        <v>45835.49334490741</v>
       </c>
       <c r="I55" s="4">
-        <v>45887.58416666667</v>
+        <v>45896.49334490741</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
@@ -3106,7 +3106,7 @@
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
         <v>167</v>
@@ -3316,7 +3316,7 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s">
         <v>173</v>
@@ -3351,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s">
         <v>147</v>
@@ -3421,7 +3421,7 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s">
         <v>175</v>
@@ -3631,7 +3631,7 @@
         <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
         <v>181</v>
@@ -3666,7 +3666,7 @@
         <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s">
         <v>182</v>
@@ -3701,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s">
         <v>183</v>
@@ -3806,7 +3806,7 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s">
         <v>186</v>
@@ -3911,7 +3911,7 @@
         <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s">
         <v>189</v>
@@ -3981,7 +3981,7 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s">
         <v>191</v>
@@ -4051,7 +4051,7 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s">
         <v>193</v>
@@ -4086,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s">
         <v>194</v>
@@ -4121,7 +4121,7 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s">
         <v>195</v>
@@ -4156,7 +4156,7 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s">
         <v>196</v>
@@ -4191,7 +4191,7 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
         <v>197</v>
@@ -4226,7 +4226,7 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
         <v>198</v>
@@ -4261,7 +4261,7 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K91" t="s">
         <v>199</v>
@@ -4296,7 +4296,7 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s">
         <v>200</v>
@@ -4331,7 +4331,7 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K93" t="s">
         <v>201</v>
@@ -4366,7 +4366,7 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s">
         <v>202</v>
@@ -4401,7 +4401,7 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s">
         <v>203</v>
@@ -4681,7 +4681,7 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K103" t="s">
         <v>211</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>16050</v>
+        <v>16089</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -5025,10 +5025,10 @@
         <v>44</v>
       </c>
       <c r="H113" s="4">
-        <v>45835.43268518519</v>
+        <v>45835.69950231481</v>
       </c>
       <c r="I113" s="4">
-        <v>45836.43268518519</v>
+        <v>45836.69950231481</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="222">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.3 meses sem comprar</t>
+    <t>INATIVO - 55.4 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 16.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
+    <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.1 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 2.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.4 meses sem comprar</t>
+    <t>INATIVO - 37.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
+    <t>INATIVO - 15.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.3 meses sem comprar</t>
@@ -208,136 +208,133 @@
     <t>INATIVO - 37.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
+    <t>INATIVO - 22.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 14.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 4.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 24.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
+    <t>INATIVO - 25.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.4 meses sem comprar</t>
@@ -346,7 +343,7 @@
     <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
+    <t>INATIVO - 8.6 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1149,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1184,7 +1181,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1219,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1254,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1289,7 +1286,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1324,7 +1321,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1359,7 +1356,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1394,7 +1391,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1429,7 +1426,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1464,7 +1461,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1499,7 +1496,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1534,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1569,7 +1566,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1604,7 +1601,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1639,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1674,7 +1671,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1709,7 +1706,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1744,7 +1741,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1779,7 +1776,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1814,7 +1811,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1849,7 +1846,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1884,7 +1881,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1919,7 +1916,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1954,7 +1951,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1989,7 +1986,7 @@
         <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1997,16 +1994,16 @@
         <v>3355</v>
       </c>
       <c r="B27" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C27" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D27" s="1">
         <v>0.33</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
         <v>0.33</v>
@@ -2015,16 +2012,16 @@
         <v>22</v>
       </c>
       <c r="H27" s="4">
-        <v>45790.7065625</v>
+        <v>45838.51734953704</v>
       </c>
       <c r="I27" s="4">
-        <v>45943.7065625</v>
+        <v>45991.51734953704</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2059,7 +2056,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2094,7 +2091,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2129,7 +2126,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2164,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2199,7 +2196,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2234,7 +2231,7 @@
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2269,7 +2266,7 @@
         <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2304,7 +2301,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2339,7 +2336,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2374,7 +2371,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2409,7 +2406,7 @@
         <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2444,7 +2441,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2479,7 +2476,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2514,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2549,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2584,7 +2581,7 @@
         <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2619,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2654,7 +2651,7 @@
         <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2686,10 +2683,10 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2724,7 +2721,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2759,7 +2756,7 @@
         <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2794,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2829,7 +2826,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2861,10 +2858,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2899,7 +2896,7 @@
         <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2907,16 +2904,16 @@
         <v>5984</v>
       </c>
       <c r="B53" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C53" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D53" s="1">
         <v>0.83</v>
       </c>
       <c r="E53">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53" s="1">
         <v>0.83</v>
@@ -2925,16 +2922,16 @@
         <v>33</v>
       </c>
       <c r="H53" s="4">
-        <v>45822.90015046296</v>
+        <v>45838.9169212963</v>
       </c>
       <c r="I53" s="4">
-        <v>45837.90015046296</v>
+        <v>45853.9169212963</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2969,7 +2966,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3004,7 +3001,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3039,7 +3036,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3074,7 +3071,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3106,10 +3103,10 @@
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3144,7 +3141,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3179,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3214,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3249,7 +3246,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3284,7 +3281,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3316,10 +3313,10 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3351,10 +3348,10 @@
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3389,7 +3386,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3421,10 +3418,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3459,7 +3456,7 @@
         <v>59</v>
       </c>
       <c r="K68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3494,7 +3491,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3529,7 +3526,7 @@
         <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3564,7 +3561,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3572,34 +3569,34 @@
         <v>19765</v>
       </c>
       <c r="B72" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C72" s="1">
         <v>0.33</v>
       </c>
       <c r="D72" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H72" s="4">
-        <v>45814.73548611111</v>
+        <v>45838.76614583333</v>
       </c>
       <c r="I72" s="4">
-        <v>45967.73548611111</v>
+        <v>45991.76614583333</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3631,10 +3628,10 @@
         <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3666,10 +3663,10 @@
         <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3701,10 +3698,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3739,7 +3736,7 @@
         <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3774,7 +3771,7 @@
         <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3809,7 +3806,7 @@
         <v>78</v>
       </c>
       <c r="K78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3844,7 +3841,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3879,7 +3876,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3911,10 +3908,10 @@
         <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3949,7 +3946,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3981,10 +3978,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4019,7 +4016,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4051,10 +4048,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4086,10 +4083,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4121,10 +4118,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4156,10 +4153,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4191,10 +4188,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4226,10 +4223,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4261,10 +4258,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4296,10 +4293,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4331,10 +4328,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4366,10 +4363,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4401,10 +4398,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4436,10 +4433,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4471,10 +4468,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4509,7 +4506,7 @@
         <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4541,10 +4538,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4576,10 +4573,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4614,7 +4611,7 @@
         <v>61</v>
       </c>
       <c r="K101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4649,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="K102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4681,10 +4678,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4716,10 +4713,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4751,10 +4748,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4786,10 +4783,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4821,10 +4818,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4856,10 +4853,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4891,10 +4888,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4926,10 +4923,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4964,7 +4961,7 @@
         <v>47</v>
       </c>
       <c r="K111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4996,10 +4993,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5016,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>16089</v>
+        <v>16144</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -5025,16 +5022,16 @@
         <v>44</v>
       </c>
       <c r="H113" s="4">
-        <v>45835.69950231481</v>
+        <v>45838.66743055556</v>
       </c>
       <c r="I113" s="4">
-        <v>45836.69950231481</v>
+        <v>45839.66743055556</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5069,7 +5066,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="226">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.1 meses sem comprar</t>
+    <t>INATIVO - 36.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.9 meses sem comprar</t>
@@ -172,153 +172,165 @@
     <t>INATIVO - 18.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 39.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 39.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.6 meses sem comprar</t>
   </si>
   <si>
@@ -337,10 +349,10 @@
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
+    <t>INATIVO - 21.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.6 meses sem comprar</t>
@@ -1146,7 +1158,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1181,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1216,7 +1228,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1251,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1286,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1321,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1356,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1391,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1426,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1461,7 +1473,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1496,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1531,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1566,7 +1578,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1601,7 +1613,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1636,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1671,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1706,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1741,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1776,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1811,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1846,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1881,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1916,7 +1928,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1951,7 +1963,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1986,7 +1998,7 @@
         <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2021,7 +2033,7 @@
         <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2056,7 +2068,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2091,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2126,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2161,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2196,7 +2208,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2231,7 +2243,7 @@
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2266,7 +2278,7 @@
         <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2301,7 +2313,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2336,7 +2348,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2371,7 +2383,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2406,7 +2418,7 @@
         <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2441,7 +2453,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2476,7 +2488,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2511,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2546,7 +2558,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2581,7 +2593,7 @@
         <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2616,7 +2628,7 @@
         <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2651,7 +2663,7 @@
         <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2683,10 +2695,10 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2721,7 +2733,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2753,10 +2765,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2788,10 +2800,10 @@
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2823,10 +2835,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2861,7 +2873,7 @@
         <v>78</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2896,7 +2908,7 @@
         <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2931,7 +2943,7 @@
         <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2966,7 +2978,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3001,7 +3013,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3009,16 +3021,16 @@
         <v>5988</v>
       </c>
       <c r="B56" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="C56" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D56" s="1">
         <v>0.5</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1">
         <v>0.5</v>
@@ -3027,16 +3039,16 @@
         <v>33</v>
       </c>
       <c r="H56" s="4">
-        <v>45801.75708333333</v>
+        <v>45839.8087037037</v>
       </c>
       <c r="I56" s="4">
-        <v>45816.75708333333</v>
+        <v>45854.8087037037</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3071,7 +3083,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3103,10 +3115,10 @@
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3141,7 +3153,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3176,7 +3188,7 @@
         <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3211,7 +3223,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3246,7 +3258,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3281,7 +3293,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3313,10 +3325,10 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3348,10 +3360,10 @@
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3386,7 +3398,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3418,10 +3430,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3453,10 +3465,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3491,7 +3503,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3526,7 +3538,7 @@
         <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3561,7 +3573,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3596,7 +3608,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3628,10 +3640,10 @@
         <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3663,10 +3675,10 @@
         <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3698,10 +3710,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3736,7 +3748,7 @@
         <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3771,7 +3783,7 @@
         <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3806,7 +3818,7 @@
         <v>78</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3841,7 +3853,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3876,7 +3888,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3908,10 +3920,10 @@
         <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3946,7 +3958,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3978,10 +3990,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4016,7 +4028,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4048,10 +4060,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4083,10 +4095,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4118,10 +4130,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4153,10 +4165,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4188,10 +4200,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4223,10 +4235,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4258,10 +4270,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4293,10 +4305,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4328,10 +4340,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K93" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4363,10 +4375,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4398,10 +4410,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4433,10 +4445,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4468,10 +4480,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K97" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4506,7 +4518,7 @@
         <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4538,10 +4550,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4573,10 +4585,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4608,10 +4620,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4646,7 +4658,7 @@
         <v>47</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4678,10 +4690,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4713,10 +4725,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4748,10 +4760,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K105" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4783,10 +4795,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4818,10 +4830,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4853,10 +4865,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4888,10 +4900,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K109" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4923,10 +4935,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4961,7 +4973,7 @@
         <v>47</v>
       </c>
       <c r="K111" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4993,10 +5005,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5013,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>16144</v>
+        <v>16193</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -5022,16 +5034,16 @@
         <v>44</v>
       </c>
       <c r="H113" s="4">
-        <v>45838.66743055556</v>
+        <v>45839.67291666667</v>
       </c>
       <c r="I113" s="4">
-        <v>45839.66743055556</v>
+        <v>45840.67291666667</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5066,7 +5078,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="224">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 36.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.1 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 39.9 meses sem comprar</t>
+    <t>INATIVO - 40.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.6 meses sem comprar</t>
@@ -205,7 +205,7 @@
     <t>INATIVO - 29.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
+    <t>INATIVO - 38.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.6 meses sem comprar</t>
@@ -217,52 +217,58 @@
     <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
+    <t>INATIVO - 10.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.9 meses sem comprar</t>
+    <t>INATIVO - 28.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.0 meses sem comprar</t>
@@ -271,13 +277,10 @@
     <t>INATIVO - 12.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
+    <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.4 meses sem comprar</t>
@@ -286,25 +289,25 @@
     <t>INATIVO - 26.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 21.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
+    <t>INATIVO - 15.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 13.8 meses sem comprar</t>
@@ -313,25 +316,16 @@
     <t>INATIVO - 18.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 19.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
+    <t>INATIVO - 33.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.0 meses sem comprar</t>
@@ -1158,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1193,7 +1187,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1228,7 +1222,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1263,7 +1257,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1298,7 +1292,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1333,7 +1327,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1368,7 +1362,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1403,7 +1397,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1438,7 +1432,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1473,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1508,7 +1502,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1543,7 +1537,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1578,7 +1572,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1613,7 +1607,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1648,7 +1642,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1683,7 +1677,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1718,7 +1712,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1753,7 +1747,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1788,7 +1782,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1823,7 +1817,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1858,7 +1852,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1893,7 +1887,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1928,7 +1922,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1963,7 +1957,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1998,7 +1992,7 @@
         <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2033,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2068,7 +2062,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2103,7 +2097,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2138,7 +2132,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2173,7 +2167,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2208,7 +2202,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2243,7 +2237,7 @@
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2278,7 +2272,7 @@
         <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2313,7 +2307,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2348,7 +2342,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2383,7 +2377,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2418,7 +2412,7 @@
         <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2453,7 +2447,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2488,7 +2482,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2523,7 +2517,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2558,7 +2552,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2593,7 +2587,7 @@
         <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2628,7 +2622,7 @@
         <v>78</v>
       </c>
       <c r="K44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2663,7 +2657,7 @@
         <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2698,7 +2692,7 @@
         <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2733,7 +2727,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2765,10 +2759,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2800,10 +2794,10 @@
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2835,10 +2829,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2870,10 +2864,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2908,7 +2902,7 @@
         <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,7 +2937,7 @@
         <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2978,7 +2972,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3013,7 +3007,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3048,7 +3042,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3083,7 +3077,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3115,10 +3109,10 @@
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3153,7 +3147,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,7 +3182,7 @@
         <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3223,7 +3217,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3258,7 +3252,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3293,7 +3287,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3325,10 +3319,10 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3360,10 +3354,10 @@
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3398,7 +3392,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3430,10 +3424,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3465,10 +3459,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="K68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3503,7 +3497,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3538,7 +3532,7 @@
         <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3573,7 +3567,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3608,7 +3602,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3640,10 +3634,10 @@
         <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3675,10 +3669,10 @@
         <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3710,10 +3704,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3748,7 +3742,7 @@
         <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3783,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3818,7 +3812,7 @@
         <v>78</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3853,7 +3847,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3888,7 +3882,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3920,10 +3914,10 @@
         <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3958,7 +3952,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3990,10 +3984,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4021,14 +4015,14 @@
       <c r="H84" s="4">
         <v>45659.8877199074</v>
       </c>
-      <c r="I84" s="4">
-        <v>45779.8877199074</v>
+      <c r="I84" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4060,10 +4054,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4095,10 +4089,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4130,10 +4124,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4165,10 +4159,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4200,10 +4194,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4235,10 +4229,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4270,10 +4264,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4305,10 +4299,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4340,10 +4334,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4375,10 +4369,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4410,10 +4404,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4448,7 +4442,7 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4483,7 +4477,7 @@
         <v>101</v>
       </c>
       <c r="K97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4518,7 +4512,7 @@
         <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4553,7 +4547,7 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4588,7 +4582,7 @@
         <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4620,10 +4614,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="K101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4658,7 +4652,7 @@
         <v>47</v>
       </c>
       <c r="K102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4690,10 +4684,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4725,10 +4719,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4760,10 +4754,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4795,10 +4789,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4830,10 +4824,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4865,10 +4859,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4900,10 +4894,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4935,10 +4929,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4973,7 +4967,7 @@
         <v>47</v>
       </c>
       <c r="K111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5005,10 +4999,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5016,16 +5010,16 @@
         <v>28458</v>
       </c>
       <c r="B113" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>16193</v>
+        <v>16239</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -5034,16 +5028,16 @@
         <v>44</v>
       </c>
       <c r="H113" s="4">
-        <v>45839.67291666667</v>
+        <v>45840.66871527778</v>
       </c>
       <c r="I113" s="4">
-        <v>45840.67291666667</v>
+        <v>45841.66871527778</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5078,7 +5072,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
   <si>
     <t>id_cliente</t>
   </si>
@@ -97,6 +97,9 @@
     <t>1x a cada 4 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
+    <t>1x a cada 9 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
     <t>1x a cada 5 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
-    <t>1x a cada 9 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
     <t>1x a cada 8 meses - irregular</t>
   </si>
   <si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.4 meses sem comprar</t>
+    <t>INATIVO - 55.5 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 16.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
+    <t>INATIVO - 18.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.2 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 2.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
+    <t>INATIVO - 37.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
+    <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.4 meses sem comprar</t>
@@ -208,139 +208,139 @@
     <t>INATIVO - 38.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.7 meses sem comprar</t>
+    <t>INATIVO - 0.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
+    <t>INATIVO - 25.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.5 meses sem comprar</t>
@@ -349,7 +349,7 @@
     <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
+    <t>INATIVO - 8.7 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>SANDRO ELI DO CARMO PINTO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DA SILVA CHAGAS</t>
   </si>
   <si>
     <t>JOSE DANIEL</t>
@@ -1072,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>2936</v>
+        <v>2908</v>
       </c>
       <c r="B25" s="1">
         <v>0.17</v>
@@ -1939,7 +1942,7 @@
         <v>0.17</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>0.17</v>
@@ -1948,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="H25" s="4">
-        <v>45686.49481481482</v>
-      </c>
-      <c r="I25" s="4">
-        <v>45837.49481481482</v>
+        <v>45841.79824074074</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>135</v>
@@ -1962,34 +1965,34 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>3034</v>
+        <v>2936</v>
       </c>
       <c r="B26" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D26" s="1">
         <v>0.17</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
         <v>0.17</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26" s="4">
-        <v>45251.62864583333</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>45686.49481481482</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45837.49481481482</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
         <v>136</v>
@@ -1997,34 +2000,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>3355</v>
+        <v>3034</v>
       </c>
       <c r="B27" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C27" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H27" s="4">
-        <v>45838.51734953704</v>
-      </c>
-      <c r="I27" s="4">
-        <v>45991.51734953704</v>
+        <v>45251.62864583333</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s">
         <v>137</v>
@@ -2032,34 +2035,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="B28" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D28" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H28" s="4">
-        <v>45308.67796296296</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>45838.51734953704</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45991.51734953704</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
         <v>138</v>
@@ -2067,28 +2070,28 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="B29" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C29" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>0.17</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>0.17</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H29" s="4">
-        <v>45656.80199074074</v>
+        <v>45308.67796296296</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>45</v>
@@ -2102,28 +2105,28 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>3645</v>
+        <v>3361</v>
       </c>
       <c r="B30" s="1">
         <v>0.17</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D30" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" s="4">
-        <v>45631.70384259259</v>
+        <v>45656.80199074074</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>45</v>
@@ -2137,28 +2140,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>3653</v>
+        <v>3645</v>
       </c>
       <c r="B31" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="4">
-        <v>45161.61640046296</v>
+        <v>45631.70384259259</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>45</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>3664</v>
+        <v>3653</v>
       </c>
       <c r="B32" s="1">
         <v>0.08</v>
@@ -2190,10 +2193,10 @@
         <v>0.17</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4">
-        <v>45609.73203703704</v>
+        <v>45161.61640046296</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>45</v>
@@ -2207,34 +2210,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>3710</v>
+        <v>3664</v>
       </c>
       <c r="B33" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="4">
-        <v>45758.87094907407</v>
-      </c>
-      <c r="I33" s="4">
-        <v>45941.87094907407</v>
+        <v>45609.73203703704</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
         <v>143</v>
@@ -2242,34 +2245,34 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B34" s="1">
         <v>0.17</v>
       </c>
       <c r="C34" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" s="4">
-        <v>45398.78646990741</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>45758.87094907407</v>
+      </c>
+      <c r="I34" s="4">
+        <v>45941.87094907407</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
         <v>144</v>
@@ -2277,28 +2280,28 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>3799</v>
+        <v>3711</v>
       </c>
       <c r="B35" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D35" s="1">
         <v>0.17</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1">
         <v>0.17</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H35" s="4">
-        <v>45033.63594907407</v>
+        <v>45398.78646990741</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>45</v>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>3926</v>
+        <v>3799</v>
       </c>
       <c r="B36" s="1">
         <v>0.08</v>
@@ -2330,10 +2333,10 @@
         <v>0.17</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4">
-        <v>45642.61438657407</v>
+        <v>45033.63594907407</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>45</v>
@@ -2347,34 +2350,34 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>4165</v>
+        <v>3926</v>
       </c>
       <c r="B37" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C37" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H37" s="4">
-        <v>45801.7884375</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45862.7884375</v>
+        <v>45642.61438657407</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s">
         <v>147</v>
@@ -2382,34 +2385,34 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>4243</v>
+        <v>4165</v>
       </c>
       <c r="B38" s="1">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C38" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D38" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="4">
-        <v>44869.73755787037</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>45801.7884375</v>
+      </c>
+      <c r="I38" s="4">
+        <v>45862.7884375</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
         <v>148</v>
@@ -2417,28 +2420,28 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>4298</v>
+        <v>4243</v>
       </c>
       <c r="B39" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D39" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H39" s="4">
-        <v>44805.5749074074</v>
+        <v>44869.73755787037</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>45</v>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>4594</v>
+        <v>4298</v>
       </c>
       <c r="B40" s="1">
         <v>0.08</v>
@@ -2470,10 +2473,10 @@
         <v>0.17</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H40" s="4">
-        <v>45461.68362268519</v>
+        <v>44805.5749074074</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>45</v>
@@ -2487,34 +2490,34 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>4683</v>
+        <v>4594</v>
       </c>
       <c r="B41" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C41" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>0.17</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1">
         <v>0.17</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H41" s="4">
-        <v>45817.73247685185</v>
-      </c>
-      <c r="I41" s="4">
-        <v>45939.73247685185</v>
+        <v>45461.68362268519</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s">
         <v>151</v>
@@ -2522,34 +2525,34 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>5133</v>
+        <v>4683</v>
       </c>
       <c r="B42" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D42" s="1">
         <v>0.17</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1">
         <v>0.17</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H42" s="4">
-        <v>45612.75633101852</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>45</v>
+        <v>45817.73247685185</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45939.73247685185</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
         <v>152</v>
@@ -2557,28 +2560,28 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>5195</v>
+        <v>5133</v>
       </c>
       <c r="B43" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C43" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>0.17</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1">
         <v>0.17</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H43" s="4">
-        <v>45063.75159722222</v>
+        <v>45612.75633101852</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>45</v>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>5216</v>
+        <v>5195</v>
       </c>
       <c r="B44" s="1">
         <v>0.17</v>
@@ -2604,16 +2607,16 @@
         <v>0.17</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1">
         <v>0.17</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H44" s="4">
-        <v>45652.57638888889</v>
+        <v>45063.75159722222</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>45</v>
@@ -2627,28 +2630,28 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>5262</v>
+        <v>5216</v>
       </c>
       <c r="B45" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C45" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D45" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E45">
         <v>7</v>
       </c>
       <c r="F45" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4">
-        <v>45358.79960648148</v>
+        <v>45652.57638888889</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>45</v>
@@ -2662,34 +2665,34 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>5305</v>
+        <v>5262</v>
       </c>
       <c r="B46" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D46" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H46" s="4">
-        <v>45761.78282407407</v>
+        <v>45358.79960648148</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
         <v>156</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>5322</v>
+        <v>5305</v>
       </c>
       <c r="B47" s="1">
         <v>0.08</v>
@@ -2709,22 +2712,22 @@
         <v>0.17</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
         <v>0.17</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H47" s="4">
-        <v>45741.43402777778</v>
-      </c>
-      <c r="I47" s="4">
-        <v>45833.43402777778</v>
+        <v>45761.78282407407</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s">
         <v>157</v>
@@ -2732,34 +2735,34 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>5464</v>
+        <v>5322</v>
       </c>
       <c r="B48" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C48" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4">
-        <v>45633.75690972222</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>45741.43402777778</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45833.43402777778</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
         <v>158</v>
@@ -2767,34 +2770,34 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>5476</v>
+        <v>5464</v>
       </c>
       <c r="B49" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C49" s="1">
         <v>0.17</v>
       </c>
       <c r="D49" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="4">
-        <v>45610.77327546296</v>
+        <v>45633.75690972222</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s">
         <v>159</v>
@@ -2802,34 +2805,34 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>5611</v>
+        <v>5476</v>
       </c>
       <c r="B50" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C50" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D50" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H50" s="4">
-        <v>45537.70445601852</v>
+        <v>45610.77327546296</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s">
         <v>160</v>
@@ -2837,7 +2840,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>5744</v>
+        <v>5611</v>
       </c>
       <c r="B51" s="1">
         <v>0.42</v>
@@ -2849,16 +2852,16 @@
         <v>0.5</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
         <v>0.5</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H51" s="4">
-        <v>45653.80520833333</v>
+        <v>45537.70445601852</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>45</v>
@@ -2872,34 +2875,34 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>5754</v>
+        <v>5744</v>
       </c>
       <c r="B52" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C52" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D52" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G52" t="s">
         <v>23</v>
       </c>
       <c r="H52" s="4">
-        <v>45775.66159722222</v>
-      </c>
-      <c r="I52" s="4">
-        <v>45836.66159722222</v>
+        <v>45653.80520833333</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s">
         <v>162</v>
@@ -2907,31 +2910,31 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>5984</v>
+        <v>5754</v>
       </c>
       <c r="B53" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="C53" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="D53" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="E53">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H53" s="4">
-        <v>45838.9169212963</v>
+        <v>45775.66159722222</v>
       </c>
       <c r="I53" s="4">
-        <v>45853.9169212963</v>
+        <v>45836.66159722222</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
@@ -2942,31 +2945,31 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>5985</v>
+        <v>5984</v>
       </c>
       <c r="B54" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C54" s="1">
         <v>0.67</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.5</v>
       </c>
       <c r="D54" s="1">
         <v>0.83</v>
       </c>
       <c r="E54">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F54" s="1">
         <v>0.83</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54" s="4">
-        <v>45824.58818287037</v>
+        <v>45840.91363425926</v>
       </c>
       <c r="I54" s="4">
-        <v>45839.58818287037</v>
+        <v>45855.91363425926</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
@@ -2977,31 +2980,31 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B55" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="1">
         <v>0.83</v>
       </c>
-      <c r="C55" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
       <c r="E55">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H55" s="4">
-        <v>45835.49334490741</v>
+        <v>45824.58818287037</v>
       </c>
       <c r="I55" s="4">
-        <v>45896.49334490741</v>
+        <v>45839.58818287037</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
@@ -3012,31 +3015,31 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B56" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="C56" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D56" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H56" s="4">
-        <v>45839.8087037037</v>
+        <v>45835.49334490741</v>
       </c>
       <c r="I56" s="4">
-        <v>45854.8087037037</v>
+        <v>45896.49334490741</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
@@ -3047,31 +3050,31 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>6136</v>
+        <v>5988</v>
       </c>
       <c r="B57" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D57" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
       </c>
       <c r="H57" s="4">
-        <v>45689.7587037037</v>
+        <v>45841.44313657407</v>
       </c>
       <c r="I57" s="4">
-        <v>45717.7587037037</v>
+        <v>45856.44313657407</v>
       </c>
       <c r="J57" t="s">
         <v>47</v>
@@ -3082,34 +3085,34 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>6293</v>
+        <v>6136</v>
       </c>
       <c r="B58" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H58" s="4">
-        <v>45479.50534722222</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>45</v>
+        <v>45689.7587037037</v>
+      </c>
+      <c r="I58" s="4">
+        <v>45717.7587037037</v>
       </c>
       <c r="J58" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
         <v>168</v>
@@ -3117,34 +3120,34 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>6437</v>
+        <v>6293</v>
       </c>
       <c r="B59" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="C59" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E59">
         <v>7</v>
       </c>
       <c r="F59" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H59" s="4">
-        <v>45708.67063657408</v>
-      </c>
-      <c r="I59" s="4">
-        <v>45736.67063657408</v>
+        <v>45479.50534722222</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s">
         <v>169</v>
@@ -3152,31 +3155,31 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>6460</v>
+        <v>6437</v>
       </c>
       <c r="B60" s="1">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D60" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E60">
         <v>7</v>
       </c>
       <c r="F60" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60" s="4">
-        <v>45733.76335648148</v>
+        <v>45708.67063657408</v>
       </c>
       <c r="I60" s="4">
-        <v>45794.76335648148</v>
+        <v>45736.67063657408</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
@@ -3187,31 +3190,31 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6539</v>
+        <v>6460</v>
       </c>
       <c r="B61" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C61" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" s="4">
-        <v>45821.79486111111</v>
+        <v>45733.76335648148</v>
       </c>
       <c r="I61" s="4">
-        <v>45851.79486111111</v>
+        <v>45794.76335648148</v>
       </c>
       <c r="J61" t="s">
         <v>47</v>
@@ -3222,31 +3225,31 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B62" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C62" s="1">
         <v>0.33</v>
       </c>
       <c r="D62" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E62">
         <v>8</v>
       </c>
       <c r="F62" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H62" s="4">
-        <v>45825.79979166666</v>
+        <v>45821.79486111111</v>
       </c>
       <c r="I62" s="4">
-        <v>45855.79979166666</v>
+        <v>45851.79486111111</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
@@ -3257,31 +3260,31 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B63" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C63" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D63" s="1">
         <v>0.5</v>
       </c>
-      <c r="D63" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H63" s="4">
-        <v>45787.61539351852</v>
+        <v>45825.79979166666</v>
       </c>
       <c r="I63" s="4">
-        <v>45802.61539351852</v>
+        <v>45855.79979166666</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
@@ -3292,34 +3295,34 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B64" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C64" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D64" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H64" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>45</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I64" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
         <v>174</v>
@@ -3327,104 +3330,104 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B65" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D65" s="1">
         <v>0.17</v>
       </c>
       <c r="E65">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1">
         <v>0.17</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H65" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B66" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C66" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E66">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H66" s="4">
-        <v>45821.95559027778</v>
-      </c>
-      <c r="I66" s="4">
-        <v>45851.95559027778</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B67" s="1">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D67" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>45</v>
+        <v>45821.95559027778</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45851.95559027778</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s">
         <v>176</v>
@@ -3432,34 +3435,34 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B68" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C68" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D68" s="1">
         <v>0.75</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
         <v>0.75</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H68" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K68" t="s">
         <v>177</v>
@@ -3467,34 +3470,34 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B69" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C69" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D69" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H69" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I69" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K69" t="s">
         <v>178</v>
@@ -3502,31 +3505,31 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B70" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C70" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D70" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E70">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F70" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H70" s="4">
-        <v>45815.91634259259</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I70" s="4">
-        <v>45845.91634259259</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
@@ -3537,31 +3540,31 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B71" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D71" s="1">
         <v>0.5</v>
       </c>
-      <c r="C71" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.67</v>
-      </c>
       <c r="E71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71" s="4">
-        <v>45744.94902777778</v>
+        <v>45815.91634259259</v>
       </c>
       <c r="I71" s="4">
-        <v>45759.94902777778</v>
+        <v>45845.91634259259</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -3572,7 +3575,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B72" s="1">
         <v>0.5</v>
@@ -3584,19 +3587,19 @@
         <v>0.67</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1">
         <v>0.67</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H72" s="4">
-        <v>45838.76614583333</v>
+        <v>45744.94902777778</v>
       </c>
       <c r="I72" s="4">
-        <v>45991.76614583333</v>
+        <v>45759.94902777778</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -3607,34 +3610,34 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B73" s="1">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D73" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E73">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H73" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>45</v>
+        <v>45838.76614583333</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45991.76614583333</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s">
         <v>182</v>
@@ -3642,34 +3645,34 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B74" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H74" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s">
         <v>183</v>
@@ -3677,34 +3680,34 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B75" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E75">
         <v>6</v>
       </c>
       <c r="F75" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H75" s="4">
-        <v>45604.84116898148</v>
+        <v>44834.48420138889</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s">
         <v>184</v>
@@ -3712,34 +3715,34 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B76" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F76" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H76" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I76" s="4">
-        <v>45852.89126157408</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s">
         <v>185</v>
@@ -3747,31 +3750,31 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="B77" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="4">
-        <v>45819.81947916667</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I77" s="4">
-        <v>46002.81947916667</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
@@ -3782,34 +3785,34 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B78" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C78" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H78" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>45</v>
+        <v>45819.81947916667</v>
+      </c>
+      <c r="I78" s="4">
+        <v>46002.81947916667</v>
       </c>
       <c r="J78" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s">
         <v>187</v>
@@ -3817,34 +3820,34 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B79" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D79" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H79" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I79" s="4">
-        <v>45811.70832175926</v>
+        <v>45652.6609375</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s">
         <v>188</v>
@@ -3852,7 +3855,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B80" s="1">
         <v>0.08</v>
@@ -3864,19 +3867,19 @@
         <v>0.17</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1">
         <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H80" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I80" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
@@ -3887,34 +3890,34 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B81" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C81" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F81" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H81" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>45</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I81" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
         <v>190</v>
@@ -3922,34 +3925,34 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B82" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C82" s="1">
         <v>0.17</v>
       </c>
       <c r="D82" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E82">
         <v>6</v>
       </c>
       <c r="F82" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H82" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I82" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s">
         <v>191</v>
@@ -3957,13 +3960,13 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B83" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D83" s="1">
         <v>0.17</v>
@@ -3975,16 +3978,16 @@
         <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H83" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>45</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I83" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
         <v>192</v>
@@ -3992,34 +3995,34 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B84" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H84" s="4">
-        <v>45659.8877199074</v>
+        <v>45050.52782407407</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s">
         <v>193</v>
@@ -4027,34 +4030,34 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B85" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C85" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E85">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F85" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H85" s="4">
-        <v>45183.80324074074</v>
+        <v>45659.8877199074</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
         <v>194</v>
@@ -4062,34 +4065,34 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B86" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D86" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F86" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H86" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s">
         <v>195</v>
@@ -4097,34 +4100,34 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B87" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
         <v>6</v>
       </c>
       <c r="F87" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s">
         <v>196</v>
@@ -4132,34 +4135,34 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E88">
         <v>6</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G88" t="s">
         <v>41</v>
       </c>
       <c r="H88" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
         <v>197</v>
@@ -4167,34 +4170,34 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B89" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F89" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H89" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K89" t="s">
         <v>198</v>
@@ -4202,34 +4205,34 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B90" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C90" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D90" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E90">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s">
         <v>199</v>
@@ -4237,34 +4240,34 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B91" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D91" s="1">
         <v>0.17</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" s="1">
         <v>0.17</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H91" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s">
         <v>200</v>
@@ -4272,34 +4275,34 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B92" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H92" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s">
         <v>201</v>
@@ -4307,34 +4310,34 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B93" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C93" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>0.33</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F93" s="1">
         <v>0.33</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H93" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s">
         <v>202</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B94" s="1">
         <v>0.25</v>
@@ -4354,22 +4357,22 @@
         <v>0.33</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1">
         <v>0.33</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H94" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s">
         <v>203</v>
@@ -4377,34 +4380,34 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B95" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D95" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H95" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K95" t="s">
         <v>204</v>
@@ -4412,34 +4415,34 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H96" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K96" t="s">
         <v>205</v>
@@ -4447,34 +4450,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B97" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H97" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s">
         <v>206</v>
@@ -4482,34 +4485,34 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B98" s="1">
         <v>0.17</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D98" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G98" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
       <c r="H98" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I98" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K98" t="s">
         <v>207</v>
@@ -4517,34 +4520,34 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B99" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H99" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>45</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I99" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s">
         <v>208</v>
@@ -4552,7 +4555,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B100" s="1">
         <v>0.08</v>
@@ -4564,22 +4567,22 @@
         <v>0.17</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1">
         <v>0.17</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H100" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K100" t="s">
         <v>209</v>
@@ -4587,34 +4590,34 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B101" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C101" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E101">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F101" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H101" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K101" t="s">
         <v>210</v>
@@ -4622,34 +4625,34 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B102" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D102" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E102">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H102" s="4">
-        <v>45832.5594212963</v>
-      </c>
-      <c r="I102" s="4">
-        <v>45893.5594212963</v>
+        <v>44719.5262962963</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K102" t="s">
         <v>211</v>
@@ -4657,34 +4660,34 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B103" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F103" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H103" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>45</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I103" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J103" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s">
         <v>212</v>
@@ -4692,34 +4695,34 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B104" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F104" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G104" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H104" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
         <v>213</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B105" s="1">
         <v>0.08</v>
@@ -4745,16 +4748,16 @@
         <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H105" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s">
         <v>214</v>
@@ -4762,7 +4765,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B106" s="1">
         <v>0.08</v>
@@ -4780,16 +4783,16 @@
         <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H106" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
         <v>215</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B107" s="1">
         <v>0.08</v>
@@ -4815,16 +4818,16 @@
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H107" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
         <v>216</v>
@@ -4832,7 +4835,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B108" s="1">
         <v>0.08</v>
@@ -4850,16 +4853,16 @@
         <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H108" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
         <v>217</v>
@@ -4867,34 +4870,34 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B109" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F109" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H109" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
         <v>218</v>
@@ -4902,34 +4905,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B110" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E110">
         <v>7</v>
       </c>
       <c r="F110" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G110" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H110" s="4">
-        <v>45624.57778935185</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
         <v>219</v>
@@ -4937,34 +4940,34 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B111" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E111">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F111" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H111" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I111" s="4">
-        <v>45868.45422453704</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K111" t="s">
         <v>220</v>
@@ -4972,34 +4975,34 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C112" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>0.33</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1">
         <v>0.33</v>
       </c>
       <c r="G112" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H112" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>45</v>
+        <v>45807.45422453704</v>
+      </c>
+      <c r="I112" s="4">
+        <v>45868.45422453704</v>
       </c>
       <c r="J112" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K112" t="s">
         <v>221</v>
@@ -5007,34 +5010,34 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B113" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C113" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E113">
-        <v>16239</v>
+        <v>7</v>
       </c>
       <c r="F113" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H113" s="4">
-        <v>45840.66871527778</v>
-      </c>
-      <c r="I113" s="4">
-        <v>45841.66871527778</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="K113" t="s">
         <v>222</v>
@@ -5042,37 +5045,72 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B114" s="1">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="C114" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D114" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>16273</v>
       </c>
       <c r="F114" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H114" s="4">
-        <v>45800.43686342592</v>
+        <v>45841.66618055556</v>
       </c>
       <c r="I114" s="4">
-        <v>45861.43686342592</v>
+        <v>45842.66618055556</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>
       </c>
       <c r="K114" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>28502</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="4">
+        <v>45800.43686342592</v>
+      </c>
+      <c r="I115" s="4">
+        <v>45861.43686342592</v>
+      </c>
+      <c r="J115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K115" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -121,27 +121,27 @@
     <t>2x por quinzena - irregular</t>
   </si>
   <si>
+    <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
+    <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
+  </si>
+  <si>
     <t>1x por mês - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
-    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
-    <t>2x por quinzena - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
     <t>1x a cada 11 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
     <t>1x por semana - irregular</t>
   </si>
   <si>
-    <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
-  </si>
-  <si>
     <t>1x a cada 8 meses - irregular</t>
   </si>
   <si>
@@ -154,202 +154,202 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.5 meses sem comprar</t>
+    <t>INATIVO - 55.6 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
+    <t>INATIVO - 36.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 5.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.8 meses sem comprar</t>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
+    <t>INATIVO - 25.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.7 meses sem comprar</t>
+    <t>INATIVO - 21.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.8 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -3062,7 +3062,7 @@
         <v>0.5</v>
       </c>
       <c r="E57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1">
         <v>0.5</v>
@@ -3071,10 +3071,10 @@
         <v>34</v>
       </c>
       <c r="H57" s="4">
-        <v>45841.44313657407</v>
+        <v>45842.80699074074</v>
       </c>
       <c r="I57" s="4">
-        <v>45856.44313657407</v>
+        <v>45857.80699074074</v>
       </c>
       <c r="J57" t="s">
         <v>47</v>
@@ -3097,7 +3097,7 @@
         <v>0.33</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1">
         <v>0.33</v>
@@ -3106,10 +3106,10 @@
         <v>35</v>
       </c>
       <c r="H58" s="4">
-        <v>45689.7587037037</v>
+        <v>45844.76849537037</v>
       </c>
       <c r="I58" s="4">
-        <v>45717.7587037037</v>
+        <v>45906.76849537037</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
@@ -3403,16 +3403,16 @@
         <v>9247</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C67" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D67" s="1">
         <v>0.33</v>
       </c>
       <c r="E67">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1">
         <v>0.33</v>
@@ -3421,10 +3421,10 @@
         <v>33</v>
       </c>
       <c r="H67" s="4">
-        <v>45821.95559027778</v>
+        <v>45843.95056712963</v>
       </c>
       <c r="I67" s="4">
-        <v>45851.95559027778</v>
+        <v>45874.95056712963</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
@@ -3546,25 +3546,25 @@
         <v>0.42</v>
       </c>
       <c r="C71" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D71" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H71" s="4">
-        <v>45815.91634259259</v>
+        <v>45843.9522337963</v>
       </c>
       <c r="I71" s="4">
-        <v>45845.91634259259</v>
+        <v>45874.9522337963</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
@@ -3578,28 +3578,28 @@
         <v>9890</v>
       </c>
       <c r="B72" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C72" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D72" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H72" s="4">
-        <v>45744.94902777778</v>
+        <v>45844.89819444445</v>
       </c>
       <c r="I72" s="4">
-        <v>45759.94902777778</v>
+        <v>45875.89819444445</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
@@ -4013,7 +4013,7 @@
         <v>0.17</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84" s="4">
         <v>45050.52782407407</v>
@@ -4083,7 +4083,7 @@
         <v>0.67</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H86" s="4">
         <v>45183.80324074074</v>
@@ -4153,7 +4153,7 @@
         <v>0.17</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H88" s="4">
         <v>45385.58152777778</v>
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>16273</v>
+        <v>16315</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -5066,10 +5066,10 @@
         <v>44</v>
       </c>
       <c r="H114" s="4">
-        <v>45841.66618055556</v>
+        <v>45842.74878472222</v>
       </c>
       <c r="I114" s="4">
-        <v>45842.66618055556</v>
+        <v>45843.74878472222</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.3 meses sem comprar</t>
+    <t>INATIVO - 36.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.1 meses sem comprar</t>
@@ -172,159 +172,171 @@
     <t>INATIVO - 18.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
@@ -343,10 +355,10 @@
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
+    <t>INATIVO - 21.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.8 meses sem comprar</t>
@@ -467,6 +479,9 @@
   </si>
   <si>
     <t>HITALO LIMA</t>
+  </si>
+  <si>
+    <t>ERIKA MILER</t>
   </si>
   <si>
     <t>ELSO SIMOES de oliveira</t>
@@ -1075,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1190,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1225,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1260,7 +1275,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1295,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1330,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1365,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1400,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1435,7 +1450,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1470,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1505,7 +1520,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1540,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1557,7 +1572,7 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>0.5</v>
@@ -1566,16 +1581,16 @@
         <v>23</v>
       </c>
       <c r="H14" s="4">
-        <v>45822.75996527778</v>
+        <v>45845.69510416667</v>
       </c>
       <c r="I14" s="4">
-        <v>45883.75996527778</v>
+        <v>45907.69510416667</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1610,7 +1625,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1645,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1680,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1715,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1750,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1785,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1820,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1855,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1890,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1925,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1960,7 +1975,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1995,7 +2010,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2030,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2065,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2100,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2135,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2170,7 +2185,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2205,7 +2220,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2240,7 +2255,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2275,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2310,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2345,7 +2360,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2380,7 +2395,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2415,7 +2430,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2450,7 +2465,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2485,18 +2500,18 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>4594</v>
+        <v>4524</v>
       </c>
       <c r="B41" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D41" s="1">
         <v>0.17</v>
@@ -2508,129 +2523,129 @@
         <v>0.17</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H41" s="4">
-        <v>45461.68362268519</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>45</v>
+        <v>45845.4859375</v>
+      </c>
+      <c r="I41" s="4">
+        <v>46029.4859375</v>
       </c>
       <c r="J41" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>4683</v>
+        <v>4594</v>
       </c>
       <c r="B42" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C42" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>0.17</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" s="1">
         <v>0.17</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H42" s="4">
-        <v>45817.73247685185</v>
-      </c>
-      <c r="I42" s="4">
-        <v>45939.73247685185</v>
+        <v>45461.68362268519</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>5133</v>
+        <v>4683</v>
       </c>
       <c r="B43" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D43" s="1">
         <v>0.17</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1">
         <v>0.17</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H43" s="4">
-        <v>45612.75633101852</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>45</v>
+        <v>45817.73247685185</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45939.73247685185</v>
       </c>
       <c r="J43" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>5195</v>
+        <v>5133</v>
       </c>
       <c r="B44" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C44" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0.17</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1">
         <v>0.17</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H44" s="4">
-        <v>45063.75159722222</v>
+        <v>45612.75633101852</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>5216</v>
+        <v>5195</v>
       </c>
       <c r="B45" s="1">
         <v>0.17</v>
@@ -2642,100 +2657,100 @@
         <v>0.17</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1">
         <v>0.17</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H45" s="4">
-        <v>45652.57638888889</v>
+        <v>45063.75159722222</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>5262</v>
+        <v>5216</v>
       </c>
       <c r="B46" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C46" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D46" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E46">
         <v>7</v>
       </c>
       <c r="F46" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H46" s="4">
-        <v>45358.79960648148</v>
+        <v>45652.57638888889</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>5305</v>
+        <v>5262</v>
       </c>
       <c r="B47" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D47" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H47" s="4">
-        <v>45761.78282407407</v>
+        <v>45358.79960648148</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>5322</v>
+        <v>5305</v>
       </c>
       <c r="B48" s="1">
         <v>0.08</v>
@@ -2747,135 +2762,135 @@
         <v>0.17</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
         <v>0.17</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H48" s="4">
-        <v>45741.43402777778</v>
-      </c>
-      <c r="I48" s="4">
-        <v>45833.43402777778</v>
+        <v>45761.78282407407</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>5464</v>
+        <v>5322</v>
       </c>
       <c r="B49" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C49" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4">
-        <v>45633.75690972222</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>45</v>
+        <v>45741.43402777778</v>
+      </c>
+      <c r="I49" s="4">
+        <v>45833.43402777778</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>5476</v>
+        <v>5464</v>
       </c>
       <c r="B50" s="1">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C50" s="1">
         <v>0.17</v>
       </c>
       <c r="D50" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="4">
-        <v>45610.77327546296</v>
+        <v>45633.75690972222</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>5611</v>
+        <v>5476</v>
       </c>
       <c r="B51" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C51" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D51" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H51" s="4">
-        <v>45537.70445601852</v>
+        <v>45610.77327546296</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>5744</v>
+        <v>5611</v>
       </c>
       <c r="B52" s="1">
         <v>0.42</v>
@@ -2887,112 +2902,112 @@
         <v>0.5</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1">
         <v>0.5</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H52" s="4">
-        <v>45653.80520833333</v>
+        <v>45537.70445601852</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>5754</v>
+        <v>5744</v>
       </c>
       <c r="B53" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="C53" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D53" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="4">
-        <v>45775.66159722222</v>
-      </c>
-      <c r="I53" s="4">
-        <v>45836.66159722222</v>
+        <v>45653.80520833333</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>5984</v>
+        <v>5754</v>
       </c>
       <c r="B54" s="1">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="C54" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="D54" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="E54">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H54" s="4">
-        <v>45840.91363425926</v>
+        <v>45775.66159722222</v>
       </c>
       <c r="I54" s="4">
-        <v>45855.91363425926</v>
+        <v>45836.66159722222</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>5985</v>
+        <v>5984</v>
       </c>
       <c r="B55" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C55" s="1">
         <v>0.67</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.5</v>
       </c>
       <c r="D55" s="1">
         <v>0.83</v>
       </c>
       <c r="E55">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F55" s="1">
         <v>0.83</v>
@@ -3001,742 +3016,742 @@
         <v>34</v>
       </c>
       <c r="H55" s="4">
-        <v>45824.58818287037</v>
+        <v>45840.91363425926</v>
       </c>
       <c r="I55" s="4">
-        <v>45839.58818287037</v>
+        <v>45855.91363425926</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B56" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="1">
         <v>0.83</v>
       </c>
-      <c r="C56" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
       <c r="E56">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H56" s="4">
-        <v>45835.49334490741</v>
+        <v>45824.58818287037</v>
       </c>
       <c r="I56" s="4">
-        <v>45896.49334490741</v>
+        <v>45839.58818287037</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B57" s="1">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="C57" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="D57" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H57" s="4">
-        <v>45842.80699074074</v>
+        <v>45835.49334490741</v>
       </c>
       <c r="I57" s="4">
-        <v>45857.80699074074</v>
+        <v>45896.49334490741</v>
       </c>
       <c r="J57" t="s">
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>6136</v>
+        <v>5988</v>
       </c>
       <c r="B58" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D58" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F58" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="4">
-        <v>45844.76849537037</v>
+        <v>45845.79482638889</v>
       </c>
       <c r="I58" s="4">
-        <v>45906.76849537037</v>
+        <v>45860.79482638889</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>6293</v>
+        <v>6136</v>
       </c>
       <c r="B59" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H59" s="4">
-        <v>45479.50534722222</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>45</v>
+        <v>45844.76849537037</v>
+      </c>
+      <c r="I59" s="4">
+        <v>45906.76849537037</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>6437</v>
+        <v>6293</v>
       </c>
       <c r="B60" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="C60" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E60">
         <v>7</v>
       </c>
       <c r="F60" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H60" s="4">
-        <v>45708.67063657408</v>
-      </c>
-      <c r="I60" s="4">
-        <v>45736.67063657408</v>
+        <v>45479.50534722222</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6460</v>
+        <v>6437</v>
       </c>
       <c r="B61" s="1">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D61" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E61">
         <v>7</v>
       </c>
       <c r="F61" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H61" s="4">
-        <v>45733.76335648148</v>
+        <v>45708.67063657408</v>
       </c>
       <c r="I61" s="4">
-        <v>45794.76335648148</v>
+        <v>45736.67063657408</v>
       </c>
       <c r="J61" t="s">
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>6539</v>
+        <v>6460</v>
       </c>
       <c r="B62" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C62" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" s="4">
-        <v>45821.79486111111</v>
+        <v>45733.76335648148</v>
       </c>
       <c r="I62" s="4">
-        <v>45851.79486111111</v>
+        <v>45794.76335648148</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B63" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C63" s="1">
         <v>0.33</v>
       </c>
       <c r="D63" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E63">
         <v>8</v>
       </c>
       <c r="F63" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H63" s="4">
-        <v>45825.79979166666</v>
+        <v>45821.79486111111</v>
       </c>
       <c r="I63" s="4">
-        <v>45855.79979166666</v>
+        <v>45851.79486111111</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B64" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C64" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D64" s="1">
         <v>0.5</v>
       </c>
-      <c r="D64" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E64">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H64" s="4">
-        <v>45787.61539351852</v>
+        <v>45825.79979166666</v>
       </c>
       <c r="I64" s="4">
-        <v>45802.61539351852</v>
+        <v>45855.79979166666</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B65" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C65" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H65" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>45</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I65" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B66" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D66" s="1">
         <v>0.17</v>
       </c>
       <c r="E66">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1">
         <v>0.17</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H66" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B67" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C67" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E67">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67" s="4">
-        <v>45843.95056712963</v>
-      </c>
-      <c r="I67" s="4">
-        <v>45874.95056712963</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B68" s="1">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="C68" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D68" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F68" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H68" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>45</v>
+        <v>45843.95056712963</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45874.95056712963</v>
       </c>
       <c r="J68" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B69" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C69" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="1">
         <v>0.75</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1">
         <v>0.75</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H69" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B70" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C70" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D70" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H70" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I70" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B71" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C71" s="1">
         <v>0.17</v>
       </c>
       <c r="D71" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F71" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H71" s="4">
-        <v>45843.9522337963</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I71" s="4">
-        <v>45874.9522337963</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B72" s="1">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C72" s="1">
         <v>0.17</v>
       </c>
       <c r="D72" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="4">
-        <v>45844.89819444445</v>
+        <v>45843.9522337963</v>
       </c>
       <c r="I72" s="4">
-        <v>45875.89819444445</v>
+        <v>45874.9522337963</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B73" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C73" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D73" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E73">
         <v>12</v>
       </c>
       <c r="F73" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H73" s="4">
-        <v>45838.76614583333</v>
+        <v>45844.89819444445</v>
       </c>
       <c r="I73" s="4">
-        <v>45991.76614583333</v>
+        <v>45875.89819444445</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B74" s="1">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D74" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E74">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H74" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>45</v>
+        <v>45838.76614583333</v>
+      </c>
+      <c r="I74" s="4">
+        <v>45991.76614583333</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B75" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H75" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B76" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E76">
         <v>6</v>
       </c>
       <c r="F76" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H76" s="4">
-        <v>45604.84116898148</v>
+        <v>44834.48420138889</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>45</v>
@@ -3745,152 +3760,152 @@
         <v>87</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B77" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H77" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I77" s="4">
-        <v>45852.89126157408</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="B78" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" s="4">
-        <v>45819.81947916667</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I78" s="4">
-        <v>46002.81947916667</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B79" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C79" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F79" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H79" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>45</v>
+        <v>45819.81947916667</v>
+      </c>
+      <c r="I79" s="4">
+        <v>46002.81947916667</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B80" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D80" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H80" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I80" s="4">
-        <v>45811.70832175926</v>
+        <v>45652.6609375</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B81" s="1">
         <v>0.08</v>
@@ -3902,106 +3917,106 @@
         <v>0.17</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1">
         <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H81" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I81" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B82" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C82" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H82" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>45</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I82" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J82" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B83" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C83" s="1">
         <v>0.17</v>
       </c>
       <c r="D83" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E83">
         <v>6</v>
       </c>
       <c r="F83" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H83" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I83" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B84" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D84" s="1">
         <v>0.17</v>
@@ -4013,45 +4028,45 @@
         <v>0.17</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H84" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>45</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I84" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B85" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H85" s="4">
-        <v>45659.8877199074</v>
+        <v>45050.52782407407</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>45</v>
@@ -4060,33 +4075,33 @@
         <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B86" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C86" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F86" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H86" s="4">
-        <v>45183.80324074074</v>
+        <v>45659.8877199074</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>45</v>
@@ -4095,33 +4110,33 @@
         <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B87" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D87" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F87" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H87" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>45</v>
@@ -4130,33 +4145,33 @@
         <v>92</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B88" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E88">
         <v>6</v>
       </c>
       <c r="F88" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H88" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>45</v>
@@ -4165,222 +4180,222 @@
         <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E89">
         <v>6</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H89" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B90" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F90" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H90" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B91" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C91" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D91" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B92" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D92" s="1">
         <v>0.17</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" s="1">
         <v>0.17</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H92" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B93" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H93" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B94" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C94" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>0.33</v>
       </c>
       <c r="E94">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1">
         <v>0.33</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H94" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B95" s="1">
         <v>0.25</v>
@@ -4392,205 +4407,205 @@
         <v>0.33</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1">
         <v>0.33</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H95" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B96" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D96" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H96" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H97" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B98" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H98" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B99" s="1">
         <v>0.17</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D99" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G99" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
       <c r="H99" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I99" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B100" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F100" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H100" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>45</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I100" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B101" s="1">
         <v>0.08</v>
@@ -4602,170 +4617,170 @@
         <v>0.17</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1">
         <v>0.17</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H101" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B102" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C102" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E102">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F102" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H102" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="K102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B103" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D103" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E103">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H103" s="4">
-        <v>45832.5594212963</v>
-      </c>
-      <c r="I103" s="4">
-        <v>45893.5594212963</v>
+        <v>44719.5262962963</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B104" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F104" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H104" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>45</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I104" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="K104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B105" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F105" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H105" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B106" s="1">
         <v>0.08</v>
@@ -4783,24 +4798,24 @@
         <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H106" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B107" s="1">
         <v>0.08</v>
@@ -4818,24 +4833,24 @@
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H107" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B108" s="1">
         <v>0.08</v>
@@ -4853,24 +4868,24 @@
         <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H108" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B109" s="1">
         <v>0.08</v>
@@ -4888,229 +4903,264 @@
         <v>0.17</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H109" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B110" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F110" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H110" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B111" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E111">
         <v>7</v>
       </c>
       <c r="F111" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H111" s="4">
-        <v>45624.57778935185</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B112" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E112">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H112" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I112" s="4">
-        <v>45868.45422453704</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B113" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C113" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>0.33</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1">
         <v>0.33</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H113" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>45</v>
+        <v>45807.45422453704</v>
+      </c>
+      <c r="I113" s="4">
+        <v>45868.45422453704</v>
       </c>
       <c r="J113" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B114" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C114" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D114" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E114">
-        <v>16315</v>
+        <v>7</v>
       </c>
       <c r="F114" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H114" s="4">
-        <v>45842.74878472222</v>
-      </c>
-      <c r="I114" s="4">
-        <v>45843.74878472222</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B115" s="1">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="C115" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D115" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>16386</v>
       </c>
       <c r="F115" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45800.43686342592</v>
+        <v>45845.74626157407</v>
       </c>
       <c r="I115" s="4">
-        <v>45861.43686342592</v>
+        <v>45846.74626157407</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>28502</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="4">
+        <v>45800.43686342592</v>
+      </c>
+      <c r="I116" s="4">
+        <v>45861.43686342592</v>
+      </c>
+      <c r="J116" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 36.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.3 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 0.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 40.1 meses sem comprar</t>
+    <t>INATIVO - 40.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.8 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 29.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.1 meses sem comprar</t>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.8 meses sem comprar</t>
@@ -220,52 +220,58 @@
     <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
+    <t>INATIVO - 10.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.1 meses sem comprar</t>
+    <t>INATIVO - 28.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.2 meses sem comprar</t>
@@ -274,13 +280,10 @@
     <t>INATIVO - 12.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
+    <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.6 meses sem comprar</t>
@@ -298,19 +301,16 @@
     <t>INATIVO - 9.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
+    <t>INATIVO - 15.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.0 meses sem comprar</t>
@@ -319,25 +319,16 @@
     <t>INATIVO - 19.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 19.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
+    <t>INATIVO - 33.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.2 meses sem comprar</t>
@@ -1170,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1205,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1240,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1275,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1310,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1345,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1380,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1415,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1450,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1485,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1520,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1555,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1590,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1625,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1660,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1695,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1730,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1765,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1800,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1835,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1870,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1905,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1940,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1975,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2010,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2045,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2080,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2115,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2150,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2185,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2220,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2255,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2290,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2325,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2360,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2395,7 +2386,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2430,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2465,7 +2456,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2500,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2535,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2570,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2605,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2640,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2675,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2710,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2745,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2780,7 +2771,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2815,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2847,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2882,10 +2873,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2917,10 +2908,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2952,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2990,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3025,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3060,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3095,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3130,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3165,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3197,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3235,7 +3226,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3270,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3305,7 +3296,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3340,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3375,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3407,10 +3398,10 @@
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3442,10 +3433,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3480,7 +3471,7 @@
         <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3512,10 +3503,10 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3547,10 +3538,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3585,7 +3576,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3620,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3655,7 +3646,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3690,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3722,10 +3713,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3757,10 +3748,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3792,10 +3783,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3830,7 +3821,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3865,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3900,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3935,7 +3926,7 @@
         <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3970,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4002,10 +3993,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4040,7 +4031,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4072,10 +4063,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4107,10 +4098,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4142,10 +4133,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4177,10 +4168,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4212,10 +4203,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4247,10 +4238,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4282,10 +4273,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4317,10 +4308,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4352,10 +4343,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4387,10 +4378,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4425,7 +4416,7 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4460,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4492,10 +4483,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4527,10 +4518,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4562,10 +4553,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4600,7 +4591,7 @@
         <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4632,10 +4623,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4667,10 +4658,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4702,10 +4693,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4740,7 +4731,7 @@
         <v>47</v>
       </c>
       <c r="K104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4772,10 +4763,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4807,10 +4798,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4842,10 +4833,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4877,10 +4868,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4912,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4947,10 +4938,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4982,10 +4973,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5017,10 +5008,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5055,7 +5046,7 @@
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5087,10 +5078,10 @@
         <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5107,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>16386</v>
+        <v>16424</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -5116,16 +5107,16 @@
         <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45845.74626157407</v>
+        <v>45846.75138888889</v>
       </c>
       <c r="I115" s="4">
-        <v>45846.74626157407</v>
+        <v>45847.75138888889</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5160,7 +5151,7 @@
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.6 meses sem comprar</t>
+    <t>INATIVO - 55.7 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 16.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
+    <t>INATIVO - 18.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.4 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 2.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
+    <t>INATIVO - 37.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
+    <t>INATIVO - 15.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.6 meses sem comprar</t>
@@ -211,139 +211,136 @@
     <t>INATIVO - 0.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.9 meses sem comprar</t>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
+    <t>INATIVO - 25.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.7 meses sem comprar</t>
@@ -352,7 +349,7 @@
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.8 meses sem comprar</t>
+    <t>INATIVO - 8.9 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1161,7 +1158,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1196,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1231,7 +1228,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1266,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,7 +1473,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1546,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1581,7 +1578,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1616,7 +1613,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1721,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1756,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1791,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1826,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1861,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1896,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1931,7 +1928,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1966,7 +1963,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2001,7 +1998,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2036,7 +2033,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2071,7 +2068,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2106,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2141,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2176,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2211,7 +2208,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2246,7 +2243,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2281,7 +2278,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2316,7 +2313,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,7 +2348,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2386,7 +2383,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2421,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2456,7 +2453,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2491,7 +2488,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2526,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2561,7 +2558,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2596,7 +2593,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2631,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2666,7 +2663,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2701,7 +2698,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2736,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2768,10 +2765,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2806,7 +2803,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2841,7 +2838,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2876,7 +2873,7 @@
         <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2911,7 +2908,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,10 +2940,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2981,7 +2978,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3016,7 +3013,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3051,7 +3048,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3086,7 +3083,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3121,7 +3118,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3156,7 +3153,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,10 +3185,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3226,7 +3223,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3261,7 +3258,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3296,7 +3293,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3331,7 +3328,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3366,7 +3363,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3398,10 +3395,10 @@
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3433,10 +3430,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3471,7 +3468,7 @@
         <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3503,10 +3500,10 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3541,7 +3538,7 @@
         <v>59</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3576,7 +3573,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3593,7 +3590,7 @@
         <v>0.67</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F72" s="1">
         <v>0.67</v>
@@ -3602,16 +3599,16 @@
         <v>39</v>
       </c>
       <c r="H72" s="4">
-        <v>45843.9522337963</v>
+        <v>45847.9480787037</v>
       </c>
       <c r="I72" s="4">
-        <v>45874.9522337963</v>
+        <v>45878.9480787037</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3646,7 +3643,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3681,7 +3678,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3713,10 +3710,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3748,10 +3745,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3783,10 +3780,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3821,7 +3818,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3856,7 +3853,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3891,7 +3888,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3926,7 +3923,7 @@
         <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3961,7 +3958,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3993,10 +3990,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4031,7 +4028,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4063,10 +4060,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4098,10 +4095,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4133,10 +4130,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4168,10 +4165,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4203,10 +4200,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4238,10 +4235,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4273,10 +4270,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4308,10 +4305,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4343,10 +4340,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4378,10 +4375,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4413,10 +4410,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4448,10 +4445,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4483,10 +4480,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4518,10 +4515,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4553,10 +4550,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4591,7 +4588,7 @@
         <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4623,10 +4620,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4658,10 +4655,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4696,7 +4693,7 @@
         <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4731,7 +4728,7 @@
         <v>47</v>
       </c>
       <c r="K104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4763,10 +4760,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4798,10 +4795,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4833,10 +4830,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4868,10 +4865,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4903,10 +4900,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4938,10 +4935,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4973,10 +4970,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5008,10 +5005,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5046,7 +5043,7 @@
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5078,10 +5075,10 @@
         <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5098,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>16424</v>
+        <v>16473</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -5107,16 +5104,16 @@
         <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45846.75138888889</v>
+        <v>45847.7393287037</v>
       </c>
       <c r="I115" s="4">
-        <v>45847.75138888889</v>
+        <v>45848.7393287037</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5151,7 +5148,7 @@
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.4 meses sem comprar</t>
+    <t>INATIVO - 36.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.2 meses sem comprar</t>
@@ -172,159 +172,171 @@
     <t>INATIVO - 18.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.9 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 14.9 meses sem comprar</t>
   </si>
   <si>
@@ -343,10 +355,10 @@
     <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 21.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 8.9 meses sem comprar</t>
@@ -1158,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1193,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1228,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1263,7 +1275,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1298,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1333,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1368,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1403,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1438,7 +1450,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1473,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1508,7 +1520,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1543,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1578,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1613,7 +1625,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1648,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1683,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1718,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1753,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1788,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1823,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1858,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1893,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1928,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1963,7 +1975,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1998,7 +2010,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2033,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2068,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2103,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2138,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2173,7 +2185,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2208,7 +2220,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2243,7 +2255,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2278,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2313,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2348,7 +2360,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2383,7 +2395,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2391,16 +2403,16 @@
         <v>4165</v>
       </c>
       <c r="B38" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C38" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D38" s="1">
         <v>0.5</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1">
         <v>0.5</v>
@@ -2409,16 +2421,16 @@
         <v>23</v>
       </c>
       <c r="H38" s="4">
-        <v>45801.7884375</v>
+        <v>45848.72115740741</v>
       </c>
       <c r="I38" s="4">
-        <v>45862.7884375</v>
+        <v>45910.72115740741</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2453,7 +2465,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2488,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2523,7 +2535,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2558,7 +2570,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2593,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2628,7 +2640,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2663,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2698,7 +2710,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2733,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2765,10 +2777,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2803,7 +2815,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2835,10 +2847,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2870,10 +2882,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2905,10 +2917,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,7 +2955,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2978,7 +2990,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3013,7 +3025,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3048,7 +3060,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3083,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3118,7 +3130,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3153,7 +3165,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3185,10 +3197,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3223,7 +3235,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3258,7 +3270,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3293,7 +3305,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3328,7 +3340,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3363,7 +3375,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3395,10 +3407,10 @@
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3430,10 +3442,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3468,7 +3480,7 @@
         <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3500,10 +3512,10 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3535,10 +3547,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3573,7 +3585,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3608,7 +3620,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3643,7 +3655,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3678,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3710,10 +3722,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3745,10 +3757,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3780,10 +3792,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3818,7 +3830,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3853,7 +3865,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3888,7 +3900,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3923,7 +3935,7 @@
         <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3958,7 +3970,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3990,10 +4002,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4028,7 +4040,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4060,10 +4072,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4095,10 +4107,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4130,10 +4142,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4165,10 +4177,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4200,10 +4212,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4235,10 +4247,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4270,10 +4282,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4305,10 +4317,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4340,10 +4352,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4375,10 +4387,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4410,10 +4422,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4445,10 +4457,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4480,10 +4492,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4515,10 +4527,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4550,10 +4562,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4588,7 +4600,7 @@
         <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4620,10 +4632,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4655,10 +4667,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4690,10 +4702,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4728,7 +4740,7 @@
         <v>47</v>
       </c>
       <c r="K104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4760,10 +4772,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4795,10 +4807,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4830,10 +4842,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4865,10 +4877,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4900,10 +4912,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4935,10 +4947,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4970,10 +4982,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5005,10 +5017,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5043,7 +5055,7 @@
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5075,10 +5087,10 @@
         <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5095,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>16473</v>
+        <v>16515</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -5104,16 +5116,16 @@
         <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45847.7393287037</v>
+        <v>45848.67685185185</v>
       </c>
       <c r="I115" s="4">
-        <v>45848.7393287037</v>
+        <v>45849.67685185185</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5148,7 +5160,7 @@
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -154,214 +154,214 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.7 meses sem comprar</t>
+    <t>INATIVO - 55.8 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
+    <t>INATIVO - 36.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 15.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 21.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.9 meses sem comprar</t>
+    <t>INATIVO - 25.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 21.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.0 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2412,7 +2412,7 @@
         <v>0.5</v>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" s="1">
         <v>0.5</v>
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="H38" s="4">
-        <v>45848.72115740741</v>
+        <v>45850.5727662037</v>
       </c>
       <c r="I38" s="4">
-        <v>45910.72115740741</v>
+        <v>45912.5727662037</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
@@ -3462,7 +3462,7 @@
         <v>0.33</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1">
         <v>0.33</v>
@@ -3471,10 +3471,10 @@
         <v>33</v>
       </c>
       <c r="H68" s="4">
-        <v>45843.95056712963</v>
+        <v>45850.78201388889</v>
       </c>
       <c r="I68" s="4">
-        <v>45874.95056712963</v>
+        <v>45881.78201388889</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>16515</v>
+        <v>16551</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -5116,10 +5116,10 @@
         <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45848.67685185185</v>
+        <v>45849.74519675926</v>
       </c>
       <c r="I115" s="4">
-        <v>45849.67685185185</v>
+        <v>45850.74519675926</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 36.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.5 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 0.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 40.3 meses sem comprar</t>
+    <t>INATIVO - 40.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.0 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 29.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.3 meses sem comprar</t>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.0 meses sem comprar</t>
@@ -220,52 +220,58 @@
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
+    <t>INATIVO - 10.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.3 meses sem comprar</t>
+    <t>INATIVO - 28.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.4 meses sem comprar</t>
@@ -274,13 +280,10 @@
     <t>INATIVO - 13.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 33.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
+    <t>INATIVO - 8.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.8 meses sem comprar</t>
@@ -298,19 +301,16 @@
     <t>INATIVO - 10.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
+    <t>INATIVO - 15.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.2 meses sem comprar</t>
@@ -319,25 +319,16 @@
     <t>INATIVO - 19.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 19.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.4 meses sem comprar</t>
+    <t>INATIVO - 33.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.4 meses sem comprar</t>
@@ -1170,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1205,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1240,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1275,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1310,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1345,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1380,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1415,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1450,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1485,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1520,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1555,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1572,7 +1563,7 @@
         <v>0.5</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>0.5</v>
@@ -1581,16 +1572,16 @@
         <v>23</v>
       </c>
       <c r="H14" s="4">
-        <v>45845.69510416667</v>
+        <v>45852.53395833333</v>
       </c>
       <c r="I14" s="4">
-        <v>45907.69510416667</v>
+        <v>45914.53395833333</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1625,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1660,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1695,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1730,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1765,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1800,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1835,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1870,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1905,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1940,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1975,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2010,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2045,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2053,34 +2044,34 @@
         <v>3355</v>
       </c>
       <c r="B28" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C28" s="1">
         <v>0.33</v>
       </c>
       <c r="D28" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H28" s="4">
-        <v>45838.51734953704</v>
+        <v>45852.67643518518</v>
       </c>
       <c r="I28" s="4">
-        <v>45991.51734953704</v>
+        <v>45975.67643518518</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2115,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2150,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2185,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2220,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2255,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2290,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2325,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2360,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2395,7 +2386,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2430,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2465,7 +2456,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2500,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2535,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2570,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2605,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2640,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2675,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2710,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2745,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2780,7 +2771,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2815,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2847,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2882,10 +2873,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2917,10 +2908,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2952,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2990,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3025,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3060,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3095,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3130,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3165,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3197,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3235,7 +3226,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3270,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3305,7 +3296,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3340,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3375,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3407,10 +3398,10 @@
         <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3442,10 +3433,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3480,7 +3471,7 @@
         <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3512,10 +3503,10 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3547,10 +3538,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3585,7 +3576,7 @@
         <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3620,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3655,7 +3646,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3690,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3722,10 +3713,10 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3757,10 +3748,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3792,10 +3783,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3830,7 +3821,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3865,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3900,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3935,7 +3926,7 @@
         <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3970,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4002,10 +3993,10 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4040,7 +4031,7 @@
         <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4072,10 +4063,10 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4107,10 +4098,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4142,10 +4133,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4177,10 +4168,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4212,10 +4203,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4247,10 +4238,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K90" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4282,10 +4273,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4317,10 +4308,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4352,10 +4343,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4387,10 +4378,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4425,7 +4416,7 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4460,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4492,10 +4483,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4527,10 +4518,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4562,10 +4553,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4600,7 +4591,7 @@
         <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4632,10 +4623,10 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4667,10 +4658,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4702,10 +4693,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4740,7 +4731,7 @@
         <v>47</v>
       </c>
       <c r="K104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4772,10 +4763,10 @@
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4807,10 +4798,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4842,10 +4833,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4877,10 +4868,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4912,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4947,10 +4938,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4982,10 +4973,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5017,10 +5008,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5055,7 +5046,7 @@
         <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5087,10 +5078,10 @@
         <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5107,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>16551</v>
+        <v>16612</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -5116,16 +5107,16 @@
         <v>44</v>
       </c>
       <c r="H115" s="4">
-        <v>45849.74519675926</v>
+        <v>45852.67851851852</v>
       </c>
       <c r="I115" s="4">
-        <v>45850.74519675926</v>
+        <v>45853.67851851852</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5160,7 +5151,7 @@
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.8 meses sem comprar</t>
+    <t>INATIVO - 55.9 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 16.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
+    <t>INATIVO - 18.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.6 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 3.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
+    <t>INATIVO - 38.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 11.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
+    <t>INATIVO - 15.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.8 meses sem comprar</t>
@@ -211,139 +211,136 @@
     <t>INATIVO - 0.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.1 meses sem comprar</t>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
+    <t>INATIVO - 25.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 21.9 meses sem comprar</t>
@@ -352,7 +349,7 @@
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.0 meses sem comprar</t>
+    <t>INATIVO - 9.1 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>VANUZA ALMEIDA TORRES</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO</t>
   </si>
   <si>
     <t>ANNE CAROLINE SOARES DA SILVA</t>
@@ -1081,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1196,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1231,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1546,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1581,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1616,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1721,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1756,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1791,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1826,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1861,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1896,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1931,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1966,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2001,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2036,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2071,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2106,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2141,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2176,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2211,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2246,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2281,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2316,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2386,7 +2386,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2421,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2456,7 +2456,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2491,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2526,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2561,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2596,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2631,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2666,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2701,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2736,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2768,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2806,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2841,7 +2841,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2876,7 +2876,7 @@
         <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2911,7 +2911,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3016,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3024,34 +3024,34 @@
         <v>5985</v>
       </c>
       <c r="B56" s="1">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="C56" s="1">
         <v>0.5</v>
       </c>
       <c r="D56" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E56">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" s="1">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
       </c>
       <c r="H56" s="4">
-        <v>45824.58818287037</v>
+        <v>45853.60854166667</v>
       </c>
       <c r="I56" s="4">
-        <v>45839.58818287037</v>
+        <v>45868.60854166667</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3086,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3121,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3156,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3226,7 +3226,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3261,12 +3261,12 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>6539</v>
+        <v>6486</v>
       </c>
       <c r="B63" s="1">
         <v>0.33</v>
@@ -3278,660 +3278,660 @@
         <v>0.33</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1">
         <v>0.33</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63" s="4">
-        <v>45821.79486111111</v>
+        <v>45853.78444444444</v>
       </c>
       <c r="I63" s="4">
-        <v>45851.79486111111</v>
+        <v>45915.78444444444</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B64" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C64" s="1">
         <v>0.33</v>
       </c>
       <c r="D64" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E64">
         <v>8</v>
       </c>
       <c r="F64" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H64" s="4">
-        <v>45825.79979166666</v>
+        <v>45821.79486111111</v>
       </c>
       <c r="I64" s="4">
-        <v>45855.79979166666</v>
+        <v>45851.79486111111</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B65" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C65" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.5</v>
       </c>
-      <c r="D65" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E65">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H65" s="4">
-        <v>45787.61539351852</v>
+        <v>45825.79979166666</v>
       </c>
       <c r="I65" s="4">
-        <v>45802.61539351852</v>
+        <v>45855.79979166666</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B66" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C66" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H66" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>45</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B67" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D67" s="1">
         <v>0.17</v>
       </c>
       <c r="E67">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1">
         <v>0.17</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H67" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B68" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C68" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E68">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68" s="4">
-        <v>45850.78201388889</v>
-      </c>
-      <c r="I68" s="4">
-        <v>45881.78201388889</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B69" s="1">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="C69" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="D69" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>45</v>
+        <v>45850.78201388889</v>
+      </c>
+      <c r="I69" s="4">
+        <v>45881.78201388889</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B70" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C70" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D70" s="1">
         <v>0.75</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1">
         <v>0.75</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H70" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B71" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C71" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D71" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H71" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I71" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B72" s="1">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C72" s="1">
         <v>0.17</v>
       </c>
       <c r="D72" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F72" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H72" s="4">
-        <v>45847.9480787037</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I72" s="4">
-        <v>45878.9480787037</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B73" s="1">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C73" s="1">
         <v>0.17</v>
       </c>
       <c r="D73" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F73" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
       </c>
       <c r="H73" s="4">
-        <v>45844.89819444445</v>
+        <v>45847.9480787037</v>
       </c>
       <c r="I73" s="4">
-        <v>45875.89819444445</v>
+        <v>45878.9480787037</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B74" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C74" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D74" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E74">
         <v>12</v>
       </c>
       <c r="F74" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H74" s="4">
-        <v>45838.76614583333</v>
+        <v>45844.89819444445</v>
       </c>
       <c r="I74" s="4">
-        <v>45991.76614583333</v>
+        <v>45875.89819444445</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B75" s="1">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D75" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E75">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H75" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>45</v>
+        <v>45838.76614583333</v>
+      </c>
+      <c r="I75" s="4">
+        <v>45991.76614583333</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B76" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F76" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H76" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B77" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H77" s="4">
-        <v>45604.84116898148</v>
+        <v>44834.48420138889</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B78" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H78" s="4">
-        <v>45730.89126157408</v>
-      </c>
-      <c r="I78" s="4">
-        <v>45852.89126157408</v>
+        <v>45604.84116898148</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="B79" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" s="4">
-        <v>45819.81947916667</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I79" s="4">
-        <v>46002.81947916667</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B80" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C80" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H80" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>45</v>
+        <v>45819.81947916667</v>
+      </c>
+      <c r="I80" s="4">
+        <v>46002.81947916667</v>
       </c>
       <c r="J80" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B81" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D81" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H81" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I81" s="4">
-        <v>45811.70832175926</v>
+        <v>45652.6609375</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B82" s="1">
         <v>0.08</v>
@@ -3943,106 +3943,106 @@
         <v>0.17</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F82" s="1">
         <v>0.17</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H82" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I82" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B83" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C83" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H83" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>45</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I83" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B84" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C84" s="1">
         <v>0.17</v>
       </c>
       <c r="D84" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E84">
         <v>6</v>
       </c>
       <c r="F84" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H84" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I84" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B85" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D85" s="1">
         <v>0.17</v>
@@ -4054,290 +4054,290 @@
         <v>0.17</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H85" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>45</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I85" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J85" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B86" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H86" s="4">
-        <v>45659.8877199074</v>
+        <v>45050.52782407407</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B87" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C87" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E87">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F87" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H87" s="4">
-        <v>45183.80324074074</v>
+        <v>45659.8877199074</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B88" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D88" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F88" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H88" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B89" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E89">
         <v>6</v>
       </c>
       <c r="F89" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H89" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E90">
         <v>6</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H90" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B91" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F91" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H91" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H92" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B93" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D93" s="1">
         <v>0.17</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="1">
         <v>0.17</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H93" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>45</v>
@@ -4346,82 +4346,82 @@
         <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B94" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H94" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B95" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C95" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0.33</v>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1">
         <v>0.33</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H95" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B96" s="1">
         <v>0.25</v>
@@ -4433,205 +4433,205 @@
         <v>0.33</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F96" s="1">
         <v>0.33</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H96" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B97" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H97" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H98" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B99" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F99" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H99" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B100" s="1">
         <v>0.17</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D100" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G100" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I100" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B101" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H101" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>45</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I101" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J101" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B102" s="1">
         <v>0.08</v>
@@ -4643,170 +4643,170 @@
         <v>0.17</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1">
         <v>0.17</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H102" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B103" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C103" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F103" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H103" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B104" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D104" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E104">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H104" s="4">
-        <v>45832.5594212963</v>
-      </c>
-      <c r="I104" s="4">
-        <v>45893.5594212963</v>
+        <v>44719.5262962963</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B105" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F105" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H105" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>45</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I105" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J105" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B106" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F106" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H106" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>26827</v>
+        <v>26800</v>
       </c>
       <c r="B107" s="1">
         <v>0.08</v>
@@ -4824,24 +4824,24 @@
         <v>0.17</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H107" s="4">
-        <v>45521.44858796296</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>26865</v>
+        <v>26827</v>
       </c>
       <c r="B108" s="1">
         <v>0.08</v>
@@ -4859,24 +4859,24 @@
         <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H108" s="4">
-        <v>45077.72989583333</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>26925</v>
+        <v>26865</v>
       </c>
       <c r="B109" s="1">
         <v>0.08</v>
@@ -4894,24 +4894,24 @@
         <v>0.17</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H109" s="4">
-        <v>45365.7433912037</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>26994</v>
+        <v>26925</v>
       </c>
       <c r="B110" s="1">
         <v>0.08</v>
@@ -4929,228 +4929,263 @@
         <v>0.17</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H110" s="4">
-        <v>45638.64440972222</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>27289</v>
+        <v>26994</v>
       </c>
       <c r="B111" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F111" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H111" s="4">
-        <v>45195.77344907408</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>27514</v>
+        <v>27289</v>
       </c>
       <c r="B112" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E112">
         <v>7</v>
       </c>
       <c r="F112" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H112" s="4">
-        <v>45624.57778935185</v>
+        <v>45195.77344907408</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>28162</v>
+        <v>27514</v>
       </c>
       <c r="B113" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E113">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F113" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H113" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I113" s="4">
-        <v>45868.45422453704</v>
+        <v>45624.57778935185</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>28418</v>
+        <v>28162</v>
       </c>
       <c r="B114" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="C114" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>0.33</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F114" s="1">
         <v>0.33</v>
       </c>
       <c r="G114" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H114" s="4">
-        <v>45581.72913194444</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>45</v>
+        <v>45807.45422453704</v>
+      </c>
+      <c r="I114" s="4">
+        <v>45868.45422453704</v>
       </c>
       <c r="J114" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>28458</v>
+        <v>28418</v>
       </c>
       <c r="B115" s="1">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="C115" s="1">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E115">
-        <v>16612</v>
+        <v>7</v>
       </c>
       <c r="F115" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H115" s="4">
-        <v>45852.67851851852</v>
-      </c>
-      <c r="I115" s="4">
-        <v>45853.67851851852</v>
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="K115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>28502</v>
+        <v>28458</v>
       </c>
       <c r="B116" s="1">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="C116" s="1">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="D116" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>10</v>
+        <v>16651</v>
       </c>
       <c r="F116" s="1">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45800.43686342592</v>
+        <v>45853.66276620371</v>
       </c>
       <c r="I116" s="4">
-        <v>45861.43686342592</v>
+        <v>45854.66276620371</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>28502</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="4">
+        <v>45800.43686342592</v>
+      </c>
+      <c r="I117" s="4">
+        <v>45861.43686342592</v>
+      </c>
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" t="s">
         <v>226</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.6 meses sem comprar</t>
+    <t>INATIVO - 36.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.4 meses sem comprar</t>
@@ -172,159 +172,171 @@
     <t>INATIVO - 18.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.1 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 37.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 37.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 15.1 meses sem comprar</t>
   </si>
   <si>
@@ -343,10 +355,10 @@
     <t>INATIVO - 7.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 21.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
+    <t>INATIVO - 22.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.1 meses sem comprar</t>
@@ -1161,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1196,7 +1208,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1231,7 +1243,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1266,7 +1278,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,7 +1418,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,7 +1453,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,7 +1488,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,7 +1523,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1546,7 +1558,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1581,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1616,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,7 +1663,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1721,7 +1733,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1756,7 +1768,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1791,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1826,7 +1838,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1861,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1896,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1931,7 +1943,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1966,7 +1978,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2001,7 +2013,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2036,7 +2048,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2071,7 +2083,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2106,7 +2118,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2141,7 +2153,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2176,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2211,7 +2223,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2246,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2281,7 +2293,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2316,7 +2328,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,7 +2363,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2386,7 +2398,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2421,7 +2433,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2456,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2491,7 +2503,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2526,7 +2538,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2561,7 +2573,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2596,7 +2608,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2631,7 +2643,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2666,7 +2678,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2701,7 +2713,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2736,7 +2748,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2768,10 +2780,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2806,7 +2818,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2838,10 +2850,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2873,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2908,10 +2920,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2946,7 +2958,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2981,7 +2993,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3016,7 +3028,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3051,7 +3063,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3086,7 +3098,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3121,7 +3133,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3156,7 +3168,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,10 +3200,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3226,7 +3238,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3261,7 +3273,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3296,7 +3308,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3331,7 +3343,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3366,7 +3378,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3401,7 +3413,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3433,10 +3445,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3468,10 +3480,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3506,7 +3518,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3538,10 +3550,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3573,10 +3585,10 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3611,7 +3623,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3646,7 +3658,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3681,7 +3693,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3716,7 +3728,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3748,10 +3760,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3783,10 +3795,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3818,10 +3830,10 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3856,7 +3868,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3891,7 +3903,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3926,7 +3938,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3961,7 +3973,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3996,7 +4008,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4028,10 +4040,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4066,7 +4078,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4098,10 +4110,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4133,10 +4145,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4168,10 +4180,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4203,10 +4215,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4238,10 +4250,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4273,10 +4285,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4308,10 +4320,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4343,10 +4355,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4378,10 +4390,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4413,10 +4425,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4448,10 +4460,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4483,10 +4495,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4518,10 +4530,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4553,10 +4565,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4588,10 +4600,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4626,7 +4638,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4658,10 +4670,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4693,10 +4705,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4728,10 +4740,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4766,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4798,10 +4810,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4833,10 +4845,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4868,10 +4880,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4903,10 +4915,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4938,10 +4950,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4973,10 +4985,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5008,10 +5020,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5043,10 +5055,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5081,7 +5093,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5113,10 +5125,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5124,16 +5136,16 @@
         <v>28458</v>
       </c>
       <c r="B116" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16651</v>
+        <v>16702</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5142,16 +5154,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45853.66276620371</v>
+        <v>45854.62793981482</v>
       </c>
       <c r="I116" s="4">
-        <v>45854.66276620371</v>
+        <v>45855.62793981482</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5186,7 +5198,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="228">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 36.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.6 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 0.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 40.4 meses sem comprar</t>
+    <t>INATIVO - 40.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.1 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 29.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.4 meses sem comprar</t>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.1 meses sem comprar</t>
@@ -220,52 +220,58 @@
     <t>INATIVO - 6.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 32.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
+    <t>INATIVO - 10.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.4 meses sem comprar</t>
+    <t>INATIVO - 28.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.5 meses sem comprar</t>
@@ -274,13 +280,10 @@
     <t>INATIVO - 13.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 34.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
+    <t>INATIVO - 8.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.9 meses sem comprar</t>
@@ -298,19 +301,16 @@
     <t>INATIVO - 10.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
+    <t>INATIVO - 15.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.3 meses sem comprar</t>
@@ -319,25 +319,16 @@
     <t>INATIVO - 19.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 19.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.5 meses sem comprar</t>
+    <t>INATIVO - 33.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 2.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.5 meses sem comprar</t>
@@ -1173,7 +1164,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1208,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1243,7 +1234,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1278,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1313,7 +1304,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1348,7 +1339,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1383,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1418,7 +1409,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1453,7 +1444,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1488,7 +1479,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1523,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1558,7 +1549,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1593,7 +1584,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1628,7 +1619,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1663,7 +1654,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1698,7 +1689,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1733,7 +1724,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1768,7 +1759,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1803,7 +1794,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1838,7 +1829,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1873,7 +1864,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1908,7 +1899,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1943,7 +1934,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1978,7 +1969,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2013,7 +2004,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2048,7 +2039,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2083,7 +2074,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2118,7 +2109,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2153,7 +2144,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2188,7 +2179,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2223,7 +2214,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2258,7 +2249,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2293,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2328,7 +2319,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2363,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2398,7 +2389,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2433,7 +2424,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2468,7 +2459,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2503,7 +2494,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2538,7 +2529,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2573,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2608,7 +2599,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2643,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2678,7 +2669,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2713,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2748,7 +2739,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2783,7 +2774,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2818,7 +2809,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2850,10 +2841,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2885,10 +2876,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2920,10 +2911,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2955,10 +2946,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2993,7 +2984,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3028,7 +3019,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3063,7 +3054,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3098,7 +3089,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3133,7 +3124,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3168,7 +3159,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3200,10 +3191,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3238,7 +3229,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3273,7 +3264,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3308,7 +3299,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3343,7 +3334,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3378,7 +3369,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3413,7 +3404,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3445,10 +3436,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3480,10 +3471,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3491,34 +3482,34 @@
         <v>9247</v>
       </c>
       <c r="B69" s="1">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="C69" s="1">
         <v>0.33</v>
       </c>
       <c r="D69" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4">
-        <v>45850.78201388889</v>
+        <v>45855.7533912037</v>
       </c>
       <c r="I69" s="4">
-        <v>45881.78201388889</v>
+        <v>45886.7533912037</v>
       </c>
       <c r="J69" t="s">
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3550,10 +3541,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3585,10 +3576,10 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3623,7 +3614,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3658,7 +3649,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3693,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3728,7 +3719,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3760,10 +3751,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3795,10 +3786,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3830,10 +3821,10 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3868,7 +3859,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3903,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3938,7 +3929,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3973,7 +3964,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4008,7 +3999,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4040,10 +4031,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4078,7 +4069,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4110,10 +4101,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4145,10 +4136,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4180,10 +4171,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4215,10 +4206,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4250,10 +4241,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4285,10 +4276,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4320,10 +4311,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4355,10 +4346,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4390,10 +4381,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4425,10 +4416,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4463,7 +4454,7 @@
         <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4498,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4530,10 +4521,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4565,10 +4556,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4600,10 +4591,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4638,7 +4629,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4670,10 +4661,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4705,10 +4696,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4740,10 +4731,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4778,7 +4769,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4810,10 +4801,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K106" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4845,10 +4836,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K107" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4880,10 +4871,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4915,10 +4906,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4950,10 +4941,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4985,10 +4976,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5020,10 +5011,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5055,10 +5046,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5093,7 +5084,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5125,10 +5116,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5145,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16702</v>
+        <v>16733</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5154,16 +5145,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45854.62793981482</v>
+        <v>45855.65665509259</v>
       </c>
       <c r="I116" s="4">
-        <v>45855.62793981482</v>
+        <v>45856.65665509259</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5198,7 +5189,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -154,205 +154,205 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 55.9 meses sem comprar</t>
+    <t>INATIVO - 56.0 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
+    <t>INATIVO - 36.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.2 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 29.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 37.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 29.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 32.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.1 meses sem comprar</t>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 2.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 25.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.2 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2992,16 +2992,16 @@
         <v>5984</v>
       </c>
       <c r="B55" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="C55" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="D55" s="1">
         <v>0.83</v>
       </c>
       <c r="E55">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" s="1">
         <v>0.83</v>
@@ -3010,10 +3010,10 @@
         <v>34</v>
       </c>
       <c r="H55" s="4">
-        <v>45840.91363425926</v>
+        <v>45858.90815972222</v>
       </c>
       <c r="I55" s="4">
-        <v>45855.91363425926</v>
+        <v>45873.90815972222</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16733</v>
+        <v>16771</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5145,10 +5145,10 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45855.65665509259</v>
+        <v>45856.73876157407</v>
       </c>
       <c r="I116" s="4">
-        <v>45856.65665509259</v>
+        <v>45857.73876157407</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
@@ -5162,28 +5162,28 @@
         <v>28502</v>
       </c>
       <c r="B117" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C117" s="1">
         <v>0.17</v>
       </c>
       <c r="D117" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G117" t="s">
         <v>36</v>
       </c>
       <c r="H117" s="4">
-        <v>45800.43686342592</v>
+        <v>45856.77859953704</v>
       </c>
       <c r="I117" s="4">
-        <v>45861.43686342592</v>
+        <v>45918.77859953704</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 56.0 meses sem comprar</t>
+    <t>INATIVO - 56.1 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 17.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
+    <t>INATIVO - 18.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.8 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 3.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
+    <t>INATIVO - 38.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
+    <t>INATIVO - 16.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.0 meses sem comprar</t>
@@ -211,139 +211,136 @@
     <t>INATIVO - 0.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.3 meses sem comprar</t>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
+    <t>INATIVO - 22.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 2.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
+    <t>INATIVO - 25.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.1 meses sem comprar</t>
@@ -352,7 +349,7 @@
     <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.2 meses sem comprar</t>
+    <t>INATIVO - 9.3 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1164,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1199,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1234,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1269,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1304,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1339,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1374,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1409,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1444,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1479,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1514,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1549,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1584,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1619,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1654,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1689,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1724,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1759,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1794,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1829,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1864,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1899,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1934,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1969,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2004,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2039,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2074,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2109,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2144,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2179,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2214,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2249,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2284,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2319,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2354,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2389,7 +2386,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2424,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2459,7 +2456,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2494,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2529,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2564,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2599,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2634,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2669,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2704,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2739,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2771,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2809,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2844,7 +2841,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2879,7 +2876,7 @@
         <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2914,7 +2911,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2946,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2984,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3019,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3054,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3089,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3124,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3159,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3191,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3229,7 +3226,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3264,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3299,7 +3296,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3334,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3369,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3404,7 +3401,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3436,10 +3433,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3471,10 +3468,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3509,7 +3506,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3541,10 +3538,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3579,7 +3576,7 @@
         <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3614,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3622,16 +3619,16 @@
         <v>9807</v>
       </c>
       <c r="B73" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C73" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D73" s="1">
         <v>0.67</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" s="1">
         <v>0.67</v>
@@ -3640,16 +3637,16 @@
         <v>39</v>
       </c>
       <c r="H73" s="4">
-        <v>45847.9480787037</v>
+        <v>45859.95621527778</v>
       </c>
       <c r="I73" s="4">
-        <v>45878.9480787037</v>
+        <v>45890.95621527778</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3684,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3719,7 +3716,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3751,10 +3748,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3786,10 +3783,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3821,10 +3818,10 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3859,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3894,7 +3891,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3929,7 +3926,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3964,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3999,7 +3996,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4031,10 +4028,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4069,7 +4066,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4101,10 +4098,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4136,10 +4133,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4171,10 +4168,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4206,10 +4203,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4241,10 +4238,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4276,10 +4273,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4311,10 +4308,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4346,10 +4343,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4381,10 +4378,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4416,10 +4413,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4451,10 +4448,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4486,10 +4483,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4521,10 +4518,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4556,10 +4553,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4591,10 +4588,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4629,7 +4626,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4661,10 +4658,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4696,10 +4693,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4734,7 +4731,7 @@
         <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4769,7 +4766,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4801,10 +4798,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4836,10 +4833,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4871,10 +4868,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4906,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4941,10 +4938,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4976,10 +4973,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5011,10 +5008,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5046,10 +5043,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5084,7 +5081,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5116,10 +5113,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5136,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16771</v>
+        <v>16845</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5145,16 +5142,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45856.73876157407</v>
+        <v>45859.65590277778</v>
       </c>
       <c r="I116" s="4">
-        <v>45857.73876157407</v>
+        <v>45860.65590277778</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5189,7 +5186,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.8 meses sem comprar</t>
+    <t>INATIVO - 36.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.6 meses sem comprar</t>
@@ -172,159 +172,171 @@
     <t>INATIVO - 18.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.8 meses sem comprar</t>
+    <t>INATIVO - 19.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.6 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.3 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 29.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
@@ -343,10 +355,10 @@
     <t>INATIVO - 7.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
+    <t>INATIVO - 22.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.3 meses sem comprar</t>
@@ -1161,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1196,7 +1208,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1231,7 +1243,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1266,7 +1278,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,7 +1418,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,7 +1453,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,7 +1488,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,7 +1523,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1546,7 +1558,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1581,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1616,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,7 +1663,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1721,7 +1733,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1756,7 +1768,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1791,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1826,7 +1838,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1861,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1896,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1931,7 +1943,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1966,7 +1978,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2001,7 +2013,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2036,7 +2048,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2071,7 +2083,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2106,7 +2118,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2141,7 +2153,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2176,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2211,7 +2223,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2246,7 +2258,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2281,7 +2293,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2316,7 +2328,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,7 +2363,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2386,7 +2398,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2421,7 +2433,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2456,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2491,7 +2503,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2526,7 +2538,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2561,7 +2573,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2596,7 +2608,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2631,7 +2643,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2666,7 +2678,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2701,7 +2713,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2736,7 +2748,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2768,10 +2780,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2806,7 +2818,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2838,10 +2850,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2873,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2908,10 +2920,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2946,7 +2958,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2981,7 +2993,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3016,7 +3028,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3051,7 +3063,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3086,7 +3098,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3121,7 +3133,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3156,7 +3168,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,10 +3200,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3226,7 +3238,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3261,7 +3273,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3296,7 +3308,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3331,7 +3343,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3366,7 +3378,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3401,7 +3413,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3433,10 +3445,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3468,10 +3480,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3506,7 +3518,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3538,10 +3550,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3573,10 +3585,10 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3611,7 +3623,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3646,7 +3658,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3681,7 +3693,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3716,7 +3728,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3748,10 +3760,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3783,10 +3795,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3818,10 +3830,10 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3856,7 +3868,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3891,7 +3903,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3926,7 +3938,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3961,7 +3973,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3996,7 +4008,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4028,10 +4040,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4066,7 +4078,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4098,10 +4110,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4133,10 +4145,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4168,10 +4180,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4203,10 +4215,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4238,10 +4250,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4273,10 +4285,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4308,10 +4320,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4343,10 +4355,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4378,10 +4390,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4413,10 +4425,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4448,10 +4460,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4483,10 +4495,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4518,10 +4530,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4553,10 +4565,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4588,10 +4600,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4626,7 +4638,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4658,10 +4670,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4693,10 +4705,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4728,10 +4740,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4766,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4798,10 +4810,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4833,10 +4845,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4868,10 +4880,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4903,10 +4915,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4938,10 +4950,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4973,10 +4985,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5008,10 +5020,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5043,10 +5055,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5081,7 +5093,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5113,10 +5125,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5133,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16845</v>
+        <v>16887</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5142,16 +5154,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45859.65590277778</v>
+        <v>45860.72836805556</v>
       </c>
       <c r="I116" s="4">
-        <v>45860.65590277778</v>
+        <v>45861.72836805556</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5186,7 +5198,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="227">
   <si>
     <t>id_cliente</t>
   </si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 36.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.1 meses sem comprar</t>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 18.8 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 40.6 meses sem comprar</t>
+    <t>INATIVO - 40.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.3 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 30.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.6 meses sem comprar</t>
+    <t>INATIVO - 38.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.3 meses sem comprar</t>
@@ -220,52 +220,58 @@
     <t>INATIVO - 6.8 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
+    <t>INATIVO - 10.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.6 meses sem comprar</t>
+    <t>INATIVO - 28.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.7 meses sem comprar</t>
@@ -274,15 +280,9 @@
     <t>INATIVO - 13.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 34.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 23.1 meses sem comprar</t>
   </si>
   <si>
@@ -298,19 +298,16 @@
     <t>INATIVO - 10.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
+    <t>INATIVO - 15.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.5 meses sem comprar</t>
@@ -319,25 +316,16 @@
     <t>INATIVO - 19.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 20.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.7 meses sem comprar</t>
+    <t>INATIVO - 33.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.7 meses sem comprar</t>
@@ -1173,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1208,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1243,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1278,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1313,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1348,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1383,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1418,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1453,7 +1441,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1488,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1523,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1558,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1593,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1628,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1663,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1698,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1733,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1768,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1803,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1838,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1873,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1908,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1943,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1978,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2013,7 +2001,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2048,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2083,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2118,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2153,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2188,7 +2176,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2223,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2258,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2293,7 +2281,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2328,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2363,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2398,7 +2386,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2433,7 +2421,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2468,7 +2456,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2503,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2538,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2573,7 +2561,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2608,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2643,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2678,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2713,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2748,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2783,7 +2771,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2818,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2850,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2885,10 +2873,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2920,10 +2908,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2955,10 +2943,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2993,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3028,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3063,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3098,7 +3086,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3133,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3168,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3200,10 +3188,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3238,7 +3226,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3273,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3281,34 +3269,34 @@
         <v>6486</v>
       </c>
       <c r="B63" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C63" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D63" s="1">
         <v>0.33</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1">
         <v>0.33</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H63" s="4">
-        <v>45853.78444444444</v>
+        <v>45861.44644675926</v>
       </c>
       <c r="I63" s="4">
-        <v>45915.78444444444</v>
+        <v>45923.44644675926</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3343,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3378,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3413,7 +3401,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3445,10 +3433,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3480,10 +3468,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3518,7 +3506,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3550,10 +3538,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3585,10 +3573,10 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3623,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3658,7 +3646,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3693,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3728,7 +3716,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3760,10 +3748,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3795,10 +3783,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3815,25 +3803,25 @@
         <v>0.17</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F78" s="1">
         <v>0.17</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H78" s="4">
-        <v>45604.84116898148</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>45</v>
+        <v>45861.91070601852</v>
+      </c>
+      <c r="I78" s="4">
+        <v>46045.91070601852</v>
       </c>
       <c r="J78" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3868,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3903,7 +3891,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3938,7 +3926,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3973,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4008,7 +3996,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4043,7 +4031,7 @@
         <v>89</v>
       </c>
       <c r="K84" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4078,7 +4066,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4113,7 +4101,7 @@
         <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4148,7 +4136,7 @@
         <v>91</v>
       </c>
       <c r="K87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4183,7 +4171,7 @@
         <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4218,7 +4206,7 @@
         <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4253,7 +4241,7 @@
         <v>94</v>
       </c>
       <c r="K90" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4288,7 +4276,7 @@
         <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4323,7 +4311,7 @@
         <v>96</v>
       </c>
       <c r="K92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4358,7 +4346,7 @@
         <v>97</v>
       </c>
       <c r="K93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4390,10 +4378,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4425,10 +4413,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4460,10 +4448,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4495,10 +4483,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4530,10 +4518,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4565,10 +4553,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4600,10 +4588,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K100" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4638,7 +4626,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4670,10 +4658,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4705,10 +4693,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K103" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4740,10 +4728,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4778,7 +4766,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4810,10 +4798,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K106" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4845,10 +4833,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K107" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4880,10 +4868,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K108" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4915,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K109" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4950,10 +4938,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4985,10 +4973,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5020,10 +5008,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5055,10 +5043,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5093,7 +5081,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5125,10 +5113,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5145,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16887</v>
+        <v>16928</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5154,16 +5142,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45860.72836805556</v>
+        <v>45861.65097222223</v>
       </c>
       <c r="I116" s="4">
-        <v>45861.72836805556</v>
+        <v>45862.65097222223</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5198,7 +5186,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="226">
   <si>
     <t>id_cliente</t>
   </si>
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 56.1 meses sem comprar</t>
+    <t>INATIVO - 56.2 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 17.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 18.8 meses sem comprar</t>
+    <t>INATIVO - 18.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.9 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 3.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
+    <t>INATIVO - 38.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
+    <t>INATIVO - 16.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.1 meses sem comprar</t>
@@ -211,136 +211,133 @@
     <t>INATIVO - 0.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.4 meses sem comprar</t>
+    <t>INATIVO - 20.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 22.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
+    <t>INATIVO - 25.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.2 meses sem comprar</t>
@@ -349,7 +346,7 @@
     <t>INATIVO - 7.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.3 meses sem comprar</t>
+    <t>INATIVO - 9.4 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -1161,7 +1158,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1196,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1231,7 +1228,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1266,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,7 +1473,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1546,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1581,7 +1578,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1616,7 +1613,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1721,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1756,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1791,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1826,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1861,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1896,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1931,7 +1928,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1966,7 +1963,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2001,7 +1998,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2036,7 +2033,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2071,7 +2068,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2106,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2141,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2176,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2211,7 +2208,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2246,7 +2243,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2281,7 +2278,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2316,7 +2313,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,7 +2348,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2386,7 +2383,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2421,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2456,7 +2453,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2491,7 +2488,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2526,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2561,7 +2558,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2596,7 +2593,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2631,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2666,7 +2663,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2701,7 +2698,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2736,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2768,10 +2765,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2806,7 +2803,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2841,7 +2838,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2876,7 +2873,7 @@
         <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2911,7 +2908,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,10 +2940,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2981,7 +2978,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2998,7 +2995,7 @@
         <v>0.83</v>
       </c>
       <c r="E55">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F55" s="1">
         <v>0.83</v>
@@ -3007,16 +3004,16 @@
         <v>34</v>
       </c>
       <c r="H55" s="4">
-        <v>45858.90815972222</v>
+        <v>45862.7190625</v>
       </c>
       <c r="I55" s="4">
-        <v>45873.90815972222</v>
+        <v>45877.7190625</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3051,7 +3048,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3086,7 +3083,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3121,7 +3118,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3156,7 +3153,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3188,10 +3185,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3226,7 +3223,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3261,7 +3258,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3296,7 +3293,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3331,7 +3328,7 @@
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3348,25 +3345,25 @@
         <v>0.5</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
         <v>0.5</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H65" s="4">
-        <v>45825.79979166666</v>
+        <v>45862.78626157407</v>
       </c>
       <c r="I65" s="4">
-        <v>45855.79979166666</v>
+        <v>45893.78626157407</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3401,7 +3398,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3433,10 +3430,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3468,10 +3465,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3506,7 +3503,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3538,10 +3535,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3576,7 +3573,7 @@
         <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3611,7 +3608,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3646,7 +3643,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3681,7 +3678,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3716,7 +3713,7 @@
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3748,10 +3745,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3783,10 +3780,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3821,7 +3818,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3856,7 +3853,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3891,7 +3888,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3926,7 +3923,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3961,7 +3958,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3996,7 +3993,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4028,10 +4025,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4066,7 +4063,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4098,10 +4095,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4133,10 +4130,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4168,10 +4165,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4203,10 +4200,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4238,10 +4235,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4273,10 +4270,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4308,10 +4305,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4343,10 +4340,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4378,10 +4375,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4413,10 +4410,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4448,10 +4445,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4483,10 +4480,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4518,10 +4515,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4553,10 +4550,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4588,10 +4585,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4626,7 +4623,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4658,10 +4655,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4693,10 +4690,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4731,7 +4728,7 @@
         <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4766,7 +4763,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4798,10 +4795,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="K106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4833,10 +4830,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4868,10 +4865,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4903,10 +4900,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4938,10 +4935,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4973,10 +4970,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5008,10 +5005,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5043,10 +5040,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5081,7 +5078,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5113,10 +5110,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5133,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16928</v>
+        <v>16970</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5142,16 +5139,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45861.65097222223</v>
+        <v>45862.69840277778</v>
       </c>
       <c r="I116" s="4">
-        <v>45862.65097222223</v>
+        <v>45863.69840277778</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5186,7 +5183,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -154,199 +154,199 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 56.2 meses sem comprar</t>
+    <t>INATIVO - 56.3 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 36.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.9 meses sem comprar</t>
+    <t>INATIVO - 37.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 5.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 5.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 30.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.5 meses sem comprar</t>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 6.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
+    <t>INATIVO - 22.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.8 meses sem comprar</t>
+    <t>INATIVO - 25.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 10.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 25.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 9.4 meses sem comprar</t>
+    <t>INATIVO - 22.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 9.5 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -3021,28 +3021,28 @@
         <v>5985</v>
       </c>
       <c r="B56" s="1">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="C56" s="1">
         <v>0.5</v>
       </c>
       <c r="D56" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="E56">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" s="1">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
       </c>
       <c r="H56" s="4">
-        <v>45853.60854166667</v>
+        <v>45863.74923611111</v>
       </c>
       <c r="I56" s="4">
-        <v>45868.60854166667</v>
+        <v>45878.74923611111</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>16970</v>
+        <v>17020</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5139,10 +5139,10 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45862.69840277778</v>
+        <v>45863.74502314815</v>
       </c>
       <c r="I116" s="4">
-        <v>45863.69840277778</v>
+        <v>45864.74502314815</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 37.0 meses sem comprar</t>
+    <t>INATIVO - 37.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.8 meses sem comprar</t>
@@ -172,156 +172,168 @@
     <t>INATIVO - 19.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.0 meses sem comprar</t>
+    <t>INATIVO - 20.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.8 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.5 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 5.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
+    <t>INATIVO - 12.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 30.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.8 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 15.5 meses sem comprar</t>
   </si>
   <si>
@@ -340,10 +352,10 @@
     <t>INATIVO - 7.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 22.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.0 meses sem comprar</t>
+    <t>INATIVO - 22.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 9.5 meses sem comprar</t>
@@ -1158,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1193,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1228,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1263,7 +1275,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1298,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1333,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1368,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1403,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1438,7 +1450,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1473,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1508,7 +1520,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1543,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1578,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1613,7 +1625,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1648,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1683,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1718,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1753,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1788,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1823,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1858,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1893,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1928,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1963,7 +1975,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1998,7 +2010,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2033,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2068,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2103,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2138,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2173,7 +2185,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2208,7 +2220,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2243,7 +2255,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2278,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2313,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2348,7 +2360,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2383,7 +2395,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2418,7 +2430,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2453,7 +2465,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2488,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2523,7 +2535,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2558,7 +2570,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2593,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2628,7 +2640,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2663,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2698,7 +2710,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2733,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2765,10 +2777,10 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2803,7 +2815,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2835,10 +2847,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2870,10 +2882,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2905,10 +2917,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2943,7 +2955,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2978,7 +2990,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3013,7 +3025,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3048,7 +3060,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3083,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3118,7 +3130,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3153,7 +3165,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3185,10 +3197,10 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3223,7 +3235,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3258,7 +3270,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3293,7 +3305,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3304,31 +3316,31 @@
         <v>0.33</v>
       </c>
       <c r="C64" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D64" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="4">
-        <v>45821.79486111111</v>
+        <v>45866.69170138889</v>
       </c>
       <c r="I64" s="4">
-        <v>45851.79486111111</v>
+        <v>45897.69170138889</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3363,7 +3375,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3398,7 +3410,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3430,10 +3442,10 @@
         <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3465,10 +3477,10 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3503,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3535,10 +3547,10 @@
         <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3570,10 +3582,10 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3608,7 +3620,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3643,7 +3655,7 @@
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3678,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3695,7 +3707,7 @@
         <v>0.67</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
         <v>0.67</v>
@@ -3704,16 +3716,16 @@
         <v>24</v>
       </c>
       <c r="H75" s="4">
-        <v>45838.76614583333</v>
+        <v>45866.80982638889</v>
       </c>
       <c r="I75" s="4">
-        <v>45991.76614583333</v>
+        <v>46019.80982638889</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3745,10 +3757,10 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3780,10 +3792,10 @@
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3818,7 +3830,7 @@
         <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3853,7 +3865,7 @@
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3888,7 +3900,7 @@
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3923,7 +3935,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3958,7 +3970,7 @@
         <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3993,7 +4005,7 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4025,10 +4037,10 @@
         <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4063,7 +4075,7 @@
         <v>47</v>
       </c>
       <c r="K85" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4095,10 +4107,10 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4130,10 +4142,10 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4165,10 +4177,10 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4200,10 +4212,10 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4235,10 +4247,10 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4270,10 +4282,10 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4305,10 +4317,10 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4340,10 +4352,10 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K93" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4375,10 +4387,10 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K94" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4410,10 +4422,10 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4445,10 +4457,10 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K96" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4480,10 +4492,10 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4515,10 +4527,10 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K98" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4550,10 +4562,10 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4585,10 +4597,10 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K100" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4623,7 +4635,7 @@
         <v>47</v>
       </c>
       <c r="K101" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4655,10 +4667,10 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4690,10 +4702,10 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K103" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4725,10 +4737,10 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="K104" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4763,7 +4775,7 @@
         <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4795,10 +4807,10 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4830,10 +4842,10 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4865,10 +4877,10 @@
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4900,10 +4912,10 @@
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K109" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4935,10 +4947,10 @@
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4970,10 +4982,10 @@
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K111" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5005,10 +5017,10 @@
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K112" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5040,10 +5052,10 @@
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5078,7 +5090,7 @@
         <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5110,10 +5122,10 @@
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K115" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5130,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>17020</v>
+        <v>17095</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -5139,16 +5151,16 @@
         <v>44</v>
       </c>
       <c r="H116" s="4">
-        <v>45863.74502314815</v>
+        <v>45866.76304398148</v>
       </c>
       <c r="I116" s="4">
-        <v>45864.74502314815</v>
+        <v>45867.76304398148</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5183,7 +5195,7 @@
         <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="230">
   <si>
     <t>id_cliente</t>
   </si>
@@ -121,12 +121,12 @@
     <t>2x por quinzena - irregular</t>
   </si>
   <si>
+    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
+  </si>
+  <si>
     <t>1x a cada 2 meses - irregular (preferencialmente na 1ª quinzena)</t>
   </si>
   <si>
-    <t>1x a cada 2 meses - irregular (preferencialmente na 2ª quinzena)</t>
-  </si>
-  <si>
     <t>1x por mês - irregular (preferencialmente na 2ª quinzena)</t>
   </si>
   <si>
@@ -163,10 +163,10 @@
     <t>INATIVO - 37.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 15.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.3 meses sem comprar</t>
+    <t>INATIVO - 15.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 19.0 meses sem comprar</t>
@@ -184,7 +184,7 @@
     <t>INATIVO - 1.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 40.8 meses sem comprar</t>
+    <t>INATIVO - 40.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.5 meses sem comprar</t>
@@ -205,10 +205,10 @@
     <t>INATIVO - 30.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.8 meses sem comprar</t>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.5 meses sem comprar</t>
@@ -220,52 +220,58 @@
     <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 7.8 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
+    <t>INATIVO - 11.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 12.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 28.8 meses sem comprar</t>
+    <t>INATIVO - 28.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.9 meses sem comprar</t>
@@ -274,9 +280,6 @@
     <t>INATIVO - 13.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.3 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 34.4 meses sem comprar</t>
   </si>
   <si>
@@ -295,19 +298,16 @@
     <t>INATIVO - 10.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.0 meses sem comprar</t>
+    <t>INATIVO - 16.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 5.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 12.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 14.7 meses sem comprar</t>
@@ -316,13 +316,10 @@
     <t>INATIVO - 19.7 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 17.4 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 20.2 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 33.9 meses sem comprar</t>
+    <t>INATIVO - 34.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.2 meses sem comprar</t>
@@ -331,10 +328,7 @@
     <t>INATIVO - 23.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.5 meses sem comprar</t>
+    <t>INATIVO - 0.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 25.9 meses sem comprar</t>
@@ -532,6 +526,9 @@
     <t>KEITE NIELE SARAIVA MOURÃO</t>
   </si>
   <si>
+    <t>PAULO CAMILO DA SILVA NETO</t>
+  </si>
+  <si>
     <t>IAN FREITAS DA SIVA</t>
   </si>
   <si>
@@ -671,6 +668,9 @@
   </si>
   <si>
     <t>CINTHIA MARIA CORRÊA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>SUEDINA QUEIROZ</t>
   </si>
   <si>
     <t>THIAGO CARDOSO COUTINHO</t>
@@ -1090,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1240,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1275,7 +1275,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1310,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1345,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1380,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1415,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1450,7 +1450,7 @@
         <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1485,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1520,7 +1520,7 @@
         <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1555,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1590,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1625,7 +1625,7 @@
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1660,7 +1660,7 @@
         <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1695,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1730,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1765,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1800,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1835,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1870,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1905,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1940,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1975,7 +1975,7 @@
         <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2003,14 +2003,14 @@
       <c r="H26" s="4">
         <v>45686.49481481482</v>
       </c>
-      <c r="I26" s="4">
-        <v>45837.49481481482</v>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2045,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2080,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2115,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2150,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2185,7 +2185,7 @@
         <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2220,7 +2220,7 @@
         <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2255,7 +2255,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2290,7 +2290,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2325,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2360,7 +2360,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2395,7 +2395,7 @@
         <v>73</v>
       </c>
       <c r="K37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2430,7 +2430,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2465,7 +2465,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2500,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2535,7 +2535,7 @@
         <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2570,7 +2570,7 @@
         <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2605,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2640,7 +2640,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2675,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="K45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2710,7 +2710,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2745,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2780,7 +2780,7 @@
         <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2815,7 +2815,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2847,10 +2847,10 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2882,10 +2882,10 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2917,10 +2917,10 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2952,10 +2952,10 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2990,7 +2990,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3025,7 +3025,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3060,7 +3060,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3095,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3130,228 +3130,228 @@
         <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>6136</v>
+        <v>5989</v>
       </c>
       <c r="B59" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G59" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="4">
-        <v>45844.76849537037</v>
+        <v>45867.70571759259</v>
       </c>
       <c r="I59" s="4">
-        <v>45906.76849537037</v>
+        <v>45929.70571759259</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>6293</v>
+        <v>6136</v>
       </c>
       <c r="B60" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H60" s="4">
-        <v>45479.50534722222</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>45</v>
+        <v>45844.76849537037</v>
+      </c>
+      <c r="I60" s="4">
+        <v>45906.76849537037</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6437</v>
+        <v>6293</v>
       </c>
       <c r="B61" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="C61" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E61">
         <v>7</v>
       </c>
       <c r="F61" s="1">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H61" s="4">
-        <v>45708.67063657408</v>
-      </c>
-      <c r="I61" s="4">
-        <v>45736.67063657408</v>
+        <v>45479.50534722222</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>6460</v>
+        <v>6437</v>
       </c>
       <c r="B62" s="1">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D62" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E62">
         <v>7</v>
       </c>
       <c r="F62" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H62" s="4">
-        <v>45733.76335648148</v>
+        <v>45708.67063657408</v>
       </c>
       <c r="I62" s="4">
-        <v>45794.76335648148</v>
+        <v>45736.67063657408</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>6486</v>
+        <v>6460</v>
       </c>
       <c r="B63" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C63" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E63">
         <v>7</v>
       </c>
       <c r="F63" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H63" s="4">
-        <v>45861.44644675926</v>
+        <v>45733.76335648148</v>
       </c>
       <c r="I63" s="4">
-        <v>45923.44644675926</v>
+        <v>45794.76335648148</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>6539</v>
+        <v>6486</v>
       </c>
       <c r="B64" s="1">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C64" s="1">
         <v>0.17</v>
       </c>
       <c r="D64" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64" s="1">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H64" s="4">
-        <v>45866.69170138889</v>
+        <v>45861.44644675926</v>
       </c>
       <c r="I64" s="4">
-        <v>45897.69170138889</v>
+        <v>45923.44644675926</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B65" s="1">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C65" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D65" s="1">
         <v>0.5</v>
@@ -3366,616 +3366,616 @@
         <v>37</v>
       </c>
       <c r="H65" s="4">
-        <v>45862.78626157407</v>
+        <v>45866.69170138889</v>
       </c>
       <c r="I65" s="4">
-        <v>45893.78626157407</v>
+        <v>45897.69170138889</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>6752</v>
+        <v>6544</v>
       </c>
       <c r="B66" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C66" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.5</v>
       </c>
-      <c r="D66" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E66">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" s="4">
-        <v>45787.61539351852</v>
+        <v>45862.78626157407</v>
       </c>
       <c r="I66" s="4">
-        <v>45802.61539351852</v>
+        <v>45893.78626157407</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>7962</v>
+        <v>6752</v>
       </c>
       <c r="B67" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="C67" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="D67" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H67" s="4">
-        <v>45001.60172453704</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>45</v>
+        <v>45787.61539351852</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45802.61539351852</v>
       </c>
       <c r="J67" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>8943</v>
+        <v>7962</v>
       </c>
       <c r="B68" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D68" s="1">
         <v>0.17</v>
       </c>
       <c r="E68">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F68" s="1">
         <v>0.17</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H68" s="4">
-        <v>45180.49822916667</v>
+        <v>45001.60172453704</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>9247</v>
+        <v>8943</v>
       </c>
       <c r="B69" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C69" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E69">
+        <v>91</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G69" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
       <c r="H69" s="4">
-        <v>45855.7533912037</v>
-      </c>
-      <c r="I69" s="4">
-        <v>45886.7533912037</v>
+        <v>45180.49822916667</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>9621</v>
+        <v>9247</v>
       </c>
       <c r="B70" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="C70" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D70" s="1">
         <v>0.5</v>
       </c>
-      <c r="D70" s="1">
-        <v>0.75</v>
-      </c>
       <c r="E70">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F70" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70" s="4">
-        <v>45459.62275462963</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>45</v>
+        <v>45855.7533912037</v>
+      </c>
+      <c r="I70" s="4">
+        <v>45886.7533912037</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>9658</v>
+        <v>9621</v>
       </c>
       <c r="B71" s="1">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C71" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D71" s="1">
         <v>0.75</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1">
         <v>0.75</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H71" s="4">
-        <v>45496.43895833333</v>
+        <v>45459.62275462963</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>9659</v>
+        <v>9658</v>
       </c>
       <c r="B72" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C72" s="1">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D72" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H72" s="4">
-        <v>45748.69037037037</v>
-      </c>
-      <c r="I72" s="4">
-        <v>45809.69037037037</v>
+        <v>45496.43895833333</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>9807</v>
+        <v>9659</v>
       </c>
       <c r="B73" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C73" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D73" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F73" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H73" s="4">
-        <v>45859.95621527778</v>
+        <v>45748.69037037037</v>
       </c>
       <c r="I73" s="4">
-        <v>45890.95621527778</v>
+        <v>45809.69037037037</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>9890</v>
+        <v>9807</v>
       </c>
       <c r="B74" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C74" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D74" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F74" s="1">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H74" s="4">
-        <v>45844.89819444445</v>
+        <v>45867.94199074074</v>
       </c>
       <c r="I74" s="4">
-        <v>45875.89819444445</v>
+        <v>45882.94199074074</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>19765</v>
+        <v>9890</v>
       </c>
       <c r="B75" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C75" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="D75" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H75" s="4">
-        <v>45866.80982638889</v>
+        <v>45844.89819444445</v>
       </c>
       <c r="I75" s="4">
-        <v>46019.80982638889</v>
+        <v>45875.89819444445</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20529</v>
+        <v>19765</v>
       </c>
       <c r="B76" s="1">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D76" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="E76">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H76" s="4">
-        <v>45180.50475694444</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>45</v>
+        <v>45866.80982638889</v>
+      </c>
+      <c r="I76" s="4">
+        <v>46019.80982638889</v>
       </c>
       <c r="J76" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20696</v>
+        <v>20529</v>
       </c>
       <c r="B77" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H77" s="4">
-        <v>44834.48420138889</v>
+        <v>45180.50475694444</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>20764</v>
+        <v>20696</v>
       </c>
       <c r="B78" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4">
-        <v>45861.91070601852</v>
-      </c>
-      <c r="I78" s="4">
-        <v>46045.91070601852</v>
+        <v>44834.48420138889</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20937</v>
+        <v>20764</v>
       </c>
       <c r="B79" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H79" s="4">
-        <v>45730.89126157408</v>
+        <v>45861.91070601852</v>
       </c>
       <c r="I79" s="4">
-        <v>45852.89126157408</v>
+        <v>46045.91070601852</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>20941</v>
+        <v>20937</v>
       </c>
       <c r="B80" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="4">
-        <v>45819.81947916667</v>
+        <v>45730.89126157408</v>
       </c>
       <c r="I80" s="4">
-        <v>46002.81947916667</v>
+        <v>45852.89126157408</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>20970</v>
+        <v>20941</v>
       </c>
       <c r="B81" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C81" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F81" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H81" s="4">
-        <v>45652.6609375</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>45</v>
+        <v>45819.81947916667</v>
+      </c>
+      <c r="I81" s="4">
+        <v>46002.81947916667</v>
       </c>
       <c r="J81" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>21003</v>
+        <v>20970</v>
       </c>
       <c r="B82" s="1">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D82" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H82" s="4">
-        <v>45719.70832175926</v>
-      </c>
-      <c r="I82" s="4">
-        <v>45811.70832175926</v>
+        <v>45652.6609375</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>21019</v>
+        <v>21003</v>
       </c>
       <c r="B83" s="1">
         <v>0.08</v>
@@ -3987,106 +3987,106 @@
         <v>0.17</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1">
         <v>0.17</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H83" s="4">
-        <v>45804.87510416667</v>
+        <v>45719.70832175926</v>
       </c>
       <c r="I83" s="4">
-        <v>45957.87510416667</v>
+        <v>45811.70832175926</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>21162</v>
+        <v>21019</v>
       </c>
       <c r="B84" s="1">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="C84" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H84" s="4">
-        <v>45168.76292824074</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>45</v>
+        <v>45804.87510416667</v>
+      </c>
+      <c r="I84" s="4">
+        <v>45957.87510416667</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>21164</v>
+        <v>21162</v>
       </c>
       <c r="B85" s="1">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C85" s="1">
         <v>0.17</v>
       </c>
       <c r="D85" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H85" s="4">
-        <v>45694.75921296296</v>
-      </c>
-      <c r="I85" s="4">
-        <v>45844.75921296296</v>
+        <v>45168.76292824074</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>21229</v>
+        <v>21164</v>
       </c>
       <c r="B86" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D86" s="1">
         <v>0.17</v>
@@ -4098,45 +4098,45 @@
         <v>0.17</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H86" s="4">
-        <v>45050.52782407407</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>45</v>
+        <v>45694.75921296296</v>
+      </c>
+      <c r="I86" s="4">
+        <v>45844.75921296296</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>21329</v>
+        <v>21229</v>
       </c>
       <c r="B87" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H87" s="4">
-        <v>45659.8877199074</v>
+        <v>45050.52782407407</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>45</v>
@@ -4145,33 +4145,33 @@
         <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>21560</v>
+        <v>21329</v>
       </c>
       <c r="B88" s="1">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C88" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="E88">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F88" s="1">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H88" s="4">
-        <v>45183.80324074074</v>
+        <v>45659.8877199074</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>45</v>
@@ -4180,33 +4180,33 @@
         <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>21571</v>
+        <v>21560</v>
       </c>
       <c r="B89" s="1">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D89" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F89" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H89" s="4">
-        <v>45552.70295138889</v>
+        <v>45183.80324074074</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>45</v>
@@ -4215,33 +4215,33 @@
         <v>92</v>
       </c>
       <c r="K89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>21816</v>
+        <v>21571</v>
       </c>
       <c r="B90" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E90">
         <v>6</v>
       </c>
       <c r="F90" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90" s="4">
-        <v>45385.58152777778</v>
+        <v>45552.70295138889</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>45</v>
@@ -4250,33 +4250,33 @@
         <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>21944</v>
+        <v>21816</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H91" s="4">
-        <v>45689.63208333333</v>
+        <v>45385.58152777778</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>45</v>
@@ -4285,33 +4285,33 @@
         <v>94</v>
       </c>
       <c r="K91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>22130</v>
+        <v>21944</v>
       </c>
       <c r="B92" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F92" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H92" s="4">
-        <v>45484.48732638889</v>
+        <v>45689.63208333333</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>45</v>
@@ -4320,33 +4320,33 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>22780</v>
+        <v>22130</v>
       </c>
       <c r="B93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H93" s="4">
-        <v>45502.45310185185</v>
+        <v>45484.48732638889</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>45</v>
@@ -4355,33 +4355,33 @@
         <v>96</v>
       </c>
       <c r="K93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>25277</v>
+        <v>22780</v>
       </c>
       <c r="B94" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D94" s="1">
         <v>0.17</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1">
         <v>0.17</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H94" s="4">
-        <v>45384.49722222222</v>
+        <v>45502.45310185185</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>45</v>
@@ -4390,82 +4390,82 @@
         <v>97</v>
       </c>
       <c r="K94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>25280</v>
+        <v>25277</v>
       </c>
       <c r="B95" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H95" s="4">
-        <v>44834.46898148148</v>
+        <v>45384.49722222222</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>25482</v>
+        <v>25280</v>
       </c>
       <c r="B96" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="C96" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0.33</v>
       </c>
       <c r="E96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1">
         <v>0.33</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H96" s="4">
-        <v>45425.69083333333</v>
+        <v>44834.46898148148</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>25553</v>
+        <v>25482</v>
       </c>
       <c r="B97" s="1">
         <v>0.25</v>
@@ -4477,205 +4477,205 @@
         <v>0.33</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1">
         <v>0.33</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H97" s="4">
-        <v>45275.73480324074</v>
+        <v>45425.69083333333</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>25633</v>
+        <v>25553</v>
       </c>
       <c r="B98" s="1">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D98" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F98" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H98" s="4">
-        <v>45344.40892361111</v>
+        <v>45275.73480324074</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>25664</v>
+        <v>25633</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H99" s="4">
-        <v>45261.46980324074</v>
+        <v>45344.40892361111</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>25667</v>
+        <v>25664</v>
       </c>
       <c r="B100" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F100" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H100" s="4">
-        <v>44848.60068287037</v>
+        <v>45261.46980324074</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>25864</v>
+        <v>25667</v>
       </c>
       <c r="B101" s="1">
         <v>0.17</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D101" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G101" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" s="4">
-        <v>45794.50590277778</v>
-      </c>
-      <c r="I101" s="4">
-        <v>45917.50590277778</v>
+        <v>44848.60068287037</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="K101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26206</v>
+        <v>25864</v>
       </c>
       <c r="B102" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H102" s="4">
-        <v>45770.68174768519</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>45</v>
+        <v>45794.50590277778</v>
+      </c>
+      <c r="I102" s="4">
+        <v>45917.50590277778</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26221</v>
+        <v>26206</v>
       </c>
       <c r="B103" s="1">
         <v>0.08</v>
@@ -4687,170 +4687,170 @@
         <v>0.17</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1">
         <v>0.17</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H103" s="4">
-        <v>45150.6974537037</v>
+        <v>45770.68174768519</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26275</v>
+        <v>26221</v>
       </c>
       <c r="B104" s="1">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="C104" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E104">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F104" s="1">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H104" s="4">
-        <v>44719.5262962963</v>
+        <v>45150.6974537037</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>26329</v>
+        <v>26275</v>
       </c>
       <c r="B105" s="1">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D105" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="E105">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F105" s="1">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H105" s="4">
-        <v>45832.5594212963</v>
-      </c>
-      <c r="I105" s="4">
-        <v>45893.5594212963</v>
+        <v>44719.5262962963</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>26539</v>
+        <v>26329</v>
       </c>
       <c r="B106" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F106" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H106" s="4">
-        <v>45400.57224537037</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>45</v>
+        <v>45832.5594212963</v>
+      </c>
+      <c r="I106" s="4">
+        <v>45893.5594212963</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>26800</v>
+        <v>26539</v>
       </c>
       <c r="B107" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F107" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H107" s="4">
-        <v>45089.61954861111</v>
+        <v>45400.57224537037</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K107" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>26827</v>
+        <v>26563</v>
       </c>
       <c r="B108" s="1">
         <v>0.08</v>
@@ -4868,24 +4868,24 @@
         <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H108" s="4">
-        <v>45521.44858796296</v>
+        <v>45867.79547453704</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>26865</v>
+        <v>26800</v>
       </c>
       <c r="B109" s="1">
         <v>0.08</v>
@@ -4906,21 +4906,21 @@
         <v>26</v>
       </c>
       <c r="H109" s="4">
-        <v>45077.72989583333</v>
+        <v>45089.61954861111</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>26925</v>
+        <v>26827</v>
       </c>
       <c r="B110" s="1">
         <v>0.08</v>
@@ -4938,24 +4938,24 @@
         <v>0.17</v>
       </c>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H110" s="4">
-        <v>45365.7433912037</v>
+        <v>45521.44858796296</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>26994</v>
+        <v>26865</v>
       </c>
       <c r="B111" s="1">
         <v>0.08</v>
@@ -4973,59 +4973,59 @@
         <v>0.17</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H111" s="4">
-        <v>45638.64440972222</v>
+        <v>45077.72989583333</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>27289</v>
+        <v>26925</v>
       </c>
       <c r="B112" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F112" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H112" s="4">
-        <v>45195.77344907408</v>
+        <v>45365.7433912037</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>27514</v>
+        <v>26994</v>
       </c>
       <c r="B113" s="1">
         <v>0.08</v>
@@ -5037,30 +5037,30 @@
         <v>0.17</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" s="1">
         <v>0.17</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H113" s="4">
-        <v>45624.57778935185</v>
+        <v>45638.64440972222</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>28162</v>
+        <v>27289</v>
       </c>
       <c r="B114" s="1">
         <v>0.17</v>
@@ -5072,129 +5072,199 @@
         <v>0.33</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F114" s="1">
         <v>0.33</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H114" s="4">
-        <v>45807.45422453704</v>
-      </c>
-      <c r="I114" s="4">
-        <v>45868.45422453704</v>
+        <v>45195.77344907408</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>28418</v>
+        <v>27514</v>
       </c>
       <c r="B115" s="1">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="C115" s="1">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="E115">
         <v>7</v>
       </c>
       <c r="F115" s="1">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H115" s="4">
-        <v>45581.72913194444</v>
+        <v>45624.57778935185</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>28458</v>
+        <v>28162</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="C116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E116">
-        <v>17095</v>
+        <v>13</v>
       </c>
       <c r="F116" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H116" s="4">
-        <v>45866.76304398148</v>
+        <v>45807.45422453704</v>
       </c>
       <c r="I116" s="4">
-        <v>45867.76304398148</v>
+        <v>45868.45422453704</v>
       </c>
       <c r="J116" t="s">
         <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
+        <v>28418</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G117" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="4">
+        <v>45581.72913194444</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J117" t="s">
+        <v>112</v>
+      </c>
+      <c r="K117" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>28458</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>17136</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="4">
+        <v>45867.67916666667</v>
+      </c>
+      <c r="I118" s="4">
+        <v>45868.67916666667</v>
+      </c>
+      <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
         <v>28502</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B119" s="1">
         <v>0.25</v>
       </c>
-      <c r="C117" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E117">
+      <c r="C119" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E119">
         <v>11</v>
       </c>
-      <c r="F117" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
-      <c r="H117" s="4">
+      <c r="F119" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="4">
         <v>45856.77859953704</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I119" s="4">
         <v>45918.77859953704</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J119" t="s">
         <v>47</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K119" t="s">
         <v>229</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -154,7 +154,7 @@
     <t>INATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 56.3 meses sem comprar</t>
+    <t>INATIVO - 56.4 meses sem comprar</t>
   </si>
   <si>
     <t>ATIVO</t>
@@ -169,7 +169,7 @@
     <t>INATIVO - 17.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 19.0 meses sem comprar</t>
+    <t>INATIVO - 19.1 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 20.1 meses sem comprar</t>
@@ -190,13 +190,13 @@
     <t>INATIVO - 3.5 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 38.4 meses sem comprar</t>
+    <t>INATIVO - 38.5 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 12.4 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 16.3 meses sem comprar</t>
+    <t>INATIVO - 16.4 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.3 meses sem comprar</t>
@@ -211,139 +211,139 @@
     <t>INATIVO - 0.9 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.6 meses sem comprar</t>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 7.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
+    <t>INATIVO - 22.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.6 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 10.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 5.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 14.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 19.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.9 meses sem comprar</t>
-  </si>
-  <si>
     <t>INATIVO - 0.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 25.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.6 meses sem comprar</t>
+    <t>INATIVO - 26.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.7 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 22.4 meses sem comprar</t>
@@ -352,7 +352,7 @@
     <t>INATIVO - 8.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 9.5 meses sem comprar</t>
+    <t>INATIVO - 9.6 meses sem comprar</t>
   </si>
   <si>
     <t>DHECKSOM SOLTELO</t>
@@ -2007,7 +2007,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
         <v>137</v>
@@ -2042,7 +2042,7 @@
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
         <v>138</v>
@@ -2112,7 +2112,7 @@
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K29" t="s">
         <v>140</v>
@@ -2147,7 +2147,7 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K30" t="s">
         <v>141</v>
@@ -2182,7 +2182,7 @@
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
         <v>142</v>
@@ -2217,7 +2217,7 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
         <v>143</v>
@@ -2252,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
         <v>144</v>
@@ -2322,7 +2322,7 @@
         <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s">
         <v>146</v>
@@ -2357,7 +2357,7 @@
         <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s">
         <v>147</v>
@@ -2392,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
         <v>148</v>
@@ -2462,7 +2462,7 @@
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s">
         <v>150</v>
@@ -2497,7 +2497,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
         <v>151</v>
@@ -2567,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
         <v>153</v>
@@ -2637,7 +2637,7 @@
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s">
         <v>155</v>
@@ -2672,7 +2672,7 @@
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
         <v>156</v>
@@ -2707,7 +2707,7 @@
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
         <v>157</v>
@@ -2742,7 +2742,7 @@
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
         <v>158</v>
@@ -2777,7 +2777,7 @@
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
         <v>159</v>
@@ -2788,28 +2788,28 @@
         <v>5322</v>
       </c>
       <c r="B49" s="1">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H49" s="4">
-        <v>45741.43402777778</v>
+        <v>45868.65519675926</v>
       </c>
       <c r="I49" s="4">
-        <v>45833.43402777778</v>
+        <v>45960.65519675926</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
@@ -2847,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
         <v>161</v>
@@ -2882,7 +2882,7 @@
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s">
         <v>162</v>
@@ -2917,7 +2917,7 @@
         <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s">
         <v>163</v>
@@ -2952,7 +2952,7 @@
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
         <v>164</v>
@@ -3007,7 +3007,7 @@
         <v>0.83</v>
       </c>
       <c r="E55">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1">
         <v>0.83</v>
@@ -3016,10 +3016,10 @@
         <v>34</v>
       </c>
       <c r="H55" s="4">
-        <v>45862.7190625</v>
+        <v>45868.91077546297</v>
       </c>
       <c r="I55" s="4">
-        <v>45877.7190625</v>
+        <v>45883.91077546297</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
@@ -3582,7 +3582,7 @@
         <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s">
         <v>181</v>
@@ -3707,7 +3707,7 @@
         <v>0.33</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
         <v>0.33</v>
@@ -3716,10 +3716,10 @@
         <v>39</v>
       </c>
       <c r="H75" s="4">
-        <v>45844.89819444445</v>
+        <v>45868.83857638889</v>
       </c>
       <c r="I75" s="4">
-        <v>45875.89819444445</v>
+        <v>45899.83857638889</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
@@ -3827,7 +3827,7 @@
         <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s">
         <v>188</v>
@@ -3967,7 +3967,7 @@
         <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s">
         <v>192</v>
@@ -4072,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s">
         <v>195</v>
@@ -4142,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
         <v>197</v>
@@ -4177,7 +4177,7 @@
         <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s">
         <v>198</v>
@@ -4212,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s">
         <v>199</v>
@@ -4247,7 +4247,7 @@
         <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
         <v>200</v>
@@ -4282,7 +4282,7 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K91" t="s">
         <v>201</v>
@@ -4317,7 +4317,7 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K92" t="s">
         <v>202</v>
@@ -4352,7 +4352,7 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
         <v>203</v>
@@ -4387,7 +4387,7 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
         <v>204</v>
@@ -4422,7 +4422,7 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
         <v>205</v>
@@ -4457,7 +4457,7 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K96" t="s">
         <v>206</v>
@@ -4492,7 +4492,7 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
         <v>207</v>
@@ -4527,7 +4527,7 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s">
         <v>208</v>
@@ -4562,7 +4562,7 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K99" t="s">
         <v>209</v>
@@ -4597,7 +4597,7 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s">
         <v>210</v>
@@ -4632,7 +4632,7 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K101" t="s">
         <v>211</v>
@@ -4702,7 +4702,7 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K103" t="s">
         <v>213</v>
@@ -4737,7 +4737,7 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s">
         <v>214</v>
@@ -4842,7 +4842,7 @@
         <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
         <v>217</v>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>17136</v>
+        <v>17185</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -5221,10 +5221,10 @@
         <v>44</v>
       </c>
       <c r="H118" s="4">
-        <v>45867.67916666667</v>
+        <v>45868.68793981482</v>
       </c>
       <c r="I118" s="4">
-        <v>45868.67916666667</v>
+        <v>45869.68793981482</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>

--- a/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/previsao_retorno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="233">
   <si>
     <t>id_cliente</t>
   </si>
@@ -160,7 +160,7 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>INATIVO - 37.1 meses sem comprar</t>
+    <t>INATIVO - 37.2 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 15.9 meses sem comprar</t>
@@ -172,163 +172,169 @@
     <t>INATIVO - 19.1 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 20.1 meses sem comprar</t>
+    <t>INATIVO - 20.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 6.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 1.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 40.9 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 3.6 meses sem comprar</t>
   </si>
   <si>
+    <t>INATIVO - 38.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 30.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 38.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 0.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 18.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 15.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 33.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 35.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 8.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 26.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 11.1 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 28.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 13.7 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 23.4 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 27.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 7.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 22.9 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 10.6 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.1 meses sem comprar</t>
+  </si>
+  <si>
     <t>INATIVO - 6.0 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 1.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 40.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 3.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 12.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 16.4 meses sem comprar</t>
+    <t>INATIVO - 12.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 12.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 16.2 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 14.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 19.8 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 17.5 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 20.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 34.0 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 3.3 meses sem comprar</t>
+  </si>
+  <si>
+    <t>INATIVO - 24.0 meses sem comprar</t>
   </si>
   <si>
     <t>INATIVO - 38.3 meses sem comprar</t>
   </si>
   <si>
-    <t>INATIVO - 30.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 38.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 0.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 6.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 20.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 18.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.1 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 15.7 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 27.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 33.3 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 35.4 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.6 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 8.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 26.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.2 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 17.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 7.8 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 11.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 13.0 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 28.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 22.9 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 34.5 meses sem comprar</t>
-  </si>
-  <si>
-    <t>INATIVO - 23.3 meses 